--- a/thongnd_everything_list.xlsx
+++ b/thongnd_everything_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1bcb454f33dbfecf/ドキュメント/GitHub/My_Everything_Lists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16484456-DC0F-4506-8B4C-352B4F26DEF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{16484456-DC0F-4506-8B4C-352B4F26DEF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{278F8AC8-0774-4C35-B1F1-E0D8AD3E5BED}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
     <definedName name="game">game!$A$1:$C$31</definedName>
     <definedName name="list_film_to_watch">todolist!$A$1:$D$46</definedName>
     <definedName name="music_list">music_list!$A$1:$D$296</definedName>
-    <definedName name="reading_list">reading_list!$A$1:$E$21</definedName>
+    <definedName name="reading_list">reading_list!$A$1:$F$21</definedName>
     <definedName name="software_list">software_list!$A$1:$C$51</definedName>
     <definedName name="technical">#REF!</definedName>
     <definedName name="truyen_tranh">truyen_tranh!$A$1:$C$11</definedName>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="1164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1763" uniqueCount="1167">
   <si>
     <t>ID</t>
   </si>
@@ -826,19 +826,10 @@
     <t>Twelve Monkey</t>
   </si>
   <si>
-    <t> 1995</t>
-  </si>
-  <si>
     <t>Jurassic World: The Fallen Kingdom</t>
   </si>
   <si>
-    <t>    2018          </t>
-  </si>
-  <si>
     <t>Predestination </t>
-  </si>
-  <si>
-    <t>   2014   </t>
   </si>
   <si>
     <t>rewatch 6-Jun21</t>
@@ -4111,6 +4102,42 @@
   </si>
   <si>
     <t>NOTE</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Real-Time Interfacing to ARM Cortex-M Microcontrollers</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>2018          </t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>2014   </t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Jonathan W. Valvano</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5%, dropped</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Rating</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -4720,22 +4747,22 @@
     </row>
     <row r="40" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4771,23 +4798,23 @@
     </row>
     <row r="51" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="52" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="53" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="9" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="55" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="56" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4795,22 +4822,22 @@
     </row>
     <row r="57" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="58" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="1" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="59" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="60" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="61" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4820,67 +4847,67 @@
     </row>
     <row r="62" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="1" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="63" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="1" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="64" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="1" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="65" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="1" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="66" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="1" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="67" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="1" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="68" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="1" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="69" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="1" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="70" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="1" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="71" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="1" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="72" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="1" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="73" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="1" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="74" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" s="1" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="77" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5866,7 +5893,7 @@
         <v>261</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C2" s="4"/>
     </row>
@@ -5876,7 +5903,7 @@
         <v>271</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C3" s="4"/>
     </row>
@@ -5886,11 +5913,11 @@
         <v>226</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C4" s="4"/>
       <c r="F4" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5899,7 +5926,7 @@
         <v>238</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C5" s="4">
         <v>1997</v>
@@ -5908,7 +5935,7 @@
         <v>44346</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5917,11 +5944,11 @@
         <v>148</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="C6" s="4"/>
       <c r="F6" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5930,16 +5957,16 @@
         <v>294</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C7" s="4">
         <v>2021</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5948,16 +5975,16 @@
         <v>296</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C8" s="4">
         <v>2021</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5965,13 +5992,13 @@
         <v>305</v>
       </c>
       <c r="B9" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="C9" s="4">
         <v>2023</v>
       </c>
       <c r="D9" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -5983,14 +6010,14 @@
         <v>290</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="1" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5999,13 +6026,13 @@
         <v>291</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="D12" s="1">
         <v>2023</v>
@@ -6017,7 +6044,7 @@
         <v>115</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C13" s="4">
         <v>2016</v>
@@ -6026,80 +6053,80 @@
         <v>43387</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E15" s="15" t="s">
         <v>1134</v>
       </c>
-      <c r="E15" s="15" t="s">
-        <v>1137</v>
-      </c>
       <c r="G15" s="8" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="C16">
         <v>2021</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G16" s="16" t="s">
         <v>1138</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>1139</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>1141</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="E18">
         <v>5</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
     </row>
   </sheetData>
@@ -6113,8 +6140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G999"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8036,8 +8063,8 @@
       <c r="B109" t="s">
         <v>259</v>
       </c>
-      <c r="C109" s="4" t="s">
-        <v>260</v>
+      <c r="C109" s="4">
+        <v>1995</v>
       </c>
       <c r="D109" s="5">
         <v>43310</v>
@@ -8052,10 +8079,10 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>262</v>
+        <v>1162</v>
       </c>
       <c r="D110" s="5">
         <v>43319</v>
@@ -8070,10 +8097,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>264</v>
+        <v>1163</v>
       </c>
       <c r="D111" s="5">
         <v>43327</v>
@@ -8082,7 +8109,7 @@
         <v>61</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8091,10 +8118,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D112" s="5">
         <v>43346</v>
@@ -8109,22 +8136,22 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D113" s="5">
         <v>43353</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8133,10 +8160,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D114" s="5">
         <v>43373</v>
@@ -8151,10 +8178,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D115" s="5">
         <v>43375</v>
@@ -8169,7 +8196,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C117" s="4">
         <v>1999</v>
@@ -8187,7 +8214,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C118" s="4">
         <v>2018</v>
@@ -8205,7 +8232,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C119" s="4">
         <v>2018</v>
@@ -8223,7 +8250,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C120" s="4">
         <v>2018</v>
@@ -8232,13 +8259,13 @@
         <v>43450</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8247,10 +8274,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D121" s="5">
         <v>43461</v>
@@ -8259,7 +8286,7 @@
         <v>61</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8268,10 +8295,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D122" s="5">
         <v>43468</v>
@@ -8286,10 +8313,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D123" s="5">
         <v>43470</v>
@@ -8304,10 +8331,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D124" s="5">
         <v>43513</v>
@@ -8322,10 +8349,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D125" s="5">
         <v>43528</v>
@@ -8334,7 +8361,7 @@
         <v>61</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8343,10 +8370,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D126" s="5">
         <v>43582</v>
@@ -8361,10 +8388,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D127" s="5">
         <v>43590</v>
@@ -8379,10 +8406,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D128" s="5">
         <v>43617</v>
@@ -8397,16 +8424,16 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8415,10 +8442,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D130" s="5">
         <v>43708</v>
@@ -8433,11 +8460,11 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C131" s="4"/>
       <c r="F131" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8446,14 +8473,14 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C132" s="4"/>
       <c r="F132" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8462,14 +8489,14 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C133" s="4"/>
       <c r="F133" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8478,11 +8505,11 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C134" s="4"/>
       <c r="F134" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8491,11 +8518,11 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C135" s="4"/>
       <c r="F135" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8504,11 +8531,11 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C136" s="4"/>
       <c r="F136" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8517,11 +8544,11 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C137" s="4"/>
       <c r="F137" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8530,11 +8557,11 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C138" s="4"/>
       <c r="F138" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8543,11 +8570,11 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C139" s="4"/>
       <c r="F139" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8556,11 +8583,11 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C140" s="4"/>
       <c r="F140" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8569,14 +8596,14 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C141" s="4"/>
       <c r="F141" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8585,11 +8612,11 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C142" s="4"/>
       <c r="F142" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8598,11 +8625,11 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C143" s="4"/>
       <c r="F143" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8611,11 +8638,11 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C144" s="4"/>
       <c r="F144" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8624,11 +8651,11 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C145" s="4"/>
       <c r="F145" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8637,13 +8664,13 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8652,11 +8679,11 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C147" s="4"/>
       <c r="F147" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8665,11 +8692,11 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C148" s="4"/>
       <c r="F148" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8678,11 +8705,11 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C150" s="4"/>
       <c r="F150" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8691,11 +8718,11 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C151" s="4"/>
       <c r="F151" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8704,11 +8731,11 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C152" s="4"/>
       <c r="F152" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8717,14 +8744,14 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C153" s="4"/>
       <c r="F153" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8733,11 +8760,11 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C154" s="4"/>
       <c r="F154" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8746,11 +8773,11 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C155" s="4"/>
       <c r="F155" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8759,14 +8786,14 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C156" s="4"/>
       <c r="F156" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8775,14 +8802,14 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C157" s="4"/>
       <c r="D157" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8791,11 +8818,11 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C158" s="4"/>
       <c r="F158" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8804,11 +8831,11 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C159" s="4"/>
       <c r="F159" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8817,11 +8844,11 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C160" s="4"/>
       <c r="F160" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8830,11 +8857,11 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C161" s="4"/>
       <c r="F161" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8843,11 +8870,11 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C162" s="4"/>
       <c r="F162" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8856,11 +8883,11 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C163" s="4"/>
       <c r="F163" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8869,11 +8896,11 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C164" s="4"/>
       <c r="F164" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8882,11 +8909,11 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C165" s="4"/>
       <c r="F165" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8895,11 +8922,11 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C166" s="4"/>
       <c r="F166" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8908,11 +8935,11 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C167" s="4"/>
       <c r="F167" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8921,11 +8948,11 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C168" s="4"/>
       <c r="F168" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8934,11 +8961,11 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C169" s="4"/>
       <c r="F169" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8947,11 +8974,11 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C170" s="4"/>
       <c r="F170" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8960,11 +8987,11 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C171" s="4"/>
       <c r="F171" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8973,11 +9000,11 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C172" s="4"/>
       <c r="F172" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8986,11 +9013,11 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C173" s="4"/>
       <c r="F173" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8999,11 +9026,11 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C174" s="4"/>
       <c r="F174" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9012,11 +9039,11 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C175" s="4"/>
       <c r="F175" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9025,11 +9052,11 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C176" s="4"/>
       <c r="F176" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9038,11 +9065,11 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C177" s="4"/>
       <c r="F177" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9051,11 +9078,11 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C178" s="4"/>
       <c r="F178" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9064,11 +9091,11 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C179" s="4"/>
       <c r="F179" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9077,11 +9104,11 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C180" s="4"/>
       <c r="F180" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9094,7 +9121,7 @@
       </c>
       <c r="C181" s="4"/>
       <c r="F181" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9103,13 +9130,13 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9122,7 +9149,7 @@
       </c>
       <c r="C183" s="4"/>
       <c r="F183" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9131,11 +9158,11 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C184" s="4"/>
       <c r="F184" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9144,11 +9171,11 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C185" s="4"/>
       <c r="F185" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9157,11 +9184,11 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C186" s="4"/>
       <c r="F186" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9170,14 +9197,14 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C187" s="4"/>
       <c r="E187" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9186,10 +9213,10 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D188" s="5">
         <v>42797</v>
@@ -9198,7 +9225,7 @@
         <v>207</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9207,11 +9234,11 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C189" s="4"/>
       <c r="F189" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9220,11 +9247,11 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C190" s="4"/>
       <c r="F190" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9233,11 +9260,11 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C191" s="4"/>
       <c r="F191" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9246,11 +9273,11 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C192" s="4"/>
       <c r="F192" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9259,11 +9286,11 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C193" s="4"/>
       <c r="F193" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9272,11 +9299,11 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C194" s="4"/>
       <c r="F194" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="195" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9285,11 +9312,11 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C195" s="4"/>
       <c r="F195" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="196" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9298,11 +9325,11 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C196" s="4"/>
       <c r="F196" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9311,11 +9338,11 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C197" s="4"/>
       <c r="F197" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="198" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9324,11 +9351,11 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C198" s="4"/>
       <c r="F198" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9337,11 +9364,11 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C199" s="4"/>
       <c r="F199" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="200" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9350,11 +9377,11 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C200" s="4"/>
       <c r="F200" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="201" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9363,11 +9390,11 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C201" s="4"/>
       <c r="F201" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="202" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9376,10 +9403,10 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D202" s="5">
         <v>42925</v>
@@ -9388,10 +9415,10 @@
         <v>128</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="203" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9400,14 +9427,14 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C203" s="4"/>
       <c r="F203" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="204" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9416,14 +9443,14 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C204" s="4"/>
       <c r="F204" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9432,14 +9459,14 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C205" s="4"/>
       <c r="F205" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="206" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9448,14 +9475,14 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C206" s="4"/>
       <c r="F206" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="207" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9464,11 +9491,11 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="C207" s="4"/>
       <c r="F207" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="208" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9477,17 +9504,17 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C208" s="4"/>
       <c r="D208" s="5">
         <v>43071</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="209" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9496,11 +9523,11 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C209" s="4"/>
       <c r="F209" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="210" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9509,14 +9536,14 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C210" s="4"/>
       <c r="F210" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="211" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9525,14 +9552,14 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C211" s="4"/>
       <c r="F211" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="212" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9541,11 +9568,11 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C212" s="4"/>
       <c r="F212" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="213" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9554,11 +9581,11 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C213" s="4"/>
       <c r="F213" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="214" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9567,11 +9594,11 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C214" s="4"/>
       <c r="F214" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="215" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9580,11 +9607,11 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C215" s="4"/>
       <c r="F215" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="216" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9593,11 +9620,11 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C216" s="4"/>
       <c r="F216" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="217" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9606,14 +9633,14 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C217" s="4"/>
       <c r="F217" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="218" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9622,11 +9649,11 @@
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C218" s="4"/>
       <c r="F218" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="219" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9635,11 +9662,11 @@
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C219" s="4"/>
       <c r="F219" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="220" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9648,14 +9675,14 @@
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C220" s="4"/>
       <c r="F220" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="G220" s="1" t="s">
         <v>439</v>
-      </c>
-      <c r="G220" s="1" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="221" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9664,11 +9691,11 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C221" s="4"/>
       <c r="F221" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="222" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9677,14 +9704,14 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C222" s="4"/>
       <c r="F222" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="223" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9693,14 +9720,14 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="C223" s="4"/>
       <c r="F223" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="224" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9709,11 +9736,11 @@
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C224" s="4"/>
       <c r="F224" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="225" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9722,11 +9749,11 @@
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C225" s="4"/>
       <c r="F225" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="226" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9735,11 +9762,11 @@
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C226" s="4"/>
       <c r="F226" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="228" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9748,11 +9775,11 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C228" s="4"/>
       <c r="F228" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="229" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9761,11 +9788,11 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C229" s="4"/>
       <c r="F229" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="230" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9774,11 +9801,11 @@
         <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C230" s="4"/>
       <c r="F230" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="231" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9787,11 +9814,11 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C231" s="4"/>
       <c r="F231" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="232" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9800,11 +9827,11 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C232" s="4"/>
       <c r="F232" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="233" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9813,14 +9840,14 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C233" s="4"/>
       <c r="F233" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G233" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="234" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9829,7 +9856,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C234" s="4">
         <v>2021</v>
@@ -9844,7 +9871,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C235" s="4">
         <v>2021</v>
@@ -9853,7 +9880,7 @@
         <v>44332</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="236" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9862,7 +9889,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C236" s="4">
         <v>2011</v>
@@ -9871,10 +9898,10 @@
         <v>44340</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="237" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9883,17 +9910,17 @@
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C237" s="4"/>
       <c r="D237" s="5">
         <v>44343</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="238" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9902,7 +9929,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C238" s="4">
         <v>1986</v>
@@ -9917,17 +9944,17 @@
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C240" s="4"/>
       <c r="D240" s="5">
         <v>44380</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="241" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9936,20 +9963,20 @@
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C241" s="4"/>
       <c r="D241" s="5">
         <v>44380</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="242" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9958,7 +9985,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C242" s="4">
         <v>2021</v>
@@ -9967,7 +9994,7 @@
         <v>44401</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="243" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9976,7 +10003,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C243" s="4"/>
     </row>
@@ -9986,7 +10013,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C244" s="4"/>
     </row>
@@ -9996,14 +10023,14 @@
         <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C245" s="4"/>
       <c r="F245" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="G245" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="246" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10012,7 +10039,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C246" s="4"/>
     </row>
@@ -10022,11 +10049,11 @@
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C247" s="4"/>
       <c r="G247" s="1" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="248" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10035,11 +10062,11 @@
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C248" s="4"/>
       <c r="G248" s="1" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="249" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10048,7 +10075,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C249" s="4"/>
     </row>
@@ -10058,7 +10085,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C250" s="4"/>
     </row>
@@ -10068,11 +10095,11 @@
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C251" s="4"/>
       <c r="G251" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="252" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10081,7 +10108,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C252" s="4"/>
     </row>
@@ -10091,7 +10118,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C253" s="4"/>
     </row>
@@ -10101,11 +10128,11 @@
         <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C254" s="4"/>
       <c r="G254" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="255" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10114,7 +10141,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C255" s="4"/>
     </row>
@@ -10124,11 +10151,11 @@
         <v>255</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C256" s="4"/>
       <c r="G256" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="257" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10137,11 +10164,11 @@
         <v>256</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C257" s="4"/>
       <c r="G257" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="258" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10150,7 +10177,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C258" s="4"/>
     </row>
@@ -10160,14 +10187,14 @@
         <v>258</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C259" s="4"/>
       <c r="D259" s="5">
         <v>44437</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="260" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10176,11 +10203,11 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C260" s="4"/>
       <c r="F260" s="1" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="G260" s="1" t="s">
         <v>46</v>
@@ -10192,11 +10219,11 @@
         <v>260</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C261" s="4"/>
       <c r="F261" s="1" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="G261" s="1" t="s">
         <v>46</v>
@@ -10208,13 +10235,13 @@
         <v>262</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C263" s="4">
         <v>2003</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="264" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10223,13 +10250,13 @@
         <v>263</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C264" s="4">
         <v>2007</v>
       </c>
       <c r="G264" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="265" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10238,11 +10265,11 @@
         <v>264</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C265" s="4"/>
       <c r="G265" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="266" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10251,11 +10278,11 @@
         <v>265</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C266" s="4"/>
       <c r="G266" s="1" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="267" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10264,11 +10291,11 @@
         <v>266</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C267" s="4"/>
       <c r="G267" s="1" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="268" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10277,7 +10304,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C268" s="4">
         <v>1994</v>
@@ -10289,20 +10316,20 @@
         <v>268</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C269" s="4"/>
       <c r="D269" s="5">
         <v>44448</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G269" s="1" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="270" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10311,7 +10338,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C270" s="4"/>
     </row>
@@ -10321,7 +10348,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C271" s="4">
         <v>1999</v>
@@ -10333,7 +10360,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C273" s="4"/>
       <c r="D273" s="5">
@@ -10346,11 +10373,11 @@
         <v>273</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C274" s="4"/>
       <c r="G274" s="1" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="275" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10359,7 +10386,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C275" s="4"/>
     </row>
@@ -10369,7 +10396,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C276" s="4">
         <v>2012</v>
@@ -10381,7 +10408,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C277" s="4"/>
     </row>
@@ -10391,7 +10418,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C278" s="4">
         <v>1998</v>
@@ -10403,13 +10430,13 @@
         <v>278</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C279" s="4">
         <v>2008</v>
       </c>
       <c r="G279" s="1" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="280" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10418,7 +10445,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C280" s="4"/>
     </row>
@@ -10428,14 +10455,14 @@
         <v>280</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C281" s="4"/>
       <c r="D281" s="5">
         <v>44458</v>
       </c>
       <c r="G281" s="1" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="282" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10444,7 +10471,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C282" s="4">
         <v>2019</v>
@@ -10453,7 +10480,7 @@
         <v>44499</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="283" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10462,7 +10489,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C283" s="4">
         <v>2021</v>
@@ -10471,7 +10498,7 @@
         <v>44520</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="284" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10480,7 +10507,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C284" s="4">
         <v>2013</v>
@@ -10498,7 +10525,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C285" s="4">
         <v>2021</v>
@@ -10507,10 +10534,10 @@
         <v>44548</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G285" s="1" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="286" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10519,7 +10546,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C286" s="4">
         <v>0</v>
@@ -10531,7 +10558,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C287" s="4">
         <v>2011</v>
@@ -10543,7 +10570,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C288" s="4"/>
     </row>
@@ -10553,7 +10580,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C289" s="4"/>
     </row>
@@ -10563,16 +10590,16 @@
         <v>289</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C290" s="4">
         <v>2021</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="G290" s="1" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="293" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10581,16 +10608,16 @@
         <v>292</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C293" s="4">
         <v>2022</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="G293" s="1" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="294" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10599,17 +10626,17 @@
         <v>293</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C294" s="4"/>
       <c r="D294" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E294" s="6">
         <v>7</v>
       </c>
       <c r="G294" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="295" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10618,7 +10645,7 @@
         <v>295</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C295" s="4"/>
     </row>
@@ -10628,13 +10655,13 @@
         <v>296</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C296" s="4">
         <v>2014</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="E296" s="1">
         <v>6</v>
@@ -10646,13 +10673,13 @@
         <v>297</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C297" s="4">
         <v>2022</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="E297" s="1">
         <v>7.3</v>
@@ -10664,13 +10691,13 @@
         <v>298</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C298" s="4">
         <v>2022</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="299" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10678,11 +10705,11 @@
         <v>299</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C299" s="4"/>
       <c r="D299" s="1" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="E299" s="1">
         <v>7.8</v>
@@ -10693,13 +10720,13 @@
         <v>300</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C300" s="4">
         <v>2017</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="E300" s="1">
         <v>6.5</v>
@@ -10710,19 +10737,19 @@
         <v>301</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C301" s="4">
         <v>2022</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="E301" s="1">
         <v>7</v>
       </c>
       <c r="G301" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="302" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10730,7 +10757,7 @@
         <v>302</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C302" s="4">
         <v>2019</v>
@@ -10742,7 +10769,7 @@
         <v>7.8</v>
       </c>
       <c r="G302" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="303" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10750,19 +10777,19 @@
         <v>303</v>
       </c>
       <c r="B303" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="C303" s="4">
         <v>2001</v>
       </c>
       <c r="D303" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="E303">
         <v>6.8</v>
       </c>
       <c r="G303" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="304" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10770,13 +10797,13 @@
         <v>304</v>
       </c>
       <c r="B304" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="C304" s="4">
         <v>2022</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="E304">
         <v>7.6</v>
@@ -12873,10 +12900,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G1000"/>
+  <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12884,532 +12911,577 @@
     <col min="1" max="1" width="8.6640625" customWidth="1"/>
     <col min="2" max="2" width="70.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="90.5546875" customWidth="1"/>
-    <col min="6" max="27" width="8.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="6" max="6" width="90.5546875" customWidth="1"/>
+    <col min="7" max="28" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1151</v>
+        <v>1166</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+        <v>1148</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>686</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>693</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="7" t="s">
         <v>1083</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="7" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>1</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="1" t="s">
-        <v>1150</v>
-      </c>
+      <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>1147</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>2</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="1" t="s">
-        <v>1150</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>3</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D29" s="1"/>
-      <c r="E29" s="1" t="s">
-        <v>1150</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E29" s="1"/>
+      <c r="F29" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D30" s="1"/>
-      <c r="E30" s="1" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E30" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>5</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>593</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>6</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>1150</v>
+        <v>594</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>1147</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>7</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>596</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>8</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D34" s="1"/>
-      <c r="E34" s="1" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E34" s="1"/>
+      <c r="F34" s="1" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>9</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D35" s="1"/>
-      <c r="E35" s="1" t="s">
-        <v>1150</v>
-      </c>
+      <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>1147</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>10</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>1150</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>602</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>11</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="D37" s="1"/>
-      <c r="E37" s="1" t="s">
-        <v>1150</v>
-      </c>
+      <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>1147</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>12</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="E38" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="F39" s="1" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D40" s="1">
+        <v>9</v>
+      </c>
+      <c r="E40" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="1" t="s">
-        <v>1144</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="1" t="s">
-        <v>1145</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>1146</v>
-      </c>
-      <c r="D40" s="1">
-        <v>2023</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="1" t="s">
+    </row>
+    <row r="42" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B42" s="16" t="s">
         <v>1153</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B42" s="16" t="s">
-        <v>1156</v>
-      </c>
       <c r="C42" s="1" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1154</v>
+      </c>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -14390,10 +14462,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -14401,7 +14473,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -14409,7 +14481,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -14417,7 +14489,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -14425,7 +14497,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -14433,7 +14505,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -14441,7 +14513,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -14449,7 +14521,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -14457,7 +14529,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -14465,10 +14537,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -14476,15 +14548,15 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -15497,10 +15569,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -15508,7 +15580,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -15516,7 +15588,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -15524,10 +15596,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -15535,10 +15607,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -15546,10 +15618,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -15557,10 +15629,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -15568,10 +15640,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -15579,10 +15651,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -15590,10 +15662,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -15601,10 +15673,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -15612,10 +15684,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -15623,10 +15695,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -15634,10 +15706,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -15645,10 +15717,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -15656,10 +15728,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -15667,10 +15739,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -15678,10 +15750,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -15689,10 +15761,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -15700,7 +15772,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15708,10 +15780,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15719,10 +15791,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15730,7 +15802,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15738,7 +15810,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15746,7 +15818,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15754,7 +15826,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15762,7 +15834,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15770,7 +15842,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15778,7 +15850,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15786,7 +15858,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15794,7 +15866,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15802,7 +15874,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15810,7 +15882,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15818,7 +15890,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15826,7 +15898,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15834,7 +15906,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15842,7 +15914,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15850,7 +15922,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15858,7 +15930,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15866,7 +15938,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15874,10 +15946,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15885,10 +15957,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15896,10 +15968,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15907,10 +15979,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15918,10 +15990,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15929,7 +16001,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15937,7 +16009,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15945,7 +16017,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15953,7 +16025,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15961,10 +16033,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15972,12 +16044,12 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -16957,13 +17029,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
@@ -16971,7 +17043,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
@@ -16979,10 +17051,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
@@ -16990,10 +17062,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
@@ -17001,10 +17073,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
@@ -17012,13 +17084,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
@@ -17026,13 +17098,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
@@ -17040,10 +17112,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
@@ -17051,10 +17123,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
@@ -17062,10 +17134,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
@@ -17073,10 +17145,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
@@ -17084,10 +17156,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
@@ -17095,10 +17167,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
@@ -17106,10 +17178,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
@@ -17117,10 +17189,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
@@ -17128,10 +17200,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -17139,10 +17211,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -17150,10 +17222,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -17161,10 +17233,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -17172,10 +17244,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17183,10 +17255,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17194,10 +17266,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17205,10 +17277,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17216,10 +17288,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17227,10 +17299,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17238,10 +17310,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17249,10 +17321,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17260,10 +17332,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17271,10 +17343,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17282,10 +17354,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17293,10 +17365,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17304,10 +17376,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17315,10 +17387,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17326,10 +17398,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17337,13 +17409,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17351,13 +17423,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17365,10 +17437,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17376,10 +17448,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17387,10 +17459,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17398,10 +17470,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17409,10 +17481,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17420,13 +17492,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17434,13 +17506,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17448,10 +17520,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17459,13 +17531,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17473,10 +17545,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17484,10 +17556,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17495,10 +17567,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17506,10 +17578,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17517,10 +17589,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17528,13 +17600,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17542,10 +17614,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17553,10 +17625,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17564,10 +17636,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17575,10 +17647,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17586,10 +17658,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17597,10 +17669,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17608,13 +17680,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17622,10 +17694,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17633,10 +17705,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17644,10 +17716,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17655,10 +17727,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17666,10 +17738,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17677,10 +17749,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17688,10 +17760,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17699,10 +17771,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17710,10 +17782,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17721,10 +17793,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17732,10 +17804,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17743,10 +17815,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17754,10 +17826,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17765,10 +17837,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17776,10 +17848,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17787,10 +17859,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17798,10 +17870,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17809,10 +17881,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17820,10 +17892,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17831,10 +17903,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17842,10 +17914,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17853,10 +17925,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17864,10 +17936,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17875,10 +17947,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17886,10 +17958,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17897,10 +17969,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17908,10 +17980,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17919,10 +17991,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17930,10 +18002,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17941,10 +18013,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17952,10 +18024,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17963,10 +18035,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17974,10 +18046,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17985,10 +18057,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17996,10 +18068,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18007,10 +18079,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18018,10 +18090,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18029,10 +18101,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18040,10 +18112,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18051,10 +18123,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18062,10 +18134,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18073,10 +18145,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18084,10 +18156,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18095,10 +18167,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18106,10 +18178,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18117,10 +18189,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18128,10 +18200,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18139,10 +18211,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18150,10 +18222,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18161,10 +18233,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18172,10 +18244,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18183,10 +18255,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18194,10 +18266,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18205,10 +18277,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18216,10 +18288,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18227,10 +18299,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18238,10 +18310,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18249,10 +18321,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18260,10 +18332,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18271,10 +18343,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18282,10 +18354,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18293,10 +18365,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18304,10 +18376,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18315,10 +18387,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18326,10 +18398,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18337,10 +18409,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18348,10 +18420,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18359,10 +18431,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18370,10 +18442,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18381,10 +18453,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18392,10 +18464,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18403,10 +18475,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18414,10 +18486,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18425,10 +18497,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18436,10 +18508,10 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18447,10 +18519,10 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18458,10 +18530,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18469,10 +18541,10 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18480,10 +18552,10 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18491,10 +18563,10 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18502,10 +18574,10 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18513,10 +18585,10 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18524,10 +18596,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18535,10 +18607,10 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18546,10 +18618,10 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18557,10 +18629,10 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18568,10 +18640,10 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18579,10 +18651,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18590,10 +18662,10 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18601,10 +18673,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18612,10 +18684,10 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18623,10 +18695,10 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18634,10 +18706,10 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18645,10 +18717,10 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18656,10 +18728,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18667,10 +18739,10 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18678,10 +18750,10 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18689,10 +18761,10 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18700,10 +18772,10 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18711,10 +18783,10 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18722,13 +18794,13 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18736,10 +18808,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18747,10 +18819,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18758,10 +18830,10 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18769,10 +18841,10 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18780,10 +18852,10 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18791,10 +18863,10 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18802,10 +18874,10 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18813,10 +18885,10 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18824,10 +18896,10 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18835,10 +18907,10 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18846,10 +18918,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18857,10 +18929,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18868,10 +18940,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18879,10 +18951,10 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18890,10 +18962,10 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18901,10 +18973,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18912,10 +18984,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18923,10 +18995,10 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18934,10 +19006,10 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18945,10 +19017,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18956,10 +19028,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18967,10 +19039,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18978,10 +19050,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18989,10 +19061,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19000,10 +19072,10 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19011,10 +19083,10 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19022,10 +19094,10 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19033,10 +19105,10 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19044,10 +19116,10 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19055,10 +19127,10 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19066,10 +19138,10 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19077,10 +19149,10 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19088,10 +19160,10 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19099,10 +19171,10 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19110,10 +19182,10 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19121,10 +19193,10 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19132,10 +19204,10 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19143,10 +19215,10 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19154,10 +19226,10 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19165,10 +19237,10 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19176,10 +19248,10 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19187,10 +19259,10 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19198,10 +19270,10 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19209,10 +19281,10 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19220,10 +19292,10 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19231,10 +19303,10 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19242,10 +19314,10 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19253,10 +19325,10 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19264,10 +19336,10 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19275,13 +19347,13 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19289,10 +19361,10 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19300,10 +19372,10 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19311,10 +19383,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19322,10 +19394,10 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19333,10 +19405,10 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19344,10 +19416,10 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19355,10 +19427,10 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19366,10 +19438,10 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19377,10 +19449,10 @@
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19388,10 +19460,10 @@
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19399,10 +19471,10 @@
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19410,13 +19482,13 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19424,10 +19496,10 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19435,10 +19507,10 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19446,10 +19518,10 @@
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19457,10 +19529,10 @@
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="226" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19468,10 +19540,10 @@
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19479,10 +19551,10 @@
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19490,10 +19562,10 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19501,10 +19573,10 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="230" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19512,13 +19584,13 @@
         <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19526,10 +19598,10 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19537,13 +19609,13 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19551,10 +19623,10 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19562,10 +19634,10 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19573,10 +19645,10 @@
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19584,10 +19656,10 @@
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19595,10 +19667,10 @@
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19606,10 +19678,10 @@
         <v>237</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19617,13 +19689,13 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19631,13 +19703,13 @@
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="C240" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="D240" s="1" t="s">
         <v>962</v>
-      </c>
-      <c r="D240" s="1" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19645,13 +19717,13 @@
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="242" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19659,13 +19731,13 @@
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="243" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19673,13 +19745,13 @@
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
     </row>
     <row r="244" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19687,10 +19759,10 @@
         <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
     </row>
     <row r="245" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19698,13 +19770,13 @@
         <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
     </row>
     <row r="246" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19712,10 +19784,10 @@
         <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
     </row>
     <row r="247" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19723,13 +19795,13 @@
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19737,10 +19809,10 @@
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
     </row>
     <row r="249" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19748,10 +19820,10 @@
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="250" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19759,10 +19831,10 @@
         <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19770,10 +19842,10 @@
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="252" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19781,13 +19853,13 @@
         <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19795,10 +19867,10 @@
         <v>252</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="254" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19806,10 +19878,10 @@
         <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="255" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19817,10 +19889,10 @@
         <v>254</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="256" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19828,10 +19900,10 @@
         <v>255</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="257" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19839,10 +19911,10 @@
         <v>256</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="258" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19850,10 +19922,10 @@
         <v>257</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="259" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19861,10 +19933,10 @@
         <v>258</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="260" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19872,10 +19944,10 @@
         <v>259</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="261" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19883,10 +19955,10 @@
         <v>260</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19894,10 +19966,10 @@
         <v>261</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="263" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19905,10 +19977,10 @@
         <v>262</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="264" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19916,10 +19988,10 @@
         <v>263</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="265" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19927,10 +19999,10 @@
         <v>264</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="266" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19938,10 +20010,10 @@
         <v>265</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="267" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19949,13 +20021,13 @@
         <v>266</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
     </row>
     <row r="268" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19963,10 +20035,10 @@
         <v>267</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="269" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19974,10 +20046,10 @@
         <v>268</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="270" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19985,10 +20057,10 @@
         <v>269</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="271" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19996,10 +20068,10 @@
         <v>271</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="272" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20007,10 +20079,10 @@
         <v>272</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20018,10 +20090,10 @@
         <v>273</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20029,10 +20101,10 @@
         <v>274</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20040,10 +20112,10 @@
         <v>275</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20051,10 +20123,10 @@
         <v>276</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20062,10 +20134,10 @@
         <v>277</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20073,7 +20145,7 @@
         <v>278</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20081,10 +20153,10 @@
         <v>279</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20092,10 +20164,10 @@
         <v>280</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20103,10 +20175,10 @@
         <v>281</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20114,10 +20186,10 @@
         <v>282</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20125,7 +20197,7 @@
         <v>283</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20133,7 +20205,7 @@
         <v>284</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20141,7 +20213,7 @@
         <v>285</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20149,10 +20221,10 @@
         <v>286</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20160,7 +20232,7 @@
         <v>287</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20168,7 +20240,7 @@
         <v>288</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="289" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20176,7 +20248,7 @@
         <v>289</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="290" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20184,7 +20256,7 @@
         <v>290</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="291" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20192,7 +20264,7 @@
         <v>291</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="292" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20200,13 +20272,13 @@
         <v>292</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="293" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20214,7 +20286,7 @@
         <v>293</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="294" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20222,7 +20294,7 @@
         <v>294</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="295" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20230,7 +20302,7 @@
         <v>295</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="296" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20238,10 +20310,10 @@
         <v>296</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="297" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -20975,7 +21047,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
@@ -20983,7 +21055,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
@@ -20991,7 +21063,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
@@ -20999,7 +21071,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
@@ -21007,7 +21079,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
@@ -21015,7 +21087,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
@@ -21023,7 +21095,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
@@ -21031,7 +21103,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
@@ -21039,7 +21111,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
@@ -21047,7 +21119,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
@@ -21055,42 +21127,42 @@
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="9" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -21098,17 +21170,17 @@
     </row>
     <row r="21" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="23" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -22118,10 +22190,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -22129,7 +22201,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -22137,7 +22209,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -22145,10 +22217,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -22156,10 +22228,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -22167,10 +22239,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -22178,10 +22250,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -22189,10 +22261,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -22200,10 +22272,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -22211,10 +22283,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -22222,10 +22294,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -22233,10 +22305,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -22244,10 +22316,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -22255,10 +22327,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -22266,10 +22338,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -22277,10 +22349,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -22288,10 +22360,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -22299,10 +22371,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -22310,10 +22382,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -22321,10 +22393,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -22332,10 +22404,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -22343,10 +22415,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -22354,10 +22426,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -22365,10 +22437,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -22376,10 +22448,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -22387,10 +22459,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -22398,10 +22470,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -22409,10 +22481,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -22420,10 +22492,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -22431,10 +22503,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -22442,10 +22514,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/thongnd_everything_list.xlsx
+++ b/thongnd_everything_list.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\ドキュメント\GitHub\My_Everything_Lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490395D3-7D7A-426D-B874-8021FE0D2E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01ACF81D-4D83-416C-A618-887AF777E824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1_todolist" sheetId="1" r:id="rId1"/>
     <sheet name="2_watched_movies" sheetId="2" r:id="rId2"/>
     <sheet name="3_book_list" sheetId="7" r:id="rId3"/>
-    <sheet name="4_truyen_tranh" sheetId="3" r:id="rId4"/>
-    <sheet name="5_software_list" sheetId="6" r:id="rId5"/>
-    <sheet name="6_music_list" sheetId="8" r:id="rId6"/>
-    <sheet name="7_game" sheetId="10" r:id="rId7"/>
-    <sheet name="beverage" sheetId="9" r:id="rId8"/>
+    <sheet name="main" sheetId="11" r:id="rId4"/>
+    <sheet name="4_truyen_tranh" sheetId="3" r:id="rId5"/>
+    <sheet name="5_software_list" sheetId="6" r:id="rId6"/>
+    <sheet name="6_music_list" sheetId="8" r:id="rId7"/>
+    <sheet name="7_game" sheetId="10" r:id="rId8"/>
+    <sheet name="beverage" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="beverage">beverage!$A$1:$B$11</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="1205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="1210">
   <si>
     <t>ID</t>
   </si>
@@ -4199,22 +4200,6 @@
   </si>
   <si>
     <t>Sousou no Frieren</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>深夜食堂</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Midnight diner</t>
-    </r>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -4755,11 +4740,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>watching since 2024.Jan
-2024.02.23: epidosde 23</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>Không hiểu gì luôn ấy, chỉ thấy nó ảo ảo.
 Need rewatch later</t>
     <phoneticPr fontId="4"/>
@@ -4864,6 +4844,79 @@
         <scheme val="minor"/>
       </rPr>
       <t>eading</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>watching since 2024.Jan
+2024.02.23: epidosde 23
+Finished 28 episodes: 2024.03.26</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>深夜食堂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Midnight diner SS01</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Akira</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>024.April.01</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>意味が分からん。</t>
+    <rPh sb="0" eb="2">
+      <t>イミ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>How to write my review for books and movies?? Maybe I will just upload to Github or something…
+Or write Wordpress post</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>024.04.01</t>
     </r>
     <phoneticPr fontId="4"/>
   </si>
@@ -5098,7 +5151,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5199,6 +5252,9 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5418,8 +5474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1028"/>
   <sheetViews>
-    <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5432,33 +5488,28 @@
   <sheetData>
     <row r="1" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="45" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="2" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="30" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="64.5" x14ac:dyDescent="0.25">
       <c r="B3" s="24" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="24" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5543,22 +5594,22 @@
     </row>
     <row r="24" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5568,10 +5619,10 @@
     </row>
     <row r="29" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>1190</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>1191</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5579,22 +5630,22 @@
     </row>
     <row r="31" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5602,7 +5653,7 @@
     </row>
     <row r="36" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="39" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5627,12 +5678,12 @@
     </row>
     <row r="41" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5646,7 +5697,7 @@
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="45" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -5732,7 +5783,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -5925,15 +5976,15 @@
         <v>1070</v>
       </c>
       <c r="C93" s="38" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="94" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B94" s="6" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C94" s="5" t="s">
         <v>1193</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>1194</v>
       </c>
     </row>
     <row r="95" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6883,8 +6934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G1002"/>
   <sheetViews>
-    <sheetView topLeftCell="C119" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C154" sqref="C154"/>
+    <sheetView topLeftCell="A309" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="G323" sqref="G323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7108,7 +7159,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C15" s="4"/>
       <c r="F15" s="1" t="s">
@@ -7297,7 +7348,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C29" s="4"/>
       <c r="F29" s="1" t="s">
@@ -7313,7 +7364,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C30" s="4">
         <v>2008</v>
@@ -7467,7 +7518,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="19">
@@ -8066,7 +8117,7 @@
         <v>42838</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>55</v>
@@ -8685,7 +8736,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>214</v>
@@ -8697,7 +8748,7 @@
         <v>55</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -8745,7 +8796,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C105" s="4">
         <v>2006</v>
@@ -8828,7 +8879,7 @@
         <v>55</v>
       </c>
       <c r="G109" s="44" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -8867,7 +8918,7 @@
         <v>55</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -8909,7 +8960,7 @@
         <v>55</v>
       </c>
       <c r="G113" s="12" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -8969,7 +9020,7 @@
         <v>55</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9113,7 +9164,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>1109</v>
@@ -9206,7 +9257,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>1111</v>
@@ -9215,7 +9266,7 @@
         <v>55</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9255,7 +9306,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C132" s="4"/>
       <c r="F132" s="1" t="s">
@@ -9517,7 +9568,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C151" s="4"/>
       <c r="F151" s="1" t="s">
@@ -9530,7 +9581,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C152" s="4"/>
       <c r="F152" s="1" t="s">
@@ -9550,7 +9601,7 @@
         <v>252</v>
       </c>
       <c r="G153" s="12" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9559,7 +9610,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C154" s="4"/>
       <c r="F154" s="1" t="s">
@@ -10015,7 +10066,7 @@
         <v>311</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="D188" s="19">
         <v>42797</v>
@@ -10205,7 +10256,7 @@
         <v>335</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D202" s="19">
         <v>42925</v>
@@ -10844,14 +10895,14 @@
         <v>243</v>
       </c>
       <c r="B244" s="30" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C244" s="4"/>
       <c r="D244" s="29" t="s">
         <v>1137</v>
       </c>
       <c r="G244" s="12" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="245" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -10890,7 +10941,7 @@
       </c>
       <c r="C247" s="4"/>
       <c r="G247" s="1" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="248" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -11640,7 +11691,7 @@
         <v>300</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C302" s="4">
         <v>2017</v>
@@ -11652,7 +11703,7 @@
         <v>6.5</v>
       </c>
       <c r="G302" s="1" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="303" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -11927,70 +11978,96 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="319" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A319" s="1">
+        <v>317</v>
+      </c>
       <c r="B319" s="25" t="s">
         <v>1138</v>
       </c>
       <c r="C319" s="4"/>
+      <c r="D319" s="29" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E319" s="18" t="s">
+        <v>1082</v>
+      </c>
       <c r="G319" s="12" t="s">
-        <v>1195</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="320" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B320" s="25" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C320" s="4"/>
+      <c r="E320" s="47">
+        <v>45453</v>
+      </c>
+      <c r="G320" s="1" t="s">
         <v>1139</v>
       </c>
-      <c r="C320" s="4"/>
-      <c r="G320" s="1" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="321" spans="3:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="321" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B321" s="24" t="s">
+        <v>1180</v>
+      </c>
       <c r="C321" s="4"/>
     </row>
-    <row r="322" spans="3:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C322" s="4"/>
-    </row>
-    <row r="323" spans="3:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B322" s="24" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C322" s="4">
+        <v>1988</v>
+      </c>
+      <c r="D322" s="29" t="s">
+        <v>1206</v>
+      </c>
+      <c r="G322" s="6" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="323" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C323" s="4"/>
     </row>
-    <row r="324" spans="3:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C324" s="4"/>
     </row>
-    <row r="325" spans="3:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C325" s="4"/>
     </row>
-    <row r="326" spans="3:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C326" s="4"/>
     </row>
-    <row r="327" spans="3:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C327" s="4"/>
     </row>
-    <row r="328" spans="3:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C328" s="4"/>
     </row>
-    <row r="329" spans="3:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C329" s="4"/>
     </row>
-    <row r="330" spans="3:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C330" s="4"/>
     </row>
-    <row r="331" spans="3:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C331" s="4"/>
     </row>
-    <row r="332" spans="3:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C332" s="4"/>
     </row>
-    <row r="333" spans="3:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C333" s="4"/>
     </row>
-    <row r="334" spans="3:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C334" s="4"/>
     </row>
-    <row r="335" spans="3:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C335" s="4"/>
     </row>
-    <row r="336" spans="3:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C336" s="4"/>
     </row>
     <row r="337" spans="3:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14002,7 +14079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
@@ -14055,7 +14132,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C3" s="40" t="s">
         <v>598</v>
@@ -14597,7 +14674,7 @@
     </row>
     <row r="49" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="50" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14607,31 +14684,31 @@
     </row>
     <row r="51" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="32" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="52" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="32" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>1187</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>1188</v>
       </c>
     </row>
     <row r="53" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="32" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="54" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="32" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="55" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14641,7 +14718,7 @@
     <row r="56" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="57" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14656,7 +14733,7 @@
     <row r="63" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="64" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="45" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="65" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15608,6 +15685,36 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A69608-55D1-4FA2-B271-8B5154A5B681}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="58.7109375" customWidth="1"/>
+    <col min="2" max="2" width="52.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C1000"/>
   <sheetViews>
@@ -16715,7 +16822,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C1000"/>
   <sheetViews>
@@ -18173,7 +18280,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D1000"/>
   <sheetViews>
@@ -22193,7 +22300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C1000"/>
   <sheetViews>
@@ -23520,7 +23627,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B1002"/>
   <sheetViews>

--- a/thongnd_everything_list.xlsx
+++ b/thongnd_everything_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\ドキュメント\GitHub\My_Everything_Lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01ACF81D-4D83-416C-A618-887AF777E824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979CBA2F-2C31-479C-90E2-84C65BC8B0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1_todolist" sheetId="1" r:id="rId1"/>
@@ -32,10 +32,19 @@
     <definedName name="software_list">'5_software_list'!$A$1:$C$51</definedName>
     <definedName name="technical">#REF!</definedName>
     <definedName name="truyen_tranh">'4_truyen_tranh'!$A$1:$C$11</definedName>
-    <definedName name="watched_movies">'2_watched_movies'!$A$1:$G$286</definedName>
+    <definedName name="watched_movies">'2_watched_movies'!$A$1:$G$287</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId14" roundtripDataSignature="AMtx7mjjRjdtA2+P+ku+O2bvztmfHiKmBQ=="/>
     </ext>
@@ -44,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="1210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1818" uniqueCount="1220">
   <si>
     <t>ID</t>
   </si>
@@ -4371,10 +4380,6 @@
   </si>
   <si>
     <t>Death Note</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Avatar 2 </t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -4920,12 +4925,258 @@
     </r>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vatar 2</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>q</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uite low ranking</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Avatar </t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Watched it when I was a little kid. Updated 2024.04.01</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Avatar: The Last Airbender</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t the first days when I moved to HN</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">round </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2021</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.8/10</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>Phan thị</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>, m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ộ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>t th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ờ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>i đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>c trên nhà anh H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>i và anh V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>n nhi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ề</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>2024.05.18</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Finished season 1. I was expecting more from such high-rated series</t>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5117,6 +5368,25 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="163"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -5151,7 +5421,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5254,6 +5524,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5472,10 +5748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1028"/>
+  <dimension ref="A1:D1029"/>
   <sheetViews>
-    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A36" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5488,28 +5764,28 @@
   <sheetData>
     <row r="1" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="45" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="2" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="30" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="64.5" x14ac:dyDescent="0.25">
       <c r="B3" s="24" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5594,7 +5870,7 @@
     </row>
     <row r="24" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5619,10 +5895,10 @@
     </row>
     <row r="29" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>1189</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>1190</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5653,7 +5929,7 @@
     </row>
     <row r="36" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="39" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5678,13 +5954,11 @@
     </row>
     <row r="41" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="8" t="s">
-        <v>1159</v>
-      </c>
+      <c r="B42" s="8"/>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="8"/>
@@ -5697,7 +5971,7 @@
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="45" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -5783,7 +6057,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -5966,11 +6240,6 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="92" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="6" t="s">
-        <v>1023</v>
-      </c>
-    </row>
     <row r="93" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B93" s="37" t="s">
         <v>1070</v>
@@ -5981,32 +6250,44 @@
     </row>
     <row r="94" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B94" s="6" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C94" s="5" t="s">
         <v>1192</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>1193</v>
       </c>
     </row>
     <row r="95" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="6" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="6" t="s">
         <v>1036</v>
       </c>
-    </row>
-    <row r="98" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="C96" s="1" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="6" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="113" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="114" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="115" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6923,6 +7204,7 @@
     <row r="1026" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1027" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1028" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1029" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -6932,10 +7214,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G1002"/>
+  <dimension ref="A1:G1006"/>
   <sheetViews>
-    <sheetView topLeftCell="A309" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="G323" sqref="G323"/>
+    <sheetView tabSelected="1" topLeftCell="A313" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="A324" sqref="A324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7159,7 +7441,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C15" s="4"/>
       <c r="F15" s="1" t="s">
@@ -7348,7 +7630,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C29" s="4"/>
       <c r="F29" s="1" t="s">
@@ -7364,7 +7646,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C30" s="4">
         <v>2008</v>
@@ -7518,7 +7800,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="19">
@@ -7999,7 +8281,7 @@
     </row>
     <row r="67" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <f t="shared" ref="A67:A98" si="2">A66+1</f>
+        <f t="shared" ref="A67:A99" si="2">A66+1</f>
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -8117,7 +8399,7 @@
         <v>42838</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>55</v>
@@ -8210,32 +8492,30 @@
         <v>55</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <f t="shared" si="2"/>
-        <v>76</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C77" s="4"/>
-      <c r="D77" s="19">
-        <v>43043</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>55</v>
+    <row r="77" spans="1:7" s="33" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="33" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C77" s="48">
+        <v>2009</v>
+      </c>
+      <c r="D77" s="34"/>
+      <c r="E77" s="49"/>
+      <c r="G77" s="33" t="s">
+        <v>1212</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <f t="shared" si="2"/>
-        <v>77</v>
+        <f>A76+1</f>
+        <v>76</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
+      </c>
+      <c r="C78" s="4"/>
+      <c r="D78" s="19">
+        <v>43043</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>55</v>
@@ -8244,19 +8524,13 @@
     <row r="79" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <f t="shared" si="2"/>
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C79" s="4">
-        <v>2017</v>
-      </c>
-      <c r="D79" s="19">
-        <v>43072</v>
-      </c>
-      <c r="E79" s="17" t="s">
-        <v>164</v>
+        <v>161</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>55</v>
@@ -8265,400 +8539,403 @@
     <row r="80" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <f t="shared" si="2"/>
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
+      </c>
+      <c r="C80" s="4">
+        <v>2017</v>
       </c>
       <c r="D80" s="19">
-        <v>43076</v>
+        <v>43072</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C81" s="4">
-        <v>2009</v>
+        <v>165</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="D81" s="19">
-        <v>43086</v>
+        <v>43076</v>
       </c>
       <c r="E81" s="17" t="s">
-        <v>114</v>
+        <v>153</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G81" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <f t="shared" si="2"/>
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C82" s="4">
-        <v>2001</v>
-      </c>
-      <c r="D82" s="31">
-        <v>43090</v>
+        <v>2009</v>
+      </c>
+      <c r="D82" s="19">
+        <v>43086</v>
       </c>
       <c r="E82" s="17" t="s">
-        <v>153</v>
+        <v>114</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G82" s="1" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <f t="shared" si="2"/>
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>1103</v>
-      </c>
-      <c r="D83" s="19">
-        <v>43092</v>
+        <v>169</v>
+      </c>
+      <c r="C83" s="4">
+        <v>2001</v>
+      </c>
+      <c r="D83" s="31">
+        <v>43090</v>
       </c>
       <c r="E83" s="17" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>171</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <f t="shared" si="2"/>
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C84" s="4"/>
+        <v>170</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>1103</v>
+      </c>
       <c r="D84" s="19">
-        <v>43070</v>
+        <v>43092</v>
+      </c>
+      <c r="E84" s="17" t="s">
+        <v>146</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C85" s="4">
-        <v>2017</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="C85" s="4"/>
       <c r="D85" s="19">
-        <v>43096</v>
-      </c>
-      <c r="E85" s="17" t="s">
-        <v>175</v>
+        <v>43070</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>55</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <f t="shared" si="2"/>
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C86" s="4"/>
+        <v>174</v>
+      </c>
+      <c r="C86" s="4">
+        <v>2017</v>
+      </c>
+      <c r="D86" s="19">
+        <v>43096</v>
+      </c>
+      <c r="E86" s="17" t="s">
+        <v>175</v>
+      </c>
       <c r="F86" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <f t="shared" si="2"/>
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C87" s="4"/>
-      <c r="E87" s="17" t="s">
-        <v>179</v>
-      </c>
       <c r="F87" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <f t="shared" si="2"/>
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C88" s="4">
-        <v>2017</v>
-      </c>
-      <c r="D88" s="19">
-        <v>43111</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="C88" s="4"/>
       <c r="E88" s="17" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <f t="shared" si="2"/>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C89" s="4"/>
+        <v>181</v>
+      </c>
+      <c r="C89" s="4">
+        <v>2017</v>
+      </c>
       <c r="D89" s="19">
-        <v>43127</v>
+        <v>43111</v>
+      </c>
+      <c r="E89" s="17" t="s">
+        <v>182</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <f t="shared" si="2"/>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="19">
-        <v>43137</v>
-      </c>
-      <c r="E90" s="17" t="s">
-        <v>187</v>
+        <v>43127</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>55</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="19">
-        <v>43138</v>
+        <v>43137</v>
+      </c>
+      <c r="E91" s="17" t="s">
+        <v>187</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <f t="shared" si="2"/>
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C92" s="4">
-        <v>2017</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="C92" s="4"/>
       <c r="D92" s="19">
-        <v>43177</v>
-      </c>
-      <c r="E92" s="17" t="s">
-        <v>191</v>
+        <v>43138</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>55</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
+      </c>
+      <c r="C93" s="4">
+        <v>2017</v>
       </c>
       <c r="D93" s="19">
-        <v>43194</v>
+        <v>43177</v>
       </c>
       <c r="E93" s="17" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <f t="shared" si="2"/>
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D94" s="19">
-        <v>43204</v>
+        <v>43194</v>
       </c>
       <c r="E94" s="17" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>55</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <f t="shared" si="2"/>
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D95" s="19">
-        <v>43230</v>
+        <v>43204</v>
       </c>
       <c r="E95" s="17" t="s">
-        <v>156</v>
+        <v>198</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <f t="shared" si="2"/>
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="D96" s="19">
-        <v>43252</v>
+        <v>43230</v>
       </c>
       <c r="E96" s="17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <f t="shared" si="2"/>
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C97" s="4">
-        <v>1999</v>
+        <v>202</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="D97" s="19">
-        <v>43253</v>
+        <v>43252</v>
       </c>
       <c r="E97" s="17" t="s">
-        <v>205</v>
+        <v>158</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>55</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <f t="shared" si="2"/>
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C98" s="4">
-        <v>2018</v>
+        <v>1999</v>
+      </c>
+      <c r="D98" s="19">
+        <v>43253</v>
       </c>
       <c r="E98" s="17" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>55</v>
@@ -8666,334 +8943,334 @@
     </row>
     <row r="99" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <f t="shared" ref="A99:A115" si="3">A98+1</f>
-        <v>98</v>
+        <f t="shared" si="2"/>
+        <v>97</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D99" s="19">
-        <v>43290</v>
+        <v>206</v>
+      </c>
+      <c r="C99" s="4">
+        <v>2018</v>
+      </c>
+      <c r="E99" s="17" t="s">
+        <v>198</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G99" s="1" t="s">
-        <v>208</v>
-      </c>
     </row>
     <row r="100" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <f t="shared" si="3"/>
-        <v>99</v>
+        <f t="shared" ref="A100:A116" si="3">A99+1</f>
+        <v>98</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C100" s="4">
-        <v>2018</v>
+        <v>207</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>200</v>
       </c>
       <c r="D100" s="19">
-        <v>43291</v>
-      </c>
-      <c r="E100" s="17" t="s">
-        <v>198</v>
+        <v>43290</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
+      </c>
+      <c r="C101" s="4">
+        <v>2018</v>
       </c>
       <c r="D101" s="19">
-        <v>43297</v>
+        <v>43291</v>
       </c>
       <c r="E101" s="17" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>55</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <f t="shared" si="3"/>
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>1169</v>
+        <v>211</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D102" s="19">
-        <v>43303</v>
+        <v>43297</v>
+      </c>
+      <c r="E102" s="17" t="s">
+        <v>213</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>1170</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <f t="shared" si="3"/>
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>215</v>
+        <v>1168</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
+      </c>
+      <c r="D103" s="19">
+        <v>43303</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>217</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <f t="shared" si="3"/>
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C104" s="4">
-        <v>2004</v>
-      </c>
-      <c r="D104" s="19">
-        <v>43302</v>
+        <v>215</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>216</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <f t="shared" si="3"/>
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>1166</v>
+        <v>218</v>
       </c>
       <c r="C105" s="4">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="D105" s="19">
-        <v>43304</v>
+        <v>43302</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>55</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <f t="shared" si="3"/>
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>221</v>
+        <v>1165</v>
+      </c>
+      <c r="C106" s="4">
+        <v>2006</v>
       </c>
       <c r="D106" s="19">
-        <v>43305</v>
+        <v>43304</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <f t="shared" si="3"/>
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C107" s="4"/>
+        <v>220</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D107" s="19">
+        <v>43305</v>
+      </c>
       <c r="F107" s="1" t="s">
         <v>55</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <f t="shared" si="3"/>
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C108" s="4">
-        <v>2011</v>
-      </c>
-      <c r="D108" s="19">
-        <v>43309</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="C108" s="4"/>
       <c r="F108" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="109" spans="1:7" s="41" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A109" s="40">
+    <row r="109" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <f t="shared" si="3"/>
+        <v>107</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C109" s="4">
+        <v>2011</v>
+      </c>
+      <c r="D109" s="19">
+        <v>43309</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" s="41" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A110" s="40">
         <f t="shared" si="3"/>
         <v>108</v>
       </c>
-      <c r="B109" s="41" t="s">
+      <c r="B110" s="41" t="s">
         <v>225</v>
       </c>
-      <c r="C109" s="42">
+      <c r="C110" s="42">
         <v>1995</v>
       </c>
-      <c r="D109" s="19">
+      <c r="D110" s="19">
         <v>43310</v>
       </c>
-      <c r="E109" s="43"/>
-      <c r="F109" s="40" t="s">
+      <c r="E110" s="43"/>
+      <c r="F110" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="G109" s="44" t="s">
+      <c r="G110" s="44" t="s">
         <v>1148</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="1">
-        <f t="shared" si="3"/>
-        <v>109</v>
-      </c>
-      <c r="B110" t="s">
-        <v>226</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D110" s="19">
-        <v>43319</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <f t="shared" si="3"/>
-        <v>110</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>227</v>
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>226</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D111" s="19">
-        <v>43327</v>
+        <v>43319</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <f t="shared" si="3"/>
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>1118</v>
+        <v>1065</v>
       </c>
       <c r="D112" s="19">
-        <v>43346</v>
+        <v>43327</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G112" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <f t="shared" si="3"/>
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="D113" s="19">
-        <v>43353</v>
-      </c>
-      <c r="E113" s="17" t="s">
-        <v>230</v>
+        <v>43346</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G113" s="12" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <f t="shared" si="3"/>
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>1106</v>
+        <v>1119</v>
       </c>
       <c r="D114" s="19">
-        <v>43373</v>
+        <v>43353</v>
+      </c>
+      <c r="E114" s="17" t="s">
+        <v>230</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>55</v>
+      </c>
+      <c r="G114" s="12" t="s">
+        <v>1150</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <f t="shared" si="3"/>
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="D115" s="19">
-        <v>43375</v>
+        <v>43373</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>55</v>
@@ -9001,59 +9278,59 @@
     </row>
     <row r="116" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <f>'2_watched_movies'!A115+1</f>
-        <v>115</v>
-      </c>
-      <c r="B116" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="C116" s="4">
-        <v>2016</v>
+        <f t="shared" si="3"/>
+        <v>114</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>1107</v>
       </c>
       <c r="D116" s="19">
-        <v>43387</v>
-      </c>
-      <c r="E116" s="17" t="s">
-        <v>234</v>
+        <v>43375</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="G116" s="6" t="s">
-        <v>1151</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <f>'2_watched_movies'!A116+1</f>
-        <v>116</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>235</v>
+        <v>115</v>
+      </c>
+      <c r="B117" s="24" t="s">
+        <v>233</v>
       </c>
       <c r="C117" s="4">
-        <v>1999</v>
+        <v>2016</v>
       </c>
       <c r="D117" s="19">
-        <v>43389</v>
+        <v>43387</v>
+      </c>
+      <c r="E117" s="17" t="s">
+        <v>234</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="G117" s="6" t="s">
+        <v>1151</v>
+      </c>
     </row>
     <row r="118" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <f t="shared" ref="A118:A148" si="4">A117+1</f>
-        <v>117</v>
+        <f>'2_watched_movies'!A117+1</f>
+        <v>116</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C118" s="4">
-        <v>2018</v>
+        <v>1999</v>
       </c>
       <c r="D118" s="19">
-        <v>43416</v>
+        <v>43389</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>55</v>
@@ -9061,98 +9338,98 @@
     </row>
     <row r="119" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
+        <f t="shared" ref="A119:A149" si="4">A118+1</f>
+        <v>117</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C119" s="4">
+        <v>2018</v>
+      </c>
+      <c r="D119" s="19">
+        <v>43416</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
         <f t="shared" si="4"/>
         <v>118</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B120" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C119" s="4">
+      <c r="C120" s="4">
         <v>2018</v>
       </c>
-      <c r="D119" s="19">
+      <c r="D120" s="19">
         <v>43438</v>
       </c>
-      <c r="F119" s="1" t="s">
+      <c r="F120" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="1">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
         <f t="shared" si="4"/>
         <v>119</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B121" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C120" s="4">
+      <c r="C121" s="4">
         <v>2018</v>
       </c>
-      <c r="D120" s="19">
+      <c r="D121" s="19">
         <v>43450</v>
       </c>
-      <c r="E120" s="17" t="s">
+      <c r="E121" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="F120" s="1" t="s">
+      <c r="F121" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G120" s="1" t="s">
+      <c r="G121" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A121" s="1">
+    <row r="122" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
         <f t="shared" si="4"/>
         <v>120</v>
       </c>
-      <c r="B121" s="24" t="s">
+      <c r="B122" s="24" t="s">
         <v>241</v>
       </c>
-      <c r="C121" s="4">
+      <c r="C122" s="4">
         <v>2001</v>
       </c>
-      <c r="D121" s="19">
+      <c r="D122" s="19">
         <v>43461</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G121" s="12" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="1">
-        <f t="shared" si="4"/>
-        <v>121</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C122" s="4">
-        <v>2004</v>
-      </c>
-      <c r="D122" s="19">
-        <v>43468</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>55</v>
+      </c>
+      <c r="G122" s="12" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <f t="shared" si="4"/>
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>1108</v>
+        <v>243</v>
+      </c>
+      <c r="C123" s="4">
+        <v>2004</v>
       </c>
       <c r="D123" s="19">
-        <v>43470</v>
+        <v>43468</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>55</v>
@@ -9161,16 +9438,16 @@
     <row r="124" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <f t="shared" si="4"/>
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>1165</v>
+        <v>244</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="D124" s="19">
-        <v>43513</v>
+        <v>43470</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>55</v>
@@ -9179,55 +9456,55 @@
     <row r="125" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <f t="shared" si="4"/>
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C125" s="4">
-        <v>2016</v>
+        <v>1164</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>1109</v>
       </c>
       <c r="D125" s="19">
-        <v>43528</v>
+        <v>43513</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <f t="shared" si="4"/>
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>1109</v>
+        <v>245</v>
+      </c>
+      <c r="C126" s="4">
+        <v>2016</v>
       </c>
       <c r="D126" s="19">
-        <v>43582</v>
+        <v>43528</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>55</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <f t="shared" si="4"/>
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D127" s="19">
-        <v>43590</v>
+        <v>43582</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>55</v>
@@ -9236,16 +9513,16 @@
     <row r="128" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <f t="shared" si="4"/>
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="D128" s="19">
-        <v>43617</v>
+        <v>43590</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>55</v>
@@ -9254,104 +9531,109 @@
     <row r="129" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <f t="shared" si="4"/>
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>1152</v>
+        <v>249</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>1111</v>
+        <v>1109</v>
+      </c>
+      <c r="D129" s="19">
+        <v>43617</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>1153</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <f t="shared" si="4"/>
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C130" s="4">
-        <v>2019</v>
-      </c>
-      <c r="D130" s="19">
-        <v>43708</v>
+        <v>1152</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>1111</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>55</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>1153</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <f t="shared" si="4"/>
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C131" s="4"/>
+        <v>250</v>
+      </c>
+      <c r="C131" s="4">
+        <v>2019</v>
+      </c>
+      <c r="D131" s="19">
+        <v>43708</v>
+      </c>
       <c r="F131" s="1" t="s">
-        <v>252</v>
+        <v>55</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <f t="shared" si="4"/>
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>1154</v>
+        <v>251</v>
       </c>
       <c r="C132" s="4"/>
       <c r="F132" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="G132" s="1" t="s">
-        <v>253</v>
-      </c>
     </row>
     <row r="133" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <f t="shared" si="4"/>
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>254</v>
+        <v>1154</v>
       </c>
       <c r="C133" s="4"/>
       <c r="F133" s="1" t="s">
         <v>252</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <f t="shared" si="4"/>
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C134" s="4"/>
       <c r="F134" s="1" t="s">
         <v>252</v>
       </c>
+      <c r="G134" s="1" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="135" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <f t="shared" si="4"/>
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C135" s="4"/>
       <c r="F135" s="1" t="s">
@@ -9361,10 +9643,10 @@
     <row r="136" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <f t="shared" si="4"/>
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C136" s="4"/>
       <c r="F136" s="1" t="s">
@@ -9374,10 +9656,10 @@
     <row r="137" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <f t="shared" si="4"/>
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C137" s="4"/>
       <c r="F137" s="1" t="s">
@@ -9387,10 +9669,10 @@
     <row r="138" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <f t="shared" si="4"/>
-        <v>137</v>
-      </c>
-      <c r="B138" s="8" t="s">
-        <v>260</v>
+        <v>136</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>259</v>
       </c>
       <c r="C138" s="4"/>
       <c r="F138" s="1" t="s">
@@ -9400,10 +9682,10 @@
     <row r="139" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <f t="shared" si="4"/>
-        <v>138</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>261</v>
+        <v>137</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>260</v>
       </c>
       <c r="C139" s="4"/>
       <c r="F139" s="1" t="s">
@@ -9413,10 +9695,10 @@
     <row r="140" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <f t="shared" si="4"/>
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C140" s="4"/>
       <c r="F140" s="1" t="s">
@@ -9426,39 +9708,39 @@
     <row r="141" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <f t="shared" si="4"/>
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C141" s="4"/>
       <c r="F141" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="G141" s="1" t="s">
-        <v>264</v>
-      </c>
     </row>
     <row r="142" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <f t="shared" si="4"/>
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C142" s="4"/>
       <c r="F142" s="1" t="s">
         <v>252</v>
       </c>
+      <c r="G142" s="1" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="143" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <f t="shared" si="4"/>
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C143" s="4"/>
       <c r="F143" s="1" t="s">
@@ -9468,10 +9750,10 @@
     <row r="144" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <f t="shared" si="4"/>
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C144" s="4"/>
       <c r="F144" s="1" t="s">
@@ -9481,10 +9763,10 @@
     <row r="145" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <f t="shared" si="4"/>
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C145" s="4"/>
       <c r="F145" s="1" t="s">
@@ -9494,14 +9776,12 @@
     <row r="146" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <f t="shared" si="4"/>
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>270</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="C146" s="4"/>
       <c r="F146" s="1" t="s">
         <v>252</v>
       </c>
@@ -9509,12 +9789,14 @@
     <row r="147" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <f t="shared" si="4"/>
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C147" s="4"/>
+        <v>269</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>270</v>
+      </c>
       <c r="F147" s="1" t="s">
         <v>252</v>
       </c>
@@ -9522,10 +9804,10 @@
     <row r="148" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <f t="shared" si="4"/>
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C148" s="4"/>
       <c r="F148" s="1" t="s">
@@ -9534,41 +9816,41 @@
     </row>
     <row r="149" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <f>'2_watched_movies'!A148+1</f>
-        <v>148</v>
-      </c>
-      <c r="B149" s="24" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C149" s="23"/>
-      <c r="D149" s="20"/>
+        <f t="shared" si="4"/>
+        <v>147</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C149" s="4"/>
       <c r="F149" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="G149" s="1" t="s">
-        <v>1091</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <f>'2_watched_movies'!A149+1</f>
-        <v>149</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C150" s="4"/>
+        <v>148</v>
+      </c>
+      <c r="B150" s="24" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C150" s="23"/>
+      <c r="D150" s="20"/>
       <c r="F150" s="1" t="s">
         <v>252</v>
       </c>
+      <c r="G150" s="1" t="s">
+        <v>1091</v>
+      </c>
     </row>
     <row r="151" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <f t="shared" ref="A151:A182" si="5">A150+1</f>
-        <v>150</v>
+        <f>'2_watched_movies'!A150+1</f>
+        <v>149</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>1162</v>
+        <v>1090</v>
       </c>
       <c r="C151" s="4"/>
       <c r="F151" s="1" t="s">
@@ -9577,53 +9859,53 @@
     </row>
     <row r="152" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <f t="shared" si="5"/>
-        <v>151</v>
+        <f t="shared" ref="A152:A183" si="5">A151+1</f>
+        <v>150</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="C152" s="4"/>
       <c r="F152" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <f t="shared" si="5"/>
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>273</v>
+        <v>1162</v>
       </c>
       <c r="C153" s="4"/>
       <c r="F153" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="G153" s="12" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <f t="shared" si="5"/>
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>1164</v>
+        <v>273</v>
       </c>
       <c r="C154" s="4"/>
       <c r="F154" s="1" t="s">
         <v>252</v>
       </c>
+      <c r="G154" s="12" t="s">
+        <v>1193</v>
+      </c>
     </row>
     <row r="155" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <f t="shared" si="5"/>
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>274</v>
+        <v>1163</v>
       </c>
       <c r="C155" s="4"/>
       <c r="F155" s="1" t="s">
@@ -9633,44 +9915,44 @@
     <row r="156" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <f t="shared" si="5"/>
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C156" s="4"/>
       <c r="F156" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="G156" s="1" t="s">
-        <v>276</v>
-      </c>
     </row>
     <row r="157" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <f t="shared" si="5"/>
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C157" s="4"/>
-      <c r="D157" s="29" t="s">
-        <v>278</v>
-      </c>
       <c r="F157" s="1" t="s">
         <v>252</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <f t="shared" si="5"/>
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C158" s="4"/>
+      <c r="D158" s="29" t="s">
+        <v>278</v>
+      </c>
       <c r="F158" s="1" t="s">
         <v>252</v>
       </c>
@@ -9678,23 +9960,23 @@
     <row r="159" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <f t="shared" si="5"/>
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C159" s="4"/>
       <c r="F159" s="1" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <f t="shared" si="5"/>
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C160" s="4"/>
       <c r="F160" s="1" t="s">
@@ -9704,10 +9986,10 @@
     <row r="161" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <f t="shared" si="5"/>
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C161" s="4"/>
       <c r="F161" s="1" t="s">
@@ -9717,10 +9999,10 @@
     <row r="162" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <f t="shared" si="5"/>
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C162" s="4"/>
       <c r="F162" s="1" t="s">
@@ -9730,10 +10012,10 @@
     <row r="163" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <f t="shared" si="5"/>
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C163" s="4"/>
       <c r="F163" s="1" t="s">
@@ -9743,10 +10025,10 @@
     <row r="164" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <f t="shared" si="5"/>
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C164" s="4"/>
       <c r="F164" s="1" t="s">
@@ -9756,10 +10038,10 @@
     <row r="165" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <f t="shared" si="5"/>
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C165" s="4"/>
       <c r="F165" s="1" t="s">
@@ -9769,10 +10051,10 @@
     <row r="166" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <f t="shared" si="5"/>
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C166" s="4"/>
       <c r="F166" s="1" t="s">
@@ -9782,10 +10064,10 @@
     <row r="167" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <f t="shared" si="5"/>
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C167" s="4"/>
       <c r="F167" s="1" t="s">
@@ -9795,10 +10077,10 @@
     <row r="168" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <f t="shared" si="5"/>
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C168" s="4"/>
       <c r="F168" s="1" t="s">
@@ -9808,10 +10090,10 @@
     <row r="169" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <f t="shared" si="5"/>
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C169" s="4"/>
       <c r="F169" s="1" t="s">
@@ -9821,10 +10103,10 @@
     <row r="170" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <f t="shared" si="5"/>
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C170" s="4"/>
       <c r="F170" s="1" t="s">
@@ -9834,10 +10116,10 @@
     <row r="171" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <f t="shared" si="5"/>
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C171" s="4"/>
       <c r="F171" s="1" t="s">
@@ -9847,10 +10129,10 @@
     <row r="172" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <f t="shared" si="5"/>
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C172" s="4"/>
       <c r="F172" s="1" t="s">
@@ -9860,10 +10142,10 @@
     <row r="173" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <f t="shared" si="5"/>
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C173" s="4"/>
       <c r="F173" s="1" t="s">
@@ -9873,10 +10155,10 @@
     <row r="174" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <f t="shared" si="5"/>
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C174" s="4"/>
       <c r="F174" s="1" t="s">
@@ -9886,10 +10168,10 @@
     <row r="175" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <f t="shared" si="5"/>
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C175" s="4"/>
       <c r="F175" s="1" t="s">
@@ -9899,10 +10181,10 @@
     <row r="176" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <f t="shared" si="5"/>
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C176" s="4"/>
       <c r="F176" s="1" t="s">
@@ -9912,10 +10194,10 @@
     <row r="177" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <f t="shared" si="5"/>
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C177" s="4"/>
       <c r="F177" s="1" t="s">
@@ -9925,10 +10207,10 @@
     <row r="178" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <f t="shared" si="5"/>
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C178" s="4"/>
       <c r="F178" s="1" t="s">
@@ -9938,10 +10220,10 @@
     <row r="179" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <f t="shared" si="5"/>
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C179" s="4"/>
       <c r="F179" s="1" t="s">
@@ -9951,23 +10233,23 @@
     <row r="180" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <f t="shared" si="5"/>
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C180" s="4"/>
       <c r="F180" s="1" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>102</v>
+        <v>302</v>
       </c>
       <c r="C181" s="4"/>
       <c r="F181" s="1" t="s">
@@ -9977,38 +10259,38 @@
     <row r="182" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <f t="shared" si="5"/>
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C182" s="4" t="s">
-        <v>305</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="C182" s="4"/>
       <c r="F182" s="1" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <f t="shared" ref="A183:A214" si="6">A182+1</f>
-        <v>182</v>
-      </c>
-      <c r="B183" t="s">
-        <v>72</v>
-      </c>
-      <c r="C183" s="4"/>
+        <f t="shared" si="5"/>
+        <v>181</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>305</v>
+      </c>
       <c r="F183" s="1" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <f t="shared" si="6"/>
-        <v>183</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>306</v>
+        <f t="shared" ref="A184:A215" si="6">A183+1</f>
+        <v>182</v>
+      </c>
+      <c r="B184" t="s">
+        <v>72</v>
       </c>
       <c r="C184" s="4"/>
       <c r="F184" s="1" t="s">
@@ -10018,10 +10300,10 @@
     <row r="185" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <f t="shared" si="6"/>
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C185" s="4"/>
       <c r="F185" s="1" t="s">
@@ -10031,10 +10313,10 @@
     <row r="186" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <f t="shared" si="6"/>
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C186" s="4"/>
       <c r="F186" s="1" t="s">
@@ -10044,15 +10326,12 @@
     <row r="187" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <f t="shared" si="6"/>
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C187" s="4"/>
-      <c r="E187" s="17" t="s">
-        <v>310</v>
-      </c>
       <c r="F187" s="1" t="s">
         <v>303</v>
       </c>
@@ -10060,19 +10339,14 @@
     <row r="188" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <f t="shared" si="6"/>
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C188" s="4" t="s">
-        <v>1155</v>
-      </c>
-      <c r="D188" s="19">
-        <v>42797</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="C188" s="4"/>
       <c r="E188" s="17" t="s">
-        <v>175</v>
+        <v>310</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>303</v>
@@ -10081,12 +10355,20 @@
     <row r="189" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <f t="shared" si="6"/>
-        <v>188</v>
-      </c>
-      <c r="B189" t="s">
-        <v>312</v>
-      </c>
-      <c r="C189" s="4"/>
+        <v>187</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D189" s="19">
+        <v>42797</v>
+      </c>
+      <c r="E189" s="17" t="s">
+        <v>175</v>
+      </c>
       <c r="F189" s="1" t="s">
         <v>303</v>
       </c>
@@ -10094,10 +10376,10 @@
     <row r="190" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <f t="shared" si="6"/>
-        <v>189</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>313</v>
+        <v>188</v>
+      </c>
+      <c r="B190" t="s">
+        <v>312</v>
       </c>
       <c r="C190" s="4"/>
       <c r="F190" s="1" t="s">
@@ -10107,23 +10389,23 @@
     <row r="191" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <f t="shared" si="6"/>
-        <v>190</v>
-      </c>
-      <c r="B191" s="8" t="s">
-        <v>314</v>
+        <v>189</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>313</v>
       </c>
       <c r="C191" s="4"/>
       <c r="F191" s="1" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <f t="shared" si="6"/>
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C192" s="4"/>
       <c r="F192" s="1" t="s">
@@ -10133,386 +10415,386 @@
     <row r="193" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <f t="shared" si="6"/>
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C193" s="4"/>
       <c r="F193" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <f t="shared" si="6"/>
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C194" s="4"/>
       <c r="F194" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="195" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <f t="shared" si="6"/>
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C195" s="4"/>
       <c r="F195" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="196" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <f t="shared" si="6"/>
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C196" s="4"/>
       <c r="F196" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <f t="shared" si="6"/>
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C197" s="4"/>
       <c r="F197" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="198" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <f t="shared" si="6"/>
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C198" s="4"/>
       <c r="F198" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <f t="shared" si="6"/>
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C199" s="4"/>
       <c r="F199" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="200" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <f t="shared" si="6"/>
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C200" s="4"/>
       <c r="F200" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="201" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <f t="shared" si="6"/>
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C201" s="4"/>
       <c r="F201" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="202" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <f t="shared" si="6"/>
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="C202" s="4" t="s">
-        <v>1156</v>
-      </c>
-      <c r="D202" s="19">
-        <v>42925</v>
-      </c>
-      <c r="E202" s="17" t="s">
-        <v>114</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="C202" s="4"/>
       <c r="F202" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="G202" s="1" t="s">
-        <v>1088</v>
+        <v>334</v>
       </c>
     </row>
     <row r="203" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <f t="shared" si="6"/>
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="C203" s="4"/>
+        <v>335</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D203" s="19">
+        <v>42925</v>
+      </c>
+      <c r="E203" s="17" t="s">
+        <v>114</v>
+      </c>
       <c r="F203" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="204" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <f t="shared" si="6"/>
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C204" s="4"/>
       <c r="F204" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>341</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <f t="shared" si="6"/>
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C205" s="4"/>
       <c r="F205" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="206" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <f t="shared" si="6"/>
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C206" s="4"/>
       <c r="F206" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="207" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <f t="shared" si="6"/>
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>1020</v>
+        <v>345</v>
       </c>
       <c r="C207" s="4"/>
       <c r="F207" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
+      </c>
+      <c r="G207" s="1" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="208" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <f t="shared" si="6"/>
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>349</v>
+        <v>1020</v>
       </c>
       <c r="C208" s="4"/>
-      <c r="D208" s="19">
-        <v>43071</v>
-      </c>
       <c r="F208" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="G208" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="209" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <f t="shared" si="6"/>
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C209" s="4"/>
+      <c r="D209" s="19">
+        <v>43071</v>
+      </c>
       <c r="F209" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
+      </c>
+      <c r="G209" s="1" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="210" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <f t="shared" si="6"/>
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C210" s="4"/>
       <c r="F210" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="G210" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="211" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <f t="shared" si="6"/>
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C211" s="4"/>
       <c r="F211" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="212" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <f t="shared" si="6"/>
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B212" s="8" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C212" s="4"/>
       <c r="F212" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
+      </c>
+      <c r="G212" s="1" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="213" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <f t="shared" si="6"/>
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C213" s="4"/>
       <c r="F213" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="214" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <f t="shared" si="6"/>
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C214" s="4"/>
       <c r="F214" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="215" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <f t="shared" ref="A215:A226" si="7">A214+1</f>
-        <v>214</v>
+        <f t="shared" si="6"/>
+        <v>213</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C215" s="4"/>
       <c r="F215" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="216" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <f t="shared" si="7"/>
-        <v>215</v>
+        <f t="shared" ref="A216:A227" si="7">A215+1</f>
+        <v>214</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C216" s="4"/>
       <c r="F216" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="217" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <f t="shared" si="7"/>
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C217" s="4"/>
       <c r="F217" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="G217" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="218" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <f t="shared" si="7"/>
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C218" s="4"/>
       <c r="F218" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
+      </c>
+      <c r="G218" s="1" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="219" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <f t="shared" si="7"/>
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C219" s="4"/>
       <c r="F219" s="1" t="s">
@@ -10522,84 +10804,84 @@
     <row r="220" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <f t="shared" si="7"/>
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B220" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C220" s="4"/>
       <c r="F220" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="G220" s="1" t="s">
-        <v>377</v>
-      </c>
     </row>
     <row r="221" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <f t="shared" si="7"/>
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C221" s="4"/>
       <c r="F221" s="1" t="s">
         <v>374</v>
       </c>
+      <c r="G221" s="1" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="222" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <f t="shared" si="7"/>
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B222" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C222" s="4"/>
       <c r="F222" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="G222" s="1" t="s">
-        <v>380</v>
-      </c>
     </row>
     <row r="223" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <f t="shared" si="7"/>
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>1112</v>
+        <v>379</v>
       </c>
       <c r="C223" s="4"/>
       <c r="F223" s="1" t="s">
         <v>374</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>1021</v>
+        <v>380</v>
       </c>
     </row>
     <row r="224" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <f t="shared" si="7"/>
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>381</v>
+        <v>1112</v>
       </c>
       <c r="C224" s="4"/>
       <c r="F224" s="1" t="s">
         <v>374</v>
       </c>
+      <c r="G224" s="1" t="s">
+        <v>1021</v>
+      </c>
     </row>
     <row r="225" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <f t="shared" si="7"/>
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C225" s="4"/>
       <c r="F225" s="1" t="s">
@@ -10609,10 +10891,10 @@
     <row r="226" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <f t="shared" si="7"/>
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B226" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C226" s="4"/>
       <c r="F226" s="1" t="s">
@@ -10621,14 +10903,13 @@
     </row>
     <row r="227" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
-        <f>'2_watched_movies'!A226+1</f>
-        <v>226</v>
-      </c>
-      <c r="B227" s="30" t="s">
-        <v>384</v>
-      </c>
-      <c r="C227" s="23"/>
-      <c r="D227" s="20"/>
+        <f t="shared" si="7"/>
+        <v>225</v>
+      </c>
+      <c r="B227" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="C227" s="4"/>
       <c r="F227" s="1" t="s">
         <v>374</v>
       </c>
@@ -10636,23 +10917,24 @@
     <row r="228" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <f>'2_watched_movies'!A227+1</f>
-        <v>227</v>
-      </c>
-      <c r="B228" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="C228" s="4"/>
+        <v>226</v>
+      </c>
+      <c r="B228" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="C228" s="23"/>
+      <c r="D228" s="20"/>
       <c r="F228" s="1" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="229" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
-        <f t="shared" ref="A229:A238" si="8">A228+1</f>
-        <v>228</v>
+        <f>'2_watched_movies'!A228+1</f>
+        <v>227</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C229" s="4"/>
       <c r="F229" s="1" t="s">
@@ -10661,11 +10943,11 @@
     </row>
     <row r="230" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
-        <f t="shared" si="8"/>
-        <v>229</v>
+        <f t="shared" ref="A230:A239" si="8">A229+1</f>
+        <v>228</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C230" s="4"/>
       <c r="F230" s="1" t="s">
@@ -10675,10 +10957,10 @@
     <row r="231" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <f t="shared" si="8"/>
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C231" s="4"/>
       <c r="F231" s="1" t="s">
@@ -10688,10 +10970,10 @@
     <row r="232" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <f t="shared" si="8"/>
-        <v>231</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>389</v>
+        <v>230</v>
+      </c>
+      <c r="B232" s="8" t="s">
+        <v>388</v>
       </c>
       <c r="C232" s="4"/>
       <c r="F232" s="1" t="s">
@@ -10701,159 +10983,150 @@
     <row r="233" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <f t="shared" si="8"/>
-        <v>232</v>
-      </c>
-      <c r="B233" s="8" t="s">
-        <v>390</v>
+        <v>231</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>389</v>
       </c>
       <c r="C233" s="4"/>
       <c r="F233" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="G233" s="1" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
     </row>
     <row r="234" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <f t="shared" si="8"/>
-        <v>233</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="C234" s="4">
-        <v>2021</v>
-      </c>
-      <c r="D234" s="19">
-        <v>44303</v>
+        <v>232</v>
+      </c>
+      <c r="B234" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="C234" s="4"/>
+      <c r="F234" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="G234" s="1" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="235" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <f t="shared" si="8"/>
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C235" s="4">
         <v>2021</v>
       </c>
       <c r="D235" s="19">
-        <v>44332</v>
-      </c>
-      <c r="E235" s="17" t="s">
-        <v>395</v>
+        <v>44303</v>
       </c>
     </row>
     <row r="236" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <f t="shared" si="8"/>
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C236" s="4">
-        <v>2011</v>
+        <v>2021</v>
       </c>
       <c r="D236" s="19">
-        <v>44340</v>
+        <v>44332</v>
       </c>
       <c r="E236" s="17" t="s">
-        <v>397</v>
-      </c>
-      <c r="G236" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="237" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <f t="shared" si="8"/>
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="C237" s="4"/>
+        <v>396</v>
+      </c>
+      <c r="C237" s="4">
+        <v>2011</v>
+      </c>
       <c r="D237" s="19">
-        <v>44343</v>
+        <v>44340</v>
       </c>
       <c r="E237" s="17" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="238" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <f t="shared" si="8"/>
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="C238" s="4">
-        <v>1986</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="C238" s="4"/>
       <c r="D238" s="19">
-        <v>44351</v>
+        <v>44343</v>
+      </c>
+      <c r="E238" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="G238" s="1" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="239" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <f>'2_watched_movies'!A238+1</f>
-        <v>238</v>
-      </c>
-      <c r="B239" s="24" t="s">
-        <v>403</v>
-      </c>
-      <c r="C239" s="23">
-        <v>1997</v>
+        <f t="shared" si="8"/>
+        <v>237</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C239" s="4">
+        <v>1986</v>
       </c>
       <c r="D239" s="19">
-        <v>44346</v>
-      </c>
-      <c r="F239" s="1" t="s">
-        <v>404</v>
+        <v>44351</v>
       </c>
     </row>
     <row r="240" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <f>'2_watched_movies'!A239+1</f>
-        <v>239</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="C240" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="B240" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="C240" s="23">
+        <v>1997</v>
+      </c>
       <c r="D240" s="19">
-        <v>44380</v>
+        <v>44346</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="G240" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="241" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <f t="shared" ref="A241:A261" si="9">A240+1</f>
-        <v>240</v>
+        <f>'2_watched_movies'!A240+1</f>
+        <v>239</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C241" s="4"/>
       <c r="D241" s="19">
         <v>44380</v>
       </c>
-      <c r="E241" s="17" t="s">
-        <v>408</v>
-      </c>
       <c r="F241" s="1" t="s">
         <v>281</v>
       </c>
@@ -10863,251 +11136,257 @@
     </row>
     <row r="242" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
-        <f t="shared" si="9"/>
-        <v>241</v>
-      </c>
-      <c r="B242" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="C242" s="4">
-        <v>2021</v>
-      </c>
+        <f t="shared" ref="A242:A262" si="9">A241+1</f>
+        <v>240</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C242" s="4"/>
       <c r="D242" s="19">
-        <v>44401</v>
+        <v>44380</v>
+      </c>
+      <c r="E242" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>281</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="243" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <f t="shared" si="9"/>
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="C243" s="4"/>
-    </row>
-    <row r="244" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+      <c r="C243" s="4">
+        <v>2021</v>
+      </c>
+      <c r="D243" s="19">
+        <v>44401</v>
+      </c>
+      <c r="G243" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <f t="shared" si="9"/>
-        <v>243</v>
-      </c>
-      <c r="B244" s="30" t="s">
-        <v>1158</v>
+        <v>242</v>
+      </c>
+      <c r="B244" s="8" t="s">
+        <v>411</v>
       </c>
       <c r="C244" s="4"/>
-      <c r="D244" s="29" t="s">
-        <v>1137</v>
-      </c>
-      <c r="G244" s="12" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="245" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <f t="shared" si="9"/>
-        <v>244</v>
-      </c>
-      <c r="B245" s="8" t="s">
-        <v>412</v>
+        <v>243</v>
+      </c>
+      <c r="B245" s="30" t="s">
+        <v>1158</v>
       </c>
       <c r="C245" s="4"/>
-      <c r="F245" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="G245" s="1" t="s">
-        <v>1135</v>
+      <c r="D245" s="29" t="s">
+        <v>1137</v>
+      </c>
+      <c r="G245" s="12" t="s">
+        <v>1157</v>
       </c>
     </row>
     <row r="246" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <f t="shared" si="9"/>
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B246" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C246" s="4"/>
+      <c r="F246" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="G246" s="1" t="s">
+        <v>1135</v>
+      </c>
     </row>
     <row r="247" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <f t="shared" si="9"/>
-        <v>246</v>
-      </c>
-      <c r="B247" s="1" t="s">
-        <v>414</v>
+        <v>245</v>
+      </c>
+      <c r="B247" s="8" t="s">
+        <v>413</v>
       </c>
       <c r="C247" s="4"/>
-      <c r="G247" s="1" t="s">
-        <v>1161</v>
-      </c>
     </row>
     <row r="248" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <f t="shared" si="9"/>
-        <v>247</v>
-      </c>
-      <c r="B248" s="8" t="s">
-        <v>415</v>
+        <v>246</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="C248" s="4"/>
       <c r="G248" s="1" t="s">
-        <v>416</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="249" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <f t="shared" si="9"/>
-        <v>248</v>
-      </c>
-      <c r="B249" s="1" t="s">
-        <v>417</v>
+        <v>247</v>
+      </c>
+      <c r="B249" s="8" t="s">
+        <v>415</v>
       </c>
       <c r="C249" s="4"/>
+      <c r="G249" s="1" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="250" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <f t="shared" si="9"/>
-        <v>249</v>
-      </c>
-      <c r="B250" s="8" t="s">
-        <v>418</v>
+        <v>248</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>417</v>
       </c>
       <c r="C250" s="4"/>
     </row>
     <row r="251" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <f t="shared" si="9"/>
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B251" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C251" s="4"/>
-      <c r="G251" s="1" t="s">
-        <v>420</v>
-      </c>
     </row>
     <row r="252" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <f t="shared" si="9"/>
-        <v>251</v>
-      </c>
-      <c r="B252" s="1" t="s">
-        <v>421</v>
+        <v>250</v>
+      </c>
+      <c r="B252" s="8" t="s">
+        <v>419</v>
       </c>
       <c r="C252" s="4"/>
+      <c r="G252" s="1" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="253" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <f t="shared" si="9"/>
-        <v>252</v>
-      </c>
-      <c r="B253" s="8" t="s">
-        <v>422</v>
+        <v>251</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>421</v>
       </c>
       <c r="C253" s="4"/>
     </row>
     <row r="254" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <f t="shared" si="9"/>
-        <v>253</v>
-      </c>
-      <c r="B254" s="1" t="s">
-        <v>423</v>
+        <v>252</v>
+      </c>
+      <c r="B254" s="8" t="s">
+        <v>422</v>
       </c>
       <c r="C254" s="4"/>
-      <c r="G254" s="1" t="s">
-        <v>424</v>
-      </c>
     </row>
     <row r="255" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <f t="shared" si="9"/>
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C255" s="4"/>
+      <c r="G255" s="1" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="256" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <f t="shared" si="9"/>
-        <v>255</v>
-      </c>
-      <c r="B256" s="8" t="s">
-        <v>426</v>
+        <v>254</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>425</v>
       </c>
       <c r="C256" s="4"/>
-      <c r="G256" s="1" t="s">
-        <v>427</v>
-      </c>
     </row>
     <row r="257" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <f t="shared" si="9"/>
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B257" s="8" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C257" s="4"/>
       <c r="G257" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="258" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <f t="shared" si="9"/>
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B258" s="8" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C258" s="4"/>
+      <c r="G258" s="1" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="259" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <f t="shared" si="9"/>
-        <v>258</v>
-      </c>
-      <c r="B259" s="1" t="s">
-        <v>1120</v>
+        <v>257</v>
+      </c>
+      <c r="B259" s="8" t="s">
+        <v>430</v>
       </c>
       <c r="C259" s="4"/>
-      <c r="D259" s="19">
-        <v>44437</v>
-      </c>
-      <c r="G259" s="1" t="s">
-        <v>431</v>
-      </c>
     </row>
     <row r="260" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <f t="shared" si="9"/>
-        <v>259</v>
-      </c>
-      <c r="B260" s="8" t="s">
-        <v>432</v>
+        <v>258</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>1120</v>
       </c>
       <c r="C260" s="4"/>
-      <c r="F260" s="1" t="s">
-        <v>433</v>
+      <c r="D260" s="19">
+        <v>44437</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>44</v>
+        <v>431</v>
       </c>
     </row>
     <row r="261" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <f t="shared" si="9"/>
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C261" s="4"/>
       <c r="F261" s="1" t="s">
@@ -11119,493 +11398,497 @@
     </row>
     <row r="262" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
-        <f>'2_watched_movies'!A261+1</f>
-        <v>261</v>
-      </c>
-      <c r="B262" s="24" t="s">
-        <v>435</v>
-      </c>
-      <c r="C262" s="23"/>
-      <c r="D262" s="20"/>
+        <f t="shared" si="9"/>
+        <v>260</v>
+      </c>
+      <c r="B262" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="C262" s="4"/>
+      <c r="F262" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="G262" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="263" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <f>'2_watched_movies'!A262+1</f>
+        <v>261</v>
+      </c>
+      <c r="B263" s="24" t="s">
+        <v>435</v>
+      </c>
+      <c r="C263" s="23"/>
+      <c r="D263" s="20"/>
+    </row>
+    <row r="264" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
+        <f>'2_watched_movies'!A263+1</f>
         <v>262</v>
       </c>
-      <c r="B263" s="8" t="s">
+      <c r="B264" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="C263" s="4">
+      <c r="C264" s="4">
         <v>2003</v>
       </c>
-      <c r="F263" s="1" t="s">
+      <c r="F264" s="1" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="264" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A264" s="1">
-        <f t="shared" ref="A264:A271" si="10">A263+1</f>
+    <row r="265" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
+        <f t="shared" ref="A265:A272" si="10">A264+1</f>
         <v>263</v>
       </c>
-      <c r="B264" s="8" t="s">
+      <c r="B265" s="8" t="s">
         <v>1113</v>
       </c>
-      <c r="C264" s="4">
+      <c r="C265" s="4">
         <v>2007</v>
       </c>
-      <c r="G264" s="12" t="s">
+      <c r="G265" s="12" t="s">
         <v>1114</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="1">
-        <f t="shared" si="10"/>
-        <v>264</v>
-      </c>
-      <c r="B265" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="C265" s="4"/>
-      <c r="G265" s="1" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="266" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <f t="shared" si="10"/>
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B266" s="8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C266" s="4"/>
       <c r="G266" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="267" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <f t="shared" si="10"/>
-        <v>266</v>
-      </c>
-      <c r="B267" s="1" t="s">
-        <v>442</v>
+        <v>265</v>
+      </c>
+      <c r="B267" s="8" t="s">
+        <v>440</v>
       </c>
       <c r="C267" s="4"/>
       <c r="G267" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="268" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <f t="shared" si="10"/>
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="C268" s="4">
-        <v>1994</v>
+        <v>442</v>
+      </c>
+      <c r="C268" s="4"/>
+      <c r="G268" s="1" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="269" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <f t="shared" si="10"/>
-        <v>268</v>
-      </c>
-      <c r="B269" s="30" t="s">
-        <v>445</v>
-      </c>
-      <c r="C269" s="4"/>
-      <c r="D269" s="19">
-        <v>44448</v>
-      </c>
-      <c r="E269" s="17" t="s">
-        <v>408</v>
-      </c>
-      <c r="F269" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="G269" s="1" t="s">
-        <v>446</v>
+        <v>267</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C269" s="4">
+        <v>1994</v>
       </c>
     </row>
     <row r="270" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <f t="shared" si="10"/>
-        <v>269</v>
-      </c>
-      <c r="B270" s="1" t="s">
-        <v>447</v>
+        <v>268</v>
+      </c>
+      <c r="B270" s="30" t="s">
+        <v>445</v>
       </c>
       <c r="C270" s="4"/>
+      <c r="D270" s="19">
+        <v>44448</v>
+      </c>
+      <c r="E270" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="F270" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="G270" s="1" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="271" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <f t="shared" si="10"/>
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="C271" s="4">
-        <v>1999</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="C271" s="4"/>
     </row>
     <row r="272" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
-        <f>'2_watched_movies'!A271+1</f>
-        <v>271</v>
-      </c>
-      <c r="B272" s="24" t="s">
-        <v>449</v>
-      </c>
-      <c r="C272" s="23"/>
-      <c r="D272" s="20"/>
+        <f t="shared" si="10"/>
+        <v>270</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C272" s="4">
+        <v>1999</v>
+      </c>
     </row>
     <row r="273" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <f>'2_watched_movies'!A272+1</f>
-        <v>272</v>
-      </c>
-      <c r="B273" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="C273" s="4"/>
-      <c r="D273" s="19">
-        <v>44550</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="B273" s="24" t="s">
+        <v>449</v>
+      </c>
+      <c r="C273" s="23"/>
+      <c r="D273" s="20"/>
     </row>
     <row r="274" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
-        <f t="shared" ref="A274:A290" si="11">A273+1</f>
-        <v>273</v>
-      </c>
-      <c r="B274" s="8" t="s">
-        <v>451</v>
+        <f>'2_watched_movies'!A273+1</f>
+        <v>272</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>450</v>
       </c>
       <c r="C274" s="4"/>
-      <c r="G274" s="1" t="s">
-        <v>452</v>
+      <c r="D274" s="19">
+        <v>44550</v>
       </c>
     </row>
     <row r="275" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
-        <f t="shared" si="11"/>
-        <v>274</v>
-      </c>
-      <c r="B275" s="1" t="s">
-        <v>453</v>
+        <f t="shared" ref="A275:A290" si="11">A274+1</f>
+        <v>273</v>
+      </c>
+      <c r="B275" s="8" t="s">
+        <v>451</v>
       </c>
       <c r="C275" s="4"/>
+      <c r="G275" s="1" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="276" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <f t="shared" si="11"/>
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="C276" s="4">
-        <v>2012</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="C276" s="4"/>
     </row>
     <row r="277" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <f t="shared" si="11"/>
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="C277" s="4"/>
+        <v>454</v>
+      </c>
+      <c r="C277" s="4">
+        <v>2012</v>
+      </c>
     </row>
     <row r="278" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <f t="shared" si="11"/>
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="C278" s="4">
-        <v>1998</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="C278" s="4"/>
     </row>
     <row r="279" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <f t="shared" si="11"/>
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C279" s="4">
-        <v>2008</v>
-      </c>
-      <c r="G279" s="1" t="s">
-        <v>1136</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="280" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <f t="shared" si="11"/>
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="C280" s="4"/>
+        <v>457</v>
+      </c>
+      <c r="C280" s="4">
+        <v>2008</v>
+      </c>
+      <c r="G280" s="1" t="s">
+        <v>1136</v>
+      </c>
     </row>
     <row r="281" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <f t="shared" si="11"/>
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C281" s="4"/>
-      <c r="D281" s="19">
-        <v>44458</v>
-      </c>
-      <c r="G281" s="1" t="s">
-        <v>460</v>
-      </c>
     </row>
     <row r="282" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <f t="shared" si="11"/>
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="C282" s="4">
-        <v>2019</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="C282" s="4"/>
       <c r="D282" s="19">
-        <v>44499</v>
-      </c>
-      <c r="E282" s="17" t="s">
-        <v>462</v>
+        <v>44458</v>
+      </c>
+      <c r="G282" s="1" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="283" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <f t="shared" si="11"/>
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C283" s="4">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D283" s="19">
-        <v>44520</v>
+        <v>44499</v>
       </c>
       <c r="E283" s="17" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="284" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <f t="shared" si="11"/>
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C284" s="4">
-        <v>2013</v>
+        <v>2021</v>
       </c>
       <c r="D284" s="19">
-        <v>44545</v>
+        <v>44520</v>
       </c>
       <c r="E284" s="17" t="s">
-        <v>146</v>
+        <v>464</v>
       </c>
     </row>
     <row r="285" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <f t="shared" si="11"/>
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C285" s="4">
-        <v>2021</v>
+        <v>2013</v>
       </c>
       <c r="D285" s="19">
-        <v>44548</v>
+        <v>44545</v>
       </c>
       <c r="E285" s="17" t="s">
-        <v>467</v>
-      </c>
-      <c r="G285" s="1" t="s">
-        <v>468</v>
+        <v>146</v>
       </c>
     </row>
     <row r="286" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <f t="shared" si="11"/>
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="C286" s="4"/>
+        <v>466</v>
+      </c>
+      <c r="C286" s="4">
+        <v>2021</v>
+      </c>
+      <c r="D286" s="19">
+        <v>44548</v>
+      </c>
+      <c r="E286" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="G286" s="1" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="287" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <f t="shared" si="11"/>
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="C287" s="4">
-        <v>2011</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="C287" s="4"/>
     </row>
     <row r="288" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <f t="shared" si="11"/>
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="C288" s="4"/>
+        <v>470</v>
+      </c>
+      <c r="C288" s="4">
+        <v>2011</v>
+      </c>
     </row>
     <row r="289" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <f t="shared" si="11"/>
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C289" s="4"/>
     </row>
     <row r="290" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <f t="shared" si="11"/>
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="C290" s="4">
-        <v>2021</v>
-      </c>
-      <c r="D290" s="29" t="s">
-        <v>474</v>
-      </c>
-      <c r="G290" s="1" t="s">
-        <v>475</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="C290" s="4"/>
     </row>
     <row r="291" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="1">
-        <f>'2_watched_movies'!A290+1</f>
-        <v>290</v>
-      </c>
-      <c r="B291" s="30" t="s">
-        <v>476</v>
-      </c>
-      <c r="C291" s="23"/>
-      <c r="D291" s="21" t="s">
-        <v>1019</v>
+      <c r="A291" s="1"/>
+      <c r="B291" s="8" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C291" s="4"/>
+      <c r="D291" s="29" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E291" s="17" t="s">
+        <v>1216</v>
       </c>
       <c r="G291" s="1" t="s">
-        <v>477</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="292" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
-        <f>A291+1</f>
-        <v>291</v>
-      </c>
-      <c r="B292" s="30" t="s">
-        <v>478</v>
-      </c>
-      <c r="C292" s="23"/>
-      <c r="D292" s="20"/>
+        <f>A290+1</f>
+        <v>289</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C292" s="4">
+        <v>2021</v>
+      </c>
+      <c r="D292" s="29" t="s">
+        <v>474</v>
+      </c>
+      <c r="G292" s="1" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="293" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <f>'2_watched_movies'!A292+1</f>
-        <v>292</v>
-      </c>
-      <c r="B293" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="C293" s="4">
-        <v>2022</v>
-      </c>
-      <c r="D293" s="29" t="s">
-        <v>480</v>
+        <v>290</v>
+      </c>
+      <c r="B293" s="30" t="s">
+        <v>476</v>
+      </c>
+      <c r="C293" s="23"/>
+      <c r="D293" s="21" t="s">
+        <v>1019</v>
       </c>
       <c r="G293" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="294" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <f>A293+1</f>
-        <v>293</v>
-      </c>
-      <c r="B294" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="C294" s="4"/>
-      <c r="D294" s="29" t="s">
-        <v>483</v>
-      </c>
-      <c r="E294" s="23">
-        <v>7</v>
-      </c>
-      <c r="G294" s="1" t="s">
-        <v>484</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="B294" s="30" t="s">
+        <v>478</v>
+      </c>
+      <c r="C294" s="23"/>
+      <c r="D294" s="20"/>
     </row>
     <row r="295" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <f>'2_watched_movies'!A294+1</f>
-        <v>294</v>
-      </c>
-      <c r="B295" s="24" t="s">
-        <v>485</v>
+        <v>292</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>479</v>
       </c>
       <c r="C295" s="4">
-        <v>2021</v>
-      </c>
-      <c r="D295" s="21" t="s">
-        <v>486</v>
+        <v>2022</v>
+      </c>
+      <c r="D295" s="29" t="s">
+        <v>480</v>
       </c>
       <c r="G295" s="1" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="296" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
-        <f>'2_watched_movies'!A295+1</f>
-        <v>295</v>
+        <f>A295+1</f>
+        <v>293</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>1115</v>
+        <v>482</v>
       </c>
       <c r="C296" s="4"/>
+      <c r="D296" s="29" t="s">
+        <v>483</v>
+      </c>
+      <c r="E296" s="23">
+        <v>7</v>
+      </c>
+      <c r="G296" s="1" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="297" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <f>'2_watched_movies'!A296+1</f>
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B297" s="24" t="s">
         <v>485</v>
@@ -11614,460 +11897,494 @@
         <v>2021</v>
       </c>
       <c r="D297" s="21" t="s">
-        <v>1015</v>
+        <v>486</v>
       </c>
       <c r="G297" s="1" t="s">
-        <v>1016</v>
+        <v>487</v>
       </c>
     </row>
     <row r="298" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
-        <f>A296+1</f>
-        <v>296</v>
+        <f>'2_watched_movies'!A297+1</f>
+        <v>295</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="C298" s="4">
-        <v>2014</v>
-      </c>
-      <c r="D298" s="29" t="s">
-        <v>489</v>
-      </c>
-      <c r="E298" s="17">
-        <v>6</v>
-      </c>
+        <v>1115</v>
+      </c>
+      <c r="C298" s="4"/>
     </row>
     <row r="299" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
-        <f>A298+1</f>
-        <v>297</v>
-      </c>
-      <c r="B299" s="1" t="s">
-        <v>490</v>
+        <f>'2_watched_movies'!A298+1</f>
+        <v>296</v>
+      </c>
+      <c r="B299" s="24" t="s">
+        <v>485</v>
       </c>
       <c r="C299" s="4">
-        <v>2022</v>
-      </c>
-      <c r="D299" s="29" t="s">
-        <v>491</v>
-      </c>
-      <c r="E299" s="17">
-        <v>7.3</v>
+        <v>2021</v>
+      </c>
+      <c r="D299" s="21" t="s">
+        <v>1015</v>
+      </c>
+      <c r="G299" s="1" t="s">
+        <v>1016</v>
       </c>
     </row>
     <row r="300" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
-        <f>A299+1</f>
-        <v>298</v>
+        <f>A298+1</f>
+        <v>296</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C300" s="4">
-        <v>2022</v>
+        <v>2014</v>
       </c>
       <c r="D300" s="29" t="s">
-        <v>493</v>
+        <v>489</v>
+      </c>
+      <c r="E300" s="17">
+        <v>6</v>
       </c>
     </row>
     <row r="301" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
-        <v>299</v>
+        <f>A300+1</f>
+        <v>297</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="C301" s="4"/>
+        <v>490</v>
+      </c>
+      <c r="C301" s="4">
+        <v>2022</v>
+      </c>
       <c r="D301" s="29" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="E301" s="17">
-        <v>7.8</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="302" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
-        <v>300</v>
+        <f>A301+1</f>
+        <v>298</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>1176</v>
+        <v>492</v>
       </c>
       <c r="C302" s="4">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="D302" s="29" t="s">
-        <v>495</v>
-      </c>
-      <c r="E302" s="17">
-        <v>6.5</v>
-      </c>
-      <c r="G302" s="1" t="s">
-        <v>1178</v>
+        <v>493</v>
       </c>
     </row>
     <row r="303" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="C303" s="4">
-        <v>2022</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="C303" s="4"/>
       <c r="D303" s="29" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E303" s="17">
-        <v>7</v>
-      </c>
-      <c r="G303" s="1" t="s">
-        <v>498</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="304" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>499</v>
+        <v>1175</v>
       </c>
       <c r="C304" s="4">
-        <v>2019</v>
-      </c>
-      <c r="D304" s="29">
-        <v>2019</v>
+        <v>2017</v>
+      </c>
+      <c r="D304" s="29" t="s">
+        <v>495</v>
       </c>
       <c r="E304" s="17">
-        <v>7.8</v>
+        <v>6.5</v>
       </c>
       <c r="G304" s="1" t="s">
-        <v>500</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="305" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A305">
-        <v>303</v>
-      </c>
-      <c r="B305" t="s">
-        <v>993</v>
+      <c r="A305" s="1">
+        <v>301</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>496</v>
       </c>
       <c r="C305" s="4">
-        <v>2001</v>
-      </c>
-      <c r="D305" s="28" t="s">
-        <v>994</v>
-      </c>
-      <c r="E305" s="16">
-        <v>6.8</v>
-      </c>
-      <c r="G305" t="s">
-        <v>995</v>
+        <v>2022</v>
+      </c>
+      <c r="D305" s="29" t="s">
+        <v>497</v>
+      </c>
+      <c r="E305" s="17">
+        <v>7</v>
+      </c>
+      <c r="G305" s="1" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="306" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
+        <v>302</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C306" s="4">
+        <v>2019</v>
+      </c>
+      <c r="D306" s="29">
+        <v>2019</v>
+      </c>
+      <c r="E306" s="17">
+        <v>7.8</v>
+      </c>
+      <c r="G306" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>303</v>
+      </c>
+      <c r="B307" t="s">
+        <v>993</v>
+      </c>
+      <c r="C307" s="4">
+        <v>2001</v>
+      </c>
+      <c r="D307" s="28" t="s">
+        <v>994</v>
+      </c>
+      <c r="E307" s="16">
+        <v>6.8</v>
+      </c>
+      <c r="G307" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="1">
         <v>304</v>
       </c>
-      <c r="B306" t="s">
+      <c r="B308" t="s">
         <v>996</v>
       </c>
-      <c r="C306" s="4">
+      <c r="C308" s="4">
         <v>2022</v>
       </c>
-      <c r="D306" s="29" t="s">
+      <c r="D308" s="29" t="s">
         <v>1060</v>
       </c>
-      <c r="E306" s="16">
+      <c r="E308" s="16">
         <v>7.6</v>
       </c>
     </row>
-    <row r="307" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="1">
+    <row r="309" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="1">
         <v>305</v>
       </c>
-      <c r="B307" s="30" t="s">
+      <c r="B309" s="30" t="s">
         <v>998</v>
       </c>
-      <c r="C307" s="4">
+      <c r="C309" s="4">
         <v>2023</v>
       </c>
-      <c r="D307" s="20" t="s">
+      <c r="D309" s="20" t="s">
         <v>997</v>
       </c>
-      <c r="E307" s="16">
+      <c r="E309" s="16">
         <v>8</v>
-      </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A308" s="1">
-        <v>306</v>
-      </c>
-      <c r="B308" s="30" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C308" s="28"/>
-      <c r="D308" s="21">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A309">
-        <v>307</v>
-      </c>
-      <c r="B309" s="24" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C309" s="28"/>
-      <c r="D309" s="21" t="s">
-        <v>1031</v>
-      </c>
-      <c r="G309" s="1" t="s">
-        <v>1044</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
-        <v>308</v>
-      </c>
-      <c r="B310" s="24" t="s">
-        <v>1084</v>
+        <v>306</v>
+      </c>
+      <c r="B310" s="30" t="s">
+        <v>1017</v>
       </c>
       <c r="C310" s="28"/>
-      <c r="D310" s="21" t="s">
-        <v>1038</v>
-      </c>
-      <c r="E310" s="18" t="s">
-        <v>1040</v>
-      </c>
-      <c r="G310" s="6" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="311" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A311" s="1">
-        <v>309</v>
-      </c>
-      <c r="B311" s="25" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C311" s="28">
-        <v>2021</v>
-      </c>
+      <c r="D310" s="21">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>307</v>
+      </c>
+      <c r="B311" s="24" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C311" s="28"/>
       <c r="D311" s="21" t="s">
-        <v>1041</v>
-      </c>
-      <c r="E311" s="17" t="s">
-        <v>1042</v>
-      </c>
-      <c r="G311" s="12" t="s">
-        <v>1043</v>
+        <v>1031</v>
+      </c>
+      <c r="G311" s="1" t="s">
+        <v>1044</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
-        <v>310</v>
-      </c>
-      <c r="B312" s="30" t="s">
-        <v>1049</v>
+        <v>308</v>
+      </c>
+      <c r="B312" s="24" t="s">
+        <v>1084</v>
       </c>
       <c r="C312" s="28"/>
       <c r="D312" s="21" t="s">
-        <v>1048</v>
-      </c>
-      <c r="E312" s="17" t="s">
-        <v>1050</v>
+        <v>1038</v>
+      </c>
+      <c r="E312" s="18" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G312" s="6" t="s">
+        <v>1039</v>
       </c>
     </row>
     <row r="313" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A313">
-        <v>311</v>
-      </c>
-      <c r="B313" s="24" t="s">
-        <v>1086</v>
-      </c>
-      <c r="C313" s="28"/>
+      <c r="A313" s="1">
+        <v>309</v>
+      </c>
+      <c r="B313" s="25" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C313" s="28">
+        <v>2021</v>
+      </c>
       <c r="D313" s="21" t="s">
-        <v>1059</v>
-      </c>
-      <c r="E313" s="16">
-        <v>5</v>
+        <v>1041</v>
+      </c>
+      <c r="E313" s="17" t="s">
+        <v>1042</v>
       </c>
       <c r="G313" s="12" t="s">
-        <v>1075</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
-        <v>312</v>
-      </c>
-      <c r="B314" s="24" t="s">
-        <v>1072</v>
+        <v>310</v>
+      </c>
+      <c r="B314" s="30" t="s">
+        <v>1049</v>
       </c>
       <c r="C314" s="28"/>
       <c r="D314" s="21" t="s">
-        <v>1073</v>
-      </c>
-      <c r="E314" s="16">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="315" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A315" s="1">
-        <v>313</v>
-      </c>
-      <c r="B315" s="26" t="s">
-        <v>1069</v>
+        <v>1048</v>
+      </c>
+      <c r="E314" s="17" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>311</v>
+      </c>
+      <c r="B315" s="24" t="s">
+        <v>1086</v>
       </c>
       <c r="C315" s="28"/>
       <c r="D315" s="21" t="s">
-        <v>1076</v>
+        <v>1059</v>
+      </c>
+      <c r="E315" s="16">
+        <v>5</v>
+      </c>
+      <c r="G315" s="12" t="s">
+        <v>1075</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
+        <v>312</v>
+      </c>
+      <c r="B316" s="24" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C316" s="28"/>
+      <c r="D316" s="21" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E316" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A317" s="1">
+        <v>313</v>
+      </c>
+      <c r="B317" s="26" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C317" s="28"/>
+      <c r="D317" s="21" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A318" s="1">
         <v>314</v>
       </c>
-      <c r="B316" s="25" t="s">
+      <c r="B318" s="25" t="s">
         <v>1087</v>
       </c>
-      <c r="C316" s="28">
+      <c r="C318" s="28">
         <v>2021</v>
       </c>
-      <c r="D316" s="21" t="s">
+      <c r="D318" s="21" t="s">
         <v>1081</v>
       </c>
-      <c r="E316" s="18" t="s">
+      <c r="E318" s="18" t="s">
         <v>1082</v>
       </c>
-      <c r="G316" s="12" t="s">
+      <c r="G318" s="12" t="s">
         <v>1080</v>
       </c>
     </row>
-    <row r="317" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="33">
+    <row r="319" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="33">
         <v>315</v>
       </c>
-      <c r="B317" s="33" t="s">
+      <c r="B319" s="33" t="s">
         <v>1132</v>
       </c>
-      <c r="C317" s="34">
+      <c r="C319" s="34">
         <v>2001</v>
       </c>
-      <c r="D317" s="34" t="s">
+      <c r="D319" s="34" t="s">
         <v>1134</v>
       </c>
-      <c r="E317" s="35" t="s">
+      <c r="E319" s="35" t="s">
         <v>1133</v>
       </c>
-      <c r="G317" s="36"/>
-    </row>
-    <row r="318" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A318" s="1">
+      <c r="G319" s="36"/>
+    </row>
+    <row r="320" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A320" s="1">
         <v>316</v>
       </c>
-      <c r="B318" s="25" t="s">
+      <c r="B320" s="25" t="s">
         <v>1128</v>
       </c>
-      <c r="C318" s="4"/>
-      <c r="D318" s="29" t="s">
+      <c r="C320" s="4"/>
+      <c r="D320" s="29" t="s">
         <v>1129</v>
       </c>
-      <c r="E318" s="18" t="s">
+      <c r="E320" s="18" t="s">
         <v>1130</v>
       </c>
     </row>
-    <row r="319" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A319" s="1">
+    <row r="321" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A321" s="1">
         <v>317</v>
       </c>
-      <c r="B319" s="25" t="s">
+      <c r="B321" s="25" t="s">
         <v>1138</v>
       </c>
-      <c r="C319" s="4"/>
-      <c r="D319" s="29" t="s">
+      <c r="C321" s="4"/>
+      <c r="D321" s="29" t="s">
         <v>1129</v>
       </c>
-      <c r="E319" s="18" t="s">
+      <c r="E321" s="18" t="s">
         <v>1082</v>
       </c>
-      <c r="G319" s="12" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="320" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B320" s="25" t="s">
+      <c r="G321" s="12" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A322" s="1">
+        <v>318</v>
+      </c>
+      <c r="B322" s="24" t="s">
         <v>1204</v>
-      </c>
-      <c r="C320" s="4"/>
-      <c r="E320" s="47">
-        <v>45453</v>
-      </c>
-      <c r="G320" s="1" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="321" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B321" s="24" t="s">
-        <v>1180</v>
-      </c>
-      <c r="C321" s="4"/>
-    </row>
-    <row r="322" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B322" s="24" t="s">
-        <v>1205</v>
       </c>
       <c r="C322" s="4">
         <v>1988</v>
       </c>
       <c r="D322" s="29" t="s">
+        <v>1205</v>
+      </c>
+      <c r="G322" s="6" t="s">
         <v>1206</v>
       </c>
-      <c r="G322" s="6" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="323" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="323" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A323" s="1">
+        <v>319</v>
+      </c>
+      <c r="B323" s="24" t="s">
+        <v>1179</v>
+      </c>
       <c r="C323" s="4"/>
-    </row>
-    <row r="324" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D323" s="29" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E323" s="18" t="s">
+        <v>1130</v>
+      </c>
+      <c r="G323" s="1" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B324" s="25" t="s">
+        <v>1203</v>
+      </c>
       <c r="C324" s="4"/>
-    </row>
-    <row r="325" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E324" s="47">
+        <v>45453</v>
+      </c>
+      <c r="G324" s="1" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B325" s="25"/>
       <c r="C325" s="4"/>
-    </row>
-    <row r="326" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C326" s="4"/>
-    </row>
-    <row r="327" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C327" s="4"/>
-    </row>
-    <row r="328" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E325" s="47"/>
+      <c r="G325" s="1"/>
+    </row>
+    <row r="328" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C328" s="4"/>
     </row>
-    <row r="329" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C329" s="4"/>
     </row>
-    <row r="330" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C330" s="4"/>
     </row>
-    <row r="331" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C331" s="4"/>
     </row>
-    <row r="332" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C332" s="4"/>
     </row>
-    <row r="333" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C333" s="4"/>
     </row>
-    <row r="334" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C334" s="4"/>
     </row>
-    <row r="335" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C335" s="4"/>
     </row>
-    <row r="336" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C336" s="4"/>
     </row>
     <row r="337" spans="3:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14067,6 +14384,18 @@
     </row>
     <row r="1002" spans="3:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C1002" s="4"/>
+    </row>
+    <row r="1003" spans="3:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1003" s="4"/>
+    </row>
+    <row r="1004" spans="3:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1004" s="4"/>
+    </row>
+    <row r="1005" spans="3:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1005" s="4"/>
+    </row>
+    <row r="1006" spans="3:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1006" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
@@ -14080,7 +14409,7 @@
   <dimension ref="A1:H1005"/>
   <sheetViews>
     <sheetView topLeftCell="A43" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14132,7 +14461,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C3" s="40" t="s">
         <v>598</v>
@@ -14674,7 +15003,7 @@
     </row>
     <row r="49" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="50" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14684,31 +15013,31 @@
     </row>
     <row r="51" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="32" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="52" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="32" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>1186</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>1187</v>
       </c>
     </row>
     <row r="53" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="32" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="54" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="32" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="55" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14718,7 +15047,7 @@
     <row r="56" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="57" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14731,27 +15060,27 @@
     <row r="61" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="62" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="63" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="45" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="65" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="45" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="81" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="82" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="83" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15688,7 +16017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A69608-55D1-4FA2-B271-8B5154A5B681}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+    <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -15700,12 +16029,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
   </sheetData>
@@ -15718,8 +16047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15781,12 +16110,15 @@
         <v>506</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>507</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1217</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -18284,8 +18616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="B234" sqref="B234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/thongnd_everything_list.xlsx
+++ b/thongnd_everything_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\ドキュメント\GitHub\My_Everything_Lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979CBA2F-2C31-479C-90E2-84C65BC8B0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8C3129-EFED-4597-BDBA-9EC2C2DA3175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
   <definedNames>
     <definedName name="beverage">beverage!$A$1:$B$11</definedName>
     <definedName name="game">'7_game'!$A$1:$C$31</definedName>
-    <definedName name="list_film_to_watch">'1_todolist'!$A$47:$D$94</definedName>
+    <definedName name="list_film_to_watch">'1_todolist'!$A$46:$D$93</definedName>
     <definedName name="music_list">'6_music_list'!$A$1:$D$296</definedName>
     <definedName name="reading_list">'3_book_list'!$A$1:$F$21</definedName>
     <definedName name="software_list">'5_software_list'!$A$1:$C$51</definedName>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1818" uniqueCount="1220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1823" uniqueCount="1224">
   <si>
     <t>ID</t>
   </si>
@@ -3085,7 +3085,7 @@
     <rPh sb="20" eb="22">
       <t>キョジン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -3101,7 +3101,7 @@
       </rPr>
       <t>host in the Shell</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -3117,18 +3117,18 @@
       </rPr>
       <t>apanese books</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>料理</t>
     <rPh sb="0" eb="2">
       <t>リョウリ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>bò xào ớt chuông·</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -3168,7 +3168,7 @@
     <rPh sb="16" eb="17">
       <t>ワル</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -3184,7 +3184,7 @@
       </rPr>
       <t>rứng luộc (bỏ vào nồi cơm là xong)</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -3200,7 +3200,7 @@
       </rPr>
       <t>rứng chiên</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -3216,18 +3216,18 @@
       </rPr>
       <t>atto ăn với trứng</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>日本のカレー</t>
     <rPh sb="0" eb="2">
       <t>ニホン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>rau muống luộc</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -3243,31 +3243,31 @@
       </rPr>
       <t>ờn rim</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>May.2023</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>so I rewatched the movie without relizing it</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Berserk the anime 1998</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Kiki's Delivery Service</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>5.Jan.2022</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Stranger Things all season</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -3283,7 +3283,7 @@
       </rPr>
       <t>hinese anime??</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -3310,15 +3310,15 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>金田一少年の事件簿 (The Kindaichi Case Files)</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>one punch man</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -3332,39 +3332,39 @@
       </rPr>
       <t>逃げるは恥だが役に立つ</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>12 angry men</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>That German TV series</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>The Liar Games</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Wood Job</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Forget me not</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>2023.June.3</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Dung si Hesman??</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>https://voz.vn/t/nhung-bo-truyen-tranh-gan-lien-the-he-8x-9x.72983/page-8</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -3384,11 +3384,11 @@
     <rPh sb="11" eb="13">
       <t>マンガ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>One Piece</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>金田一。探偵。金田一少年の事件簿</t>
@@ -3407,27 +3407,27 @@
     <rPh sb="13" eb="16">
       <t>ジケンボ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Cuộc chiến sinh tử – Battle Royale</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>2023.June.4</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>キングダム漫画に基づいて</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>5.5/10</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>2023.June.10</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -3443,24 +3443,24 @@
       </rPr>
       <t>.5/10</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Rurouni.Kenshin.The.Final.2021
 Visual effect, and fighting scene</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t xml:space="preserve">1 litre of tears. </t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Elon Musk book.</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Deep Work: Rules for Focused Success in a Distracted World</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -3476,19 +3476,19 @@
       </rPr>
       <t>al Newport</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>2023.July.2</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>fullmetal alchemist brotherhood</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>9.2/10</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -3504,19 +3504,19 @@
       </rPr>
       <t>echnical</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Date</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>canh tôm bầu</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Richard Feyman book (sure you must be kidding Mr Feyman)</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -3532,19 +3532,19 @@
       </rPr>
       <t xml:space="preserve"> was gifted in my graduation</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>The Innovators: How a Group of Hackers, Geniuses, and Geeks Created the Digital Revolution</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Walter Isaacson</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>The_Subtle_Art_of_Not_Giving_a_Fuck</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -3570,35 +3570,35 @@
       </rPr>
       <t>3</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>17.Sep.2022</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>NAME</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>NOTE</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Real-Time Interfacing to ARM Cortex-M Microcontrollers</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>2018          </t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>2014   </t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Jonathan W. Valvano</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -3614,11 +3614,11 @@
       </rPr>
       <t>5%, dropped</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Rating</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>君の膵臓を食べたい（I want to eat your pancreas）</t>
@@ -3631,35 +3631,35 @@
     <rPh sb="5" eb="6">
       <t>タ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Kindaichi file cases</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>The book gifted as the 1st winner of class upgrade test Karate martial art course</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Koe no katachi (2023.09.02)</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>2.September.2023</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Tư duy làm việc của Toyota (masahiko hara)</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>it's recommended that You shoud read the book before watching this movie. It isnot because the movie is bad, but it's just not my taste</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>17.September.2023</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>プンプンお休み(ダークテマーなので、自分が好めない)</t>
@@ -3672,7 +3672,7 @@
     <rPh sb="21" eb="22">
       <t>コノ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -3701,7 +3701,7 @@
     <rPh sb="18" eb="20">
       <t>キギョウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -3727,19 +3727,19 @@
     <rPh sb="0" eb="2">
       <t>シタマチ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Rurouni.Kenshin.The.Beginning.2021</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>2023.October.2</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>8/10</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -3756,7 +3756,7 @@
       </rPr>
       <t>リットルの涙</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -3794,7 +3794,7 @@
       </rPr>
       <t>映画</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -3821,11 +3821,11 @@
       </rPr>
       <t>最終章</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Norwegian Wood</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -3858,23 +3858,23 @@
       </rPr>
       <t>最終章</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>My name is Barry Allen and I am the fastest man alive. Run, Barry Run</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Journey to the West</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>A space odyssey   </t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Mộ đom đóm</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -3890,83 +3890,83 @@
       </rPr>
       <t>火垂るの墓</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Tom Cruise</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>2014            </t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>2014      </t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>2016            </t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>2009    </t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>1985   </t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>1989   </t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>2016    </t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>2016      </t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>2004   </t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>2017    </t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>2017   </t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>2017 </t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>2004    </t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>1996   </t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>2004 </t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>2019    </t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>2018          </t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>1997 </t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -4018,40 +4018,40 @@
       </rPr>
       <t> thái lang </t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t xml:space="preserve">Lương Sơn Bá – Chúc Anh Đài </t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Hà Nhuận Đông
 Butterfly Lovers (2007 TV series)</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Các thể loại phim siêu nhân (Super Sentai)</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>1994    </t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>2004            </t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>2014    </t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>2015     </t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Jojo rabbit</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -4067,27 +4067,27 @@
       </rPr>
       <t>: rewatched second time. 7/10</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Oppenheimer (2023)</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Jujutsu kaisen 2022</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t xml:space="preserve">Drop midly, gave up </t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Dịu dàng sắc xuân - Mỹ Tâm </t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>bài này hồi trước ở KTX gần tết là có thằng méo nào ở một trong các phòng bên cạnh cứ bật làm buồn vch.</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -4114,7 +4114,7 @@
       </rPr>
       <t>ng buồn nhưng núi kia đau buồn hơn  </t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -4130,7 +4130,7 @@
       </rPr>
       <t>amen raider black sun</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -4146,11 +4146,11 @@
       </rPr>
       <t>023.December</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>7/10</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -4165,23 +4165,23 @@
       </rPr>
       <t>kigai</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Pearl Habour</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>7.5/10</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>2023.December</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>có con pet quái vật nhỏ màu xanh ấy mai fen</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -4201,31 +4201,15 @@
     <rPh sb="15" eb="17">
       <t>エイガ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>2024.01.28</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Sousou no Frieren</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>w</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">atching </t>
-    </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>私にとって面白そうだけど。凄く低く評価されているんだ</t>
@@ -4244,7 +4228,7 @@
     <rPh sb="17" eb="19">
       <t>ヒョウカ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -4269,7 +4253,7 @@
     <rPh sb="11" eb="13">
       <t>ジマク</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>お休みプンプン（漫画）</t>
@@ -4279,27 +4263,27 @@
     <rPh sb="8" eb="10">
       <t>マンガ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Japanese TV series for learning</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Koi wa Tsuzuku yo Doko Made mo (2020)</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>kaibutsu 2023</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Gojira -1.0</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>như lã sinh môn, seven samurai, tokyo story</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -4315,15 +4299,15 @@
       </rPr>
       <t>hey said the theme is very similar to Predestination. "you get in the past in order to change events that already had happened, you just gonna end up causing them."</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>rewatch 6-Jun21. like second time</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>phim nhàn, chỉ là kể về một ông rất theo tôn giáo, nhưng tính toán nhanh, biết nhiều chuỗi, cuộc đời. Ko hay</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -4350,65 +4334,65 @@
     <rPh sb="4" eb="5">
       <t>ミ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Anaconda</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Phim mãng xà ăn thịt người, trước thường được chiếu trên kênh HBO?</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Forrest Gump</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>2009    </t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>2014       </t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t xml:space="preserve">Not finished. Started around 2011, July. 
 Finished 2024.01.28
 37 episodes series </t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Death Note</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Upcoming/New Release</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Vietnamese animated horror movie</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Những câu chuyện tình </t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Chuyến tàu định mệnh  </t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>The wolf of wall street</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Alita: Battle Angle</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Children of Men  </t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -4436,15 +4420,15 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>OLD MOVIES LIST</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>The Invisible Guest/Contratiempo</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -4460,35 +4444,35 @@
       </rPr>
       <t xml:space="preserve"> was about to rewatch it in 2024</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>7/10   </t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Butterfly Effect</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Edge of Tomorrow</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>The Forbidden Kingdom</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Deadpool     </t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Get Out</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Get Out (2017)</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -4504,15 +4488,15 @@
       </rPr>
       <t>lack man</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>HunterxHunter</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Steins;Gate</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -4538,7 +4522,7 @@
       </rPr>
       <t>2024</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -4558,12 +4542,12 @@
     <rPh sb="3" eb="5">
       <t>ダンゴ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Đắc nhân tâm. 
 How to win friends and influence people</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -4598,7 +4582,7 @@
     <rPh sb="3" eb="7">
       <t>モンダイカイケツ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -4623,19 +4607,19 @@
       </rPr>
       <t>utliers</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>The Psychology of Money</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Around 2023.December</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Update Date</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -4701,7 +4685,7 @@
       </rPr>
       <t>Godzilla x Kong: The New Empire</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -4717,7 +4701,7 @@
       </rPr>
       <t>024.02.13</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -4734,20 +4718,20 @@
       </rPr>
       <t xml:space="preserve"> -&gt; watched</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t xml:space="preserve">Doctor Strange In The Multiverse Of Madness (2022) </t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t xml:space="preserve">Feel like I just have watched enough super hero movie </t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Không hiểu gì luôn ấy, chỉ thấy nó ảo ảo.
 Need rewatch later</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -4798,27 +4782,27 @@
     <rPh sb="66" eb="68">
       <t>ベンキョウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>super mario brothers</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Atomic Habits</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Just keep buying</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>TECHNICAL BOOKS</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>LANGUAGE LEARNING BOOKS</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -4834,7 +4818,7 @@
       </rPr>
       <t>024.March, reading</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -4850,13 +4834,13 @@
       </rPr>
       <t>eading</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>watching since 2024.Jan
 2024.02.23: epidosde 23
 Finished 28 episodes: 2024.03.26</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -4872,11 +4856,11 @@
       </rPr>
       <t xml:space="preserve"> Midnight diner SS01</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Akira</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -4892,7 +4876,7 @@
       </rPr>
       <t>024.April.01</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>意味が分からん。</t>
@@ -4902,12 +4886,12 @@
     <rPh sb="3" eb="4">
       <t>ワ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>How to write my review for books and movies?? Maybe I will just upload to Github or something…
 Or write Wordpress post</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -4923,7 +4907,7 @@
       </rPr>
       <t>024.04.01</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -4939,7 +4923,7 @@
       </rPr>
       <t>vatar 2</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -4955,19 +4939,19 @@
       </rPr>
       <t>uite low ranking</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t xml:space="preserve">Avatar </t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Watched it when I was a little kid. Updated 2024.04.01</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Avatar: The Last Airbender</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -4983,7 +4967,7 @@
       </rPr>
       <t>t the first days when I moved to HN</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -5009,7 +4993,7 @@
       </rPr>
       <t>2021</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -5025,7 +5009,7 @@
       </rPr>
       <t>.8/10</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -5161,26 +5145,85 @@
       </rPr>
       <t>u</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>2024.05.18</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Finished season 1. I was expecting more from such high-rated series</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>映画ドラえもん</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>のび太と空の理想郷</t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Doraemon: Nobita's Sky Utopia</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>watching . I think I have finished first season</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>2024.06.01</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>6/10</t>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5419,117 +5462,117 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="56" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="56" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5748,10 +5791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1029"/>
+  <dimension ref="A1:D1028"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5764,148 +5807,145 @@
   <sheetData>
     <row r="1" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="45" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="2" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="30" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" ht="64.5" x14ac:dyDescent="0.25">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="24" t="s">
-        <v>1181</v>
-      </c>
-      <c r="C3" s="46" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="24" t="s">
-        <v>1178</v>
-      </c>
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="8"/>
     </row>
     <row r="6" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
+      <c r="B6" s="11" t="s">
+        <v>1079</v>
+      </c>
     </row>
     <row r="7" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="11" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>1078</v>
       </c>
     </row>
+    <row r="8" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="13"/>
+    </row>
     <row r="9" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="13"/>
+      <c r="B9" s="11" t="s">
+        <v>1004</v>
+      </c>
     </row>
     <row r="10" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="11" t="s">
-        <v>1004</v>
+      <c r="B10" s="6" t="s">
+        <v>1037</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
-        <v>1037</v>
+      <c r="B11" s="1" t="s">
+        <v>1028</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="22" t="s">
+      <c r="B12" s="22" t="s">
         <v>1077</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
     <row r="15" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>39</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>1018</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>1026</v>
-      </c>
+      <c r="B19" s="1"/>
     </row>
     <row r="20" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>1027</v>
+      </c>
     </row>
     <row r="21" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>1030</v>
+      <c r="B23" s="6" t="s">
+        <v>1189</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
-        <v>1190</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="1" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="6" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="6" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="8" t="s">
         <v>1142</v>
       </c>
     </row>
-    <row r="26" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="6" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="6" t="s">
-        <v>1188</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
-    </row>
     <row r="31" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="1" t="s">
         <v>1143</v>
       </c>
     </row>
@@ -5920,42 +5960,40 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="8"/>
+      <c r="B34" s="8"/>
+    </row>
+    <row r="35" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="39" t="s">
+        <v>1158</v>
+      </c>
     </row>
     <row r="36" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="39" t="s">
-        <v>1159</v>
+      <c r="B36" s="1" t="s">
+        <v>1123</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>1123</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="1" t="s">
-        <v>49</v>
+      <c r="B39" t="s">
+        <v>1002</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>1195</v>
-      </c>
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="8"/>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="8"/>
@@ -5967,327 +6005,333 @@
       <c r="B44" s="8"/>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="8"/>
-    </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="45" t="s">
-        <v>1167</v>
+      <c r="B45" s="45" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>0</v>
+      <c r="A47" s="1">
+        <v>1</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>1</v>
+        <f t="shared" ref="A48:A50" si="0">A47+1</f>
+        <v>2</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <f t="shared" ref="A49:A51" si="0">A48+1</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
       <c r="B51" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
-        <v>15</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
-        <v>1176</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B66" s="2" t="s">
+    <row r="65" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B65" s="2" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="67" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="68" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="74" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="75" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="B75" s="1"/>
     </row>
     <row r="76" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
     </row>
-    <row r="77" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="1"/>
-    </row>
-    <row r="78" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
     <row r="79" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="3" t="s">
-        <v>40</v>
+      <c r="B79" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="80" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="81" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="B81" s="1"/>
     </row>
     <row r="82" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="1"/>
+      <c r="B82" s="3" t="s">
+        <v>1124</v>
+      </c>
     </row>
     <row r="83" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="3" t="s">
-        <v>1124</v>
+      <c r="B83" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="84" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="85" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="86" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="87" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
-        <v>47</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="88" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="1" t="s">
-        <v>1003</v>
+      <c r="B88" s="6" t="s">
+        <v>1024</v>
       </c>
     </row>
     <row r="89" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="6" t="s">
-        <v>1024</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="90" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="6" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="91" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="6" t="s">
         <v>1122</v>
       </c>
     </row>
+    <row r="92" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B92" s="37" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C92" s="38" t="s">
+        <v>1139</v>
+      </c>
+    </row>
     <row r="93" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B93" s="37" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C93" s="38" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="94" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B93" s="6" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="6" t="s">
-        <v>1191</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>1192</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="95" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="6" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="96" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1036</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="6" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="6" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="B97" s="24" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C97" s="46" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="113" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="114" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="115" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7204,9 +7248,8 @@
     <row r="1026" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1027" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1028" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1029" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7216,8 +7259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A313" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="A324" sqref="A324"/>
+    <sheetView tabSelected="1" topLeftCell="A313" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B326" sqref="B326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7441,7 +7484,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C15" s="4"/>
       <c r="F15" s="1" t="s">
@@ -7630,7 +7673,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C29" s="4"/>
       <c r="F29" s="1" t="s">
@@ -7646,7 +7689,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C30" s="4">
         <v>2008</v>
@@ -7800,7 +7843,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="19">
@@ -8399,7 +8442,7 @@
         <v>42838</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>55</v>
@@ -8494,15 +8537,15 @@
     </row>
     <row r="77" spans="1:7" s="33" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="33" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C77" s="47">
+        <v>2009</v>
+      </c>
+      <c r="D77" s="34"/>
+      <c r="E77" s="48"/>
+      <c r="G77" s="33" t="s">
         <v>1211</v>
-      </c>
-      <c r="C77" s="48">
-        <v>2009</v>
-      </c>
-      <c r="D77" s="34"/>
-      <c r="E77" s="49"/>
-      <c r="G77" s="33" t="s">
-        <v>1212</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9031,7 +9074,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>214</v>
@@ -9043,7 +9086,7 @@
         <v>55</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9091,7 +9134,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C106" s="4">
         <v>2006</v>
@@ -9174,7 +9217,7 @@
         <v>55</v>
       </c>
       <c r="G110" s="44" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9213,7 +9256,7 @@
         <v>55</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9255,7 +9298,7 @@
         <v>55</v>
       </c>
       <c r="G114" s="12" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9315,7 +9358,7 @@
         <v>55</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9459,7 +9502,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>1109</v>
@@ -9552,7 +9595,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>1111</v>
@@ -9561,7 +9604,7 @@
         <v>55</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9601,7 +9644,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C133" s="4"/>
       <c r="F133" s="1" t="s">
@@ -9863,7 +9906,7 @@
         <v>150</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C152" s="4"/>
       <c r="F152" s="1" t="s">
@@ -9876,7 +9919,7 @@
         <v>151</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C153" s="4"/>
       <c r="F153" s="1" t="s">
@@ -9896,7 +9939,7 @@
         <v>252</v>
       </c>
       <c r="G154" s="12" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9905,7 +9948,7 @@
         <v>153</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C155" s="4"/>
       <c r="F155" s="1" t="s">
@@ -10361,7 +10404,7 @@
         <v>311</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="D189" s="19">
         <v>42797</v>
@@ -10551,7 +10594,7 @@
         <v>335</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="D203" s="19">
         <v>42925</v>
@@ -11190,14 +11233,14 @@
         <v>243</v>
       </c>
       <c r="B245" s="30" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C245" s="4"/>
       <c r="D245" s="29" t="s">
         <v>1137</v>
       </c>
       <c r="G245" s="12" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="246" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -11236,7 +11279,7 @@
       </c>
       <c r="C248" s="4"/>
       <c r="G248" s="1" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="249" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -11790,17 +11833,17 @@
     <row r="291" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
       <c r="B291" s="8" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C291" s="4"/>
       <c r="D291" s="29" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E291" s="17" t="s">
         <v>1215</v>
       </c>
-      <c r="E291" s="17" t="s">
-        <v>1216</v>
-      </c>
       <c r="G291" s="1" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="292" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12002,7 +12045,7 @@
         <v>300</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C304" s="4">
         <v>2017</v>
@@ -12014,7 +12057,7 @@
         <v>6.5</v>
       </c>
       <c r="G304" s="1" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="305" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12304,7 +12347,7 @@
         <v>1082</v>
       </c>
       <c r="G321" s="12" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="322" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12312,16 +12355,16 @@
         <v>318</v>
       </c>
       <c r="B322" s="24" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C322" s="4">
         <v>1988</v>
       </c>
       <c r="D322" s="29" t="s">
+        <v>1204</v>
+      </c>
+      <c r="G322" s="6" t="s">
         <v>1205</v>
-      </c>
-      <c r="G322" s="6" t="s">
-        <v>1206</v>
       </c>
     </row>
     <row r="323" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12329,36 +12372,45 @@
         <v>319</v>
       </c>
       <c r="B323" s="24" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C323" s="4"/>
       <c r="D323" s="29" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E323" s="18" t="s">
         <v>1130</v>
       </c>
       <c r="G323" s="1" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="324" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B324" s="25" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C324" s="4"/>
-      <c r="E324" s="47">
-        <v>45453</v>
+      <c r="E324" s="49" t="s">
+        <v>1223</v>
       </c>
       <c r="G324" s="1" t="s">
-        <v>1139</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="325" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B325" s="25"/>
+      <c r="B325" s="25" t="s">
+        <v>1220</v>
+      </c>
       <c r="C325" s="4"/>
-      <c r="E325" s="47"/>
-      <c r="G325" s="1"/>
+      <c r="D325" s="29" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E325" s="49" t="s">
+        <v>1223</v>
+      </c>
+      <c r="G325" s="1" t="s">
+        <v>1219</v>
+      </c>
     </row>
     <row r="328" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C328" s="4"/>
@@ -14398,7 +14450,7 @@
       <c r="C1006" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -14461,7 +14513,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C3" s="40" t="s">
         <v>598</v>
@@ -15003,7 +15055,7 @@
     </row>
     <row r="49" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="50" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15013,31 +15065,31 @@
     </row>
     <row r="51" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="32" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="52" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="32" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>1185</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>1186</v>
       </c>
     </row>
     <row r="53" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="32" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="54" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="32" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="55" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15047,7 +15099,7 @@
     <row r="56" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="57" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15063,7 +15115,7 @@
     <row r="64" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="45" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="66" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16007,7 +16059,7 @@
     <row r="1004" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1005" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -16029,16 +16081,16 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -16118,7 +16170,7 @@
         <v>507</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -17145,7 +17197,7 @@
     <row r="999" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <hyperlinks>
     <hyperlink ref="C12" r:id="rId1" xr:uid="{8DFD70AE-4E7A-46B7-82AE-2EB95D46AF49}"/>
   </hyperlinks>
@@ -18606,7 +18658,7 @@
     <row r="999" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -22626,7 +22678,7 @@
     <row r="999" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -23953,7 +24005,7 @@
     <row r="999" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -25095,7 +25147,7 @@
     <row r="1001" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1002" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>

--- a/thongnd_everything_list.xlsx
+++ b/thongnd_everything_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\ドキュメント\GitHub\My_Everything_Lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4B1B86-9A1E-4D8E-A463-283D911EC383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2458018F-97FF-4693-BD4C-D748F3BF18A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1_todolist" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
   <definedNames>
     <definedName name="beverage">beverage!$A$1:$B$11</definedName>
     <definedName name="game">'7_game'!$A$1:$C$31</definedName>
-    <definedName name="list_film_to_watch">'1_todolist'!$A$43:$D$92</definedName>
+    <definedName name="list_film_to_watch">'1_todolist'!$A$59:$D$108</definedName>
     <definedName name="music_list">'6_music_list'!$A$1:$D$296</definedName>
     <definedName name="reading_list">'3_book_list'!$A$1:$F$21</definedName>
     <definedName name="software_list">'5_software_list'!$A$1:$C$51</definedName>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="1231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1854" uniqueCount="1253">
   <si>
     <t>ID</t>
   </si>
@@ -3365,10 +3365,6 @@
     <rPh sb="13" eb="16">
       <t>ジケンボ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Cuộc chiến sinh tử – Battle Royale</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
@@ -4129,25 +4125,6 @@
   </si>
   <si>
     <t>Sousou no Frieren</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>私にとって面白そうだけど。凄く低く評価されているんだ</t>
-    <rPh sb="0" eb="1">
-      <t>ワタシ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>オモシロ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>スゴ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ヒク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒョウカ</t>
-    </rPh>
     <phoneticPr fontId="5"/>
   </si>
   <si>
@@ -5267,7 +5244,167 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>7.5/10</t>
+    <t>Steins Gate 0 (another series of Steins Gate)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>保留中</t>
+    <rPh sb="0" eb="3">
+      <t>ホリュウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>新世紀エヴァンゲリオン</t>
+    <rPh sb="0" eb="3">
+      <t>シンセイキ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>小林さんちのメイドラゴン</t>
+    <rPh sb="0" eb="2">
+      <t>コバヤシ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>涼宮ハルヒの消失 (映画)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>視聴中</t>
+    <rPh sb="0" eb="3">
+      <t>シチョウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>https://myanimelist.net/anime/producer/2/Kyoto_Animation</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>探し方</t>
+    <rPh sb="0" eb="1">
+      <t>サガ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>私にとって面白そうだけど。凄く低く評価されているんだ。
+評判されているので、見る気が亡くなったわ</t>
+    <rPh sb="0" eb="1">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>オモシロ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>スゴ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヒク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウバン</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>https://www.anikore.jp/tag/%E5%AE%B6%E6%97%8F/</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>https://filmarks.com/list-drama/genre/17</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>TECHNICAL - HCMUT</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>SIMATIC WinCC comfort_Advanced V13-038</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>SIMATIC STEP7 V13 PLCSIM-016</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Tia Portal V13</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Automation and PLC related software</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>KEPServerEX-6.2.460.0</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>LabVIEW</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>The Big Short 2015</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>2024.08.11</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>2024.08.12</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>見始まったのは数か月前だが、今日は完了させた。</t>
+    <rPh sb="0" eb="2">
+      <t>ミハジ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Cuộc chiến sinh tử – Battle Royale</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>7.8/10</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>shougun.</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -5275,7 +5412,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5494,6 +5631,20 @@
       <family val="3"/>
       <charset val="163"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -5528,7 +5679,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5607,9 +5758,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5639,6 +5787,12 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -5855,10 +6009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1027"/>
+  <dimension ref="A1:D1043"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5870,538 +6024,588 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="45" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="50" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="22" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="49" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="49" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="49"/>
+    </row>
+    <row r="8" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="44" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="30" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="24" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="49" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="24"/>
+    </row>
+    <row r="13" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="24"/>
+    </row>
+    <row r="14" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="49" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="10" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="10" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="10"/>
+    </row>
+    <row r="19" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="10"/>
+    </row>
+    <row r="20" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="50" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="11" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="13"/>
+    </row>
+    <row r="25" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="11" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="22" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="6" t="s">
         <v>1170</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="30" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="24" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="8"/>
-    </row>
-    <row r="6" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="13"/>
-    </row>
-    <row r="9" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="11" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="22" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="6" t="s">
-        <v>1172</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="6" t="s">
+    <row r="40" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="6" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="6" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="6" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="8" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
         <v>1126</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="6" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="6" t="s">
-        <v>1229</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="8" t="s">
+    <row r="48" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
         <v>1127</v>
       </c>
     </row>
-    <row r="31" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="8"/>
-    </row>
-    <row r="35" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="39" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
+    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="8"/>
+    </row>
+    <row r="51" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="38" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="1" t="s">
+    <row r="54" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+    <row r="55" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="8"/>
-    </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="45" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+    <row r="56" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="8"/>
+    </row>
+    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="44" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
         <v>1</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <f t="shared" ref="A45:A47" si="0">A44+1</f>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <f t="shared" ref="A61:A63" si="0">A60+1</f>
         <v>2</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="1" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="1" t="s">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="1" t="s">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="1" t="s">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="1" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="1" t="s">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B70" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="1" t="s">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B71" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="1" t="s">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B72" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="1" t="s">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B73" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="1" t="s">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B74" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="1" t="s">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B75" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="1" t="s">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B76" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="1" t="s">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B77" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B62" s="2" t="s">
+    <row r="78" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B78" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="1" t="s">
+    <row r="79" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="1" t="s">
+    <row r="80" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="1" t="s">
+    <row r="81" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="1" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="1"/>
-    </row>
-    <row r="73" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="1"/>
-    </row>
-    <row r="74" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="3" t="s">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="76" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="77" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="78" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="79" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="3" t="s">
-        <v>1109</v>
       </c>
     </row>
     <row r="82" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="1"/>
+    </row>
+    <row r="89" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="1"/>
+    </row>
+    <row r="90" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="3" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="3" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="1" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="87" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="6" t="s">
+    <row r="103" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="6" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="88" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="6" t="s">
+    <row r="104" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="6" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="89" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="6" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="91" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B91" s="37" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C91" s="38" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="92" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B92" s="6" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C92" s="5" t="s">
+    <row r="105" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="6" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" ht="55.5" x14ac:dyDescent="0.25">
+      <c r="B107" s="37" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C107" s="51" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B108" s="6" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="6" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="6" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="6" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="B112" s="24" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C112" s="45" t="s">
         <v>1174</v>
       </c>
     </row>
-    <row r="93" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="6" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="94" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="6" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="95" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="6" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="96" spans="2:3" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="B96" s="24" t="s">
-        <v>1164</v>
-      </c>
-      <c r="C96" s="46" t="s">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="1" t="s">
+    <row r="113" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="1" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="98" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="129" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="130" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="131" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7301,10 +7505,31 @@
     <row r="1025" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1026" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1027" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1028" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1029" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1030" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1031" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1032" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1033" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1034" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1035" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1036" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1037" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1038" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1039" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1040" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1041" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1042" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1043" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="5"/>
+  <hyperlinks>
+    <hyperlink ref="B15" r:id="rId1" xr:uid="{84274C41-67A4-4C42-A214-2B8352868740}"/>
+    <hyperlink ref="B16" r:id="rId2" xr:uid="{EC16E6DB-BF4A-4A9B-93C6-121FD5F6D83E}"/>
+    <hyperlink ref="B17" r:id="rId3" xr:uid="{FF4AF8CB-4606-4702-B590-B95074E1C7F2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -7312,7 +7537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A316" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A313" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E327" sqref="E327"/>
     </sheetView>
   </sheetViews>
@@ -7359,7 +7584,7 @@
         <v>53</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>54</v>
@@ -7469,7 +7694,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="C11" s="4"/>
       <c r="F11" s="1" t="s">
@@ -7511,7 +7736,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="C14" s="4"/>
       <c r="F14" s="1" t="s">
@@ -7523,7 +7748,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="C15" s="4"/>
       <c r="F15" s="1" t="s">
@@ -7550,7 +7775,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="C17" s="4"/>
       <c r="F17" s="1" t="s">
@@ -7698,14 +7923,14 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="C29" s="4"/>
       <c r="F29" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -7713,7 +7938,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="C30" s="4">
         <v>2008</v>
@@ -7856,7 +8081,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="19">
@@ -7874,7 +8099,7 @@
         <v>95</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D42" s="19">
         <v>42499</v>
@@ -7933,7 +8158,7 @@
         <v>99</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>54</v>
@@ -7947,7 +8172,7 @@
         <v>100</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>54</v>
@@ -7961,7 +8186,7 @@
         <v>101</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="E48" s="17" t="s">
         <v>102</v>
@@ -8029,7 +8254,7 @@
         <v>109</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D52" s="19">
         <v>42468</v>
@@ -8049,7 +8274,7 @@
         <v>111</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D53" s="19">
         <v>42498</v>
@@ -8069,7 +8294,7 @@
         <v>113</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="D54" s="19">
         <v>42529</v>
@@ -8132,7 +8357,7 @@
         <v>119</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="D57" s="19">
         <v>42712</v>
@@ -8155,7 +8380,7 @@
         <v>122</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="D58" s="19">
         <v>42605</v>
@@ -8172,7 +8397,7 @@
         <v>123</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="D59" s="19">
         <v>42560</v>
@@ -8215,7 +8440,7 @@
         <v>128</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="D61" s="19">
         <v>42665</v>
@@ -8280,7 +8505,7 @@
         <v>134</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="D65" s="19">
         <v>42756</v>
@@ -8318,7 +8543,7 @@
         <v>138</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="D67" s="19">
         <v>42757</v>
@@ -8418,13 +8643,13 @@
         <v>147</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="D72" s="19">
         <v>42838</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>54</v>
@@ -8438,7 +8663,7 @@
         <v>148</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="D73" s="19">
         <v>42963</v>
@@ -8461,7 +8686,7 @@
         <v>151</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="D74" s="19">
         <v>42980</v>
@@ -8481,7 +8706,7 @@
         <v>153</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="D75" s="19">
         <v>43007</v>
@@ -8501,7 +8726,7 @@
         <v>155</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="D76" s="19">
         <v>43019</v>
@@ -8515,15 +8740,15 @@
     </row>
     <row r="77" spans="1:7" s="33" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="33" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C77" s="47">
+        <v>1190</v>
+      </c>
+      <c r="C77" s="46">
         <v>2009</v>
       </c>
       <c r="D77" s="34"/>
-      <c r="E77" s="48"/>
+      <c r="E77" s="47"/>
       <c r="G77" s="33" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -8644,7 +8869,7 @@
         <v>54</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -8656,7 +8881,7 @@
         <v>166</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="D84" s="19">
         <v>43092</v>
@@ -9052,7 +9277,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>210</v>
@@ -9064,7 +9289,7 @@
         <v>54</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9112,7 +9337,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="C106" s="4">
         <v>2006</v>
@@ -9176,26 +9401,26 @@
         <v>54</v>
       </c>
     </row>
-    <row r="110" spans="1:7" s="41" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A110" s="40">
+    <row r="110" spans="1:7" s="40" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A110" s="39">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
-      <c r="B110" s="41" t="s">
+      <c r="B110" s="40" t="s">
         <v>221</v>
       </c>
-      <c r="C110" s="42">
+      <c r="C110" s="41">
         <v>1995</v>
       </c>
       <c r="D110" s="19">
         <v>43310</v>
       </c>
-      <c r="E110" s="43"/>
-      <c r="F110" s="40" t="s">
+      <c r="E110" s="42"/>
+      <c r="F110" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="G110" s="44" t="s">
-        <v>1131</v>
+      <c r="G110" s="43" t="s">
+        <v>1129</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9207,7 +9432,7 @@
         <v>222</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="D111" s="19">
         <v>43319</v>
@@ -9225,7 +9450,7 @@
         <v>223</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="D112" s="19">
         <v>43327</v>
@@ -9234,7 +9459,7 @@
         <v>54</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9246,7 +9471,7 @@
         <v>224</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="D113" s="19">
         <v>43346</v>
@@ -9264,7 +9489,7 @@
         <v>225</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="D114" s="19">
         <v>43353</v>
@@ -9276,7 +9501,7 @@
         <v>54</v>
       </c>
       <c r="G114" s="12" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9288,7 +9513,7 @@
         <v>227</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="D115" s="19">
         <v>43373</v>
@@ -9306,7 +9531,7 @@
         <v>228</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="D116" s="19">
         <v>43375</v>
@@ -9336,7 +9561,7 @@
         <v>54</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9465,7 +9690,7 @@
         <v>240</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="D124" s="19">
         <v>43470</v>
@@ -9480,10 +9705,10 @@
         <v>123</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="D125" s="19">
         <v>43513</v>
@@ -9522,7 +9747,7 @@
         <v>243</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="D127" s="19">
         <v>43582</v>
@@ -9540,7 +9765,7 @@
         <v>244</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="D128" s="19">
         <v>43590</v>
@@ -9558,7 +9783,7 @@
         <v>245</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="D129" s="19">
         <v>43617</v>
@@ -9573,16 +9798,16 @@
         <v>128</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9622,7 +9847,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="C133" s="4"/>
       <c r="F133" s="1" t="s">
@@ -9854,7 +10079,7 @@
         <v>148</v>
       </c>
       <c r="B150" s="24" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C150" s="23"/>
       <c r="D150" s="20"/>
@@ -9862,7 +10087,7 @@
         <v>248</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9871,7 +10096,7 @@
         <v>149</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C151" s="4"/>
       <c r="F151" s="1" t="s">
@@ -9884,7 +10109,7 @@
         <v>150</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="C152" s="4"/>
       <c r="F152" s="1" t="s">
@@ -9897,7 +10122,7 @@
         <v>151</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="C153" s="4"/>
       <c r="F153" s="1" t="s">
@@ -9917,7 +10142,7 @@
         <v>248</v>
       </c>
       <c r="G154" s="12" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9926,7 +10151,7 @@
         <v>153</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="C155" s="4"/>
       <c r="F155" s="1" t="s">
@@ -10382,7 +10607,7 @@
         <v>307</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="D189" s="19">
         <v>42797</v>
@@ -10572,7 +10797,7 @@
         <v>331</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="D203" s="19">
         <v>42925</v>
@@ -10584,7 +10809,7 @@
         <v>332</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="204" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -10600,7 +10825,7 @@
         <v>334</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -10886,7 +11111,7 @@
         <v>222</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C224" s="4"/>
       <c r="F224" s="1" t="s">
@@ -11124,7 +11349,7 @@
         <v>238</v>
       </c>
       <c r="B240" s="24" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="C240" s="23">
         <v>1997</v>
@@ -11211,14 +11436,14 @@
         <v>243</v>
       </c>
       <c r="B245" s="30" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="C245" s="4"/>
       <c r="D245" s="29" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="G245" s="12" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="246" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -11234,7 +11459,7 @@
         <v>370</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="247" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -11257,7 +11482,7 @@
       </c>
       <c r="C248" s="4"/>
       <c r="G248" s="1" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="249" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -11391,7 +11616,7 @@
         <v>258</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C260" s="4"/>
       <c r="D260" s="19">
@@ -11465,13 +11690,13 @@
         <v>263</v>
       </c>
       <c r="B265" s="8" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C265" s="4">
         <v>2007</v>
       </c>
       <c r="G265" s="12" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="266" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -11575,7 +11800,7 @@
         <v>271</v>
       </c>
       <c r="B273" s="24" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="C273" s="23"/>
       <c r="D273" s="20"/>
@@ -11662,7 +11887,7 @@
         <v>2008</v>
       </c>
       <c r="G280" s="1" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="281" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -11811,17 +12036,17 @@
     <row r="291" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
       <c r="B291" s="8" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="C291" s="4"/>
       <c r="D291" s="29" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="E291" s="17" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="G291" s="1" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="292" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -11830,7 +12055,7 @@
         <v>289</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="C292" s="4">
         <v>2021</v>
@@ -11864,7 +12089,7 @@
         <v>291</v>
       </c>
       <c r="B294" s="30" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="C294" s="23"/>
       <c r="D294" s="20"/>
@@ -11875,7 +12100,7 @@
         <v>292</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="C295" s="4">
         <v>2022</v>
@@ -11930,7 +12155,7 @@
         <v>295</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C298" s="4"/>
     </row>
@@ -11994,7 +12219,7 @@
         <v>298</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="C302" s="4">
         <v>2022</v>
@@ -12023,7 +12248,7 @@
         <v>300</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="C304" s="4">
         <v>2017</v>
@@ -12035,7 +12260,7 @@
         <v>6.5</v>
       </c>
       <c r="G304" s="1" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="305" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12043,7 +12268,7 @@
         <v>301</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="C305" s="4">
         <v>2022</v>
@@ -12083,7 +12308,7 @@
         <v>303</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="C307" s="4">
         <v>2001</v>
@@ -12103,13 +12328,13 @@
         <v>304</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="C308" s="4">
         <v>2022</v>
       </c>
       <c r="D308" s="29" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="E308" s="16">
         <v>7.6</v>
@@ -12120,7 +12345,7 @@
         <v>305</v>
       </c>
       <c r="B309" s="30" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="C309" s="4">
         <v>2023</v>
@@ -12149,14 +12374,14 @@
         <v>307</v>
       </c>
       <c r="B311" s="24" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C311" s="28"/>
       <c r="D311" s="21" t="s">
         <v>1017</v>
       </c>
       <c r="G311" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
@@ -12164,17 +12389,17 @@
         <v>308</v>
       </c>
       <c r="B312" s="24" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="C312" s="28"/>
       <c r="D312" s="21" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E312" s="18" t="s">
+        <v>1025</v>
+      </c>
+      <c r="G312" s="6" t="s">
         <v>1024</v>
-      </c>
-      <c r="E312" s="18" t="s">
-        <v>1026</v>
-      </c>
-      <c r="G312" s="6" t="s">
-        <v>1025</v>
       </c>
     </row>
     <row r="313" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -12182,19 +12407,19 @@
         <v>309</v>
       </c>
       <c r="B313" s="25" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C313" s="28">
         <v>2021</v>
       </c>
       <c r="D313" s="21" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E313" s="17" t="s">
         <v>1027</v>
       </c>
-      <c r="E313" s="17" t="s">
+      <c r="G313" s="12" t="s">
         <v>1028</v>
-      </c>
-      <c r="G313" s="12" t="s">
-        <v>1029</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
@@ -12202,14 +12427,14 @@
         <v>310</v>
       </c>
       <c r="B314" s="30" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C314" s="28"/>
       <c r="D314" s="21" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="E314" s="17" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="315" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -12217,17 +12442,17 @@
         <v>311</v>
       </c>
       <c r="B315" s="24" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C315" s="28"/>
       <c r="D315" s="21" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="E315" s="16">
         <v>5</v>
       </c>
       <c r="G315" s="12" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
@@ -12235,11 +12460,11 @@
         <v>312</v>
       </c>
       <c r="B316" s="24" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C316" s="28"/>
       <c r="D316" s="21" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="E316" s="16">
         <v>7</v>
@@ -12250,11 +12475,11 @@
         <v>313</v>
       </c>
       <c r="B317" s="26" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C317" s="28"/>
       <c r="D317" s="21" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
@@ -12262,19 +12487,19 @@
         <v>314</v>
       </c>
       <c r="B318" s="25" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C318" s="28">
         <v>2021</v>
       </c>
       <c r="D318" s="21" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E318" s="18" t="s">
         <v>1067</v>
       </c>
-      <c r="E318" s="18" t="s">
-        <v>1068</v>
-      </c>
       <c r="G318" s="12" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="319" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -12282,16 +12507,16 @@
         <v>315</v>
       </c>
       <c r="B319" s="33" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C319" s="34">
         <v>2001</v>
       </c>
       <c r="D319" s="34" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="E319" s="35" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="G319" s="36"/>
     </row>
@@ -12300,14 +12525,14 @@
         <v>316</v>
       </c>
       <c r="B320" s="25" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="C320" s="4"/>
       <c r="D320" s="29" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E320" s="18" t="s">
         <v>1114</v>
-      </c>
-      <c r="E320" s="18" t="s">
-        <v>1115</v>
       </c>
     </row>
     <row r="321" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -12315,17 +12540,17 @@
         <v>317</v>
       </c>
       <c r="B321" s="25" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C321" s="4"/>
       <c r="D321" s="29" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="E321" s="18" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="G321" s="12" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="322" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12333,16 +12558,16 @@
         <v>318</v>
       </c>
       <c r="B322" s="24" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="C322" s="4">
         <v>1988</v>
       </c>
       <c r="D322" s="29" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="G322" s="6" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="323" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12350,17 +12575,17 @@
         <v>319</v>
       </c>
       <c r="B323" s="24" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="C323" s="4"/>
       <c r="D323" s="29" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="E323" s="18" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="G323" s="1" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="324" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12368,14 +12593,14 @@
         <v>320</v>
       </c>
       <c r="B324" s="25" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="C324" s="4"/>
-      <c r="E324" s="49" t="s">
-        <v>1205</v>
+      <c r="E324" s="48" t="s">
+        <v>1203</v>
       </c>
       <c r="G324" s="1" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="325" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12383,17 +12608,17 @@
         <v>321</v>
       </c>
       <c r="B325" s="25" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="C325" s="4"/>
       <c r="D325" s="29" t="s">
-        <v>1204</v>
-      </c>
-      <c r="E325" s="49" t="s">
-        <v>1205</v>
+        <v>1202</v>
+      </c>
+      <c r="E325" s="48" t="s">
+        <v>1203</v>
       </c>
       <c r="G325" s="1" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="326" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12401,17 +12626,17 @@
         <v>322</v>
       </c>
       <c r="B326" s="25" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="C326" s="4"/>
       <c r="D326" s="29" t="s">
-        <v>1222</v>
-      </c>
-      <c r="E326" s="49" t="s">
-        <v>1230</v>
+        <v>1220</v>
+      </c>
+      <c r="E326" s="48" t="s">
+        <v>1251</v>
       </c>
       <c r="G326" s="1" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="327" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12419,20 +12644,54 @@
         <v>323</v>
       </c>
       <c r="B327" s="25" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="D327" s="29" t="s">
-        <v>1221</v>
-      </c>
-      <c r="E327" s="49" t="s">
-        <v>1227</v>
+        <v>1219</v>
+      </c>
+      <c r="E327" s="48" t="s">
+        <v>1225</v>
       </c>
       <c r="G327" s="1" t="s">
-        <v>1225</v>
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A328" s="1">
+        <v>324</v>
+      </c>
+      <c r="B328" s="52" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C328" s="4">
+        <v>2015</v>
+      </c>
+      <c r="D328" s="29" t="s">
+        <v>1247</v>
+      </c>
+      <c r="E328" s="48" t="s">
+        <v>1067</v>
       </c>
     </row>
     <row r="329" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C329" s="4"/>
+      <c r="A329" s="1">
+        <v>325</v>
+      </c>
+      <c r="B329" s="25" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C329" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D329" s="29" t="s">
+        <v>1248</v>
+      </c>
+      <c r="E329" s="48" t="s">
+        <v>1114</v>
+      </c>
+      <c r="G329" s="1" t="s">
+        <v>1249</v>
+      </c>
     </row>
     <row r="330" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C330" s="4"/>
@@ -14505,10 +14764,10 @@
         <v>528</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>490</v>
@@ -14527,18 +14786,18 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:6" s="41" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="40">
+    <row r="3" spans="1:6" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="39">
         <v>2</v>
       </c>
-      <c r="B3" s="44" t="s">
-        <v>1165</v>
-      </c>
-      <c r="C3" s="40" t="s">
+      <c r="B3" s="43" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C3" s="39" t="s">
         <v>587</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -14566,7 +14825,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -14713,7 +14972,7 @@
         <v>604</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -14812,7 +15071,7 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>504</v>
@@ -14831,7 +15090,7 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>507</v>
@@ -14850,7 +15109,7 @@
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>507</v>
@@ -14869,7 +15128,7 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -14880,7 +15139,7 @@
         <v>512</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -14891,7 +15150,7 @@
         <v>513</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>514</v>
@@ -14905,7 +15164,7 @@
         <v>515</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -14921,7 +15180,7 @@
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -14937,7 +15196,7 @@
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>520</v>
@@ -14951,7 +15210,7 @@
         <v>521</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>507</v>
@@ -14970,7 +15229,7 @@
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>524</v>
@@ -14984,7 +15243,7 @@
         <v>525</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>526</v>
@@ -15016,20 +15275,20 @@
     </row>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D42" s="1"/>
       <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>1032</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>1033</v>
       </c>
       <c r="D43" s="1">
         <v>9</v>
@@ -15041,74 +15300,74 @@
     </row>
     <row r="44" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B45" s="12" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>1042</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>1043</v>
       </c>
       <c r="D45" s="1"/>
     </row>
     <row r="46" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D47" s="1"/>
     </row>
     <row r="48" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="49" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="50" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="14" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="51" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="32" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="52" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="32" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="53" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="32" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="54" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="32" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="55" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15118,7 +15377,7 @@
     <row r="56" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="57" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15133,8 +15392,8 @@
     <row r="63" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="64" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="45" t="s">
-        <v>1181</v>
+      <c r="B65" s="44" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="66" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16088,7 +16347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A69608-55D1-4FA2-B271-8B5154A5B681}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -16100,12 +16359,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
     </row>
   </sheetData>
@@ -16135,10 +16394,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>1047</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>1048</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -16189,7 +16448,7 @@
         <v>496</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -17227,10 +17486,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C1000"/>
+  <dimension ref="A1:C1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="B42" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17729,13 +17988,41 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="8" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="8" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>1245</v>
+      </c>
+    </row>
     <row r="61" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="62" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="63" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18676,10 +18963,11 @@
     <row r="998" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="999" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1001" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -19174,7 +19462,7 @@
         <v>617</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19356,13 +19644,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>663</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22724,10 +23012,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>1047</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>1048</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -24165,7 +24453,7 @@
     </row>
     <row r="19" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/thongnd_everything_list.xlsx
+++ b/thongnd_everything_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\ドキュメント\GitHub\My_Everything_Lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2458018F-97FF-4693-BD4C-D748F3BF18A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82280527-1195-4DDD-A30F-91B94913B014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1_todolist" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1854" uniqueCount="1253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1863" uniqueCount="1264">
   <si>
     <t>ID</t>
   </si>
@@ -3015,9 +3015,6 @@
   </si>
   <si>
     <t>the 4 hour work week</t>
-  </si>
-  <si>
-    <t>Atomic Habits: An Easy &amp; Proven Way to Build Good Habits &amp; Break Bad Ones</t>
   </si>
   <si>
     <t>すずみ。Suzume</t>
@@ -4629,22 +4626,6 @@
   </si>
   <si>
     <t>LANGUAGE LEARNING BOOKS</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>024.March, reading</t>
-    </r>
     <phoneticPr fontId="5"/>
   </si>
   <si>
@@ -5405,6 +5386,58 @@
   </si>
   <si>
     <t>shougun.</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>STATUS</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Definitive Guide to ARM Cortex-M0</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Started 2024</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>2024.March, reading</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Atomic Habits: An Easy &amp; Proven Way to Build Good Habits &amp; Break Bad Ones</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>The One Thing</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Gary Keller</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Start Nation</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Dropped</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>From Zero to One</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Peter Thiel</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>reading. Dropped</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>NAME</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -6011,7 +6044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1043"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -6025,27 +6058,27 @@
   <sheetData>
     <row r="1" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="50" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="2" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="22" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="49" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="49" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6053,25 +6086,25 @@
     </row>
     <row r="8" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="44" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="30" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="24" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="49" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6082,22 +6115,22 @@
     </row>
     <row r="14" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="49" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6111,17 +6144,17 @@
     </row>
     <row r="21" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="50" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="23" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6129,18 +6162,18 @@
     </row>
     <row r="25" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="11" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="26" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="28" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="22" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="29" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6151,18 +6184,18 @@
     </row>
     <row r="31" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="32" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6170,50 +6203,50 @@
     </row>
     <row r="36" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="45" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6221,17 +6254,17 @@
     </row>
     <row r="46" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="47" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="48" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6242,12 +6275,12 @@
     </row>
     <row r="51" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="38" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6262,7 +6295,7 @@
     </row>
     <row r="55" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6271,7 +6304,7 @@
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="44" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -6357,7 +6390,7 @@
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
@@ -6476,7 +6509,7 @@
     <row r="90" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="91" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="3" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="92" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6491,14 +6524,14 @@
     </row>
     <row r="94" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="95" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="96" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="97" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="3" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="98" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6526,69 +6559,69 @@
     </row>
     <row r="102" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="103" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="6" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="104" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="6" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="105" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="6" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="107" spans="2:3" ht="55.5" x14ac:dyDescent="0.25">
       <c r="B107" s="37" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C107" s="51" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="108" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B108" s="6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C108" s="5" t="s">
         <v>1171</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>1172</v>
       </c>
     </row>
     <row r="109" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="6" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="110" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="6" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="111" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="6" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="112" spans="2:3" ht="64.5" x14ac:dyDescent="0.25">
       <c r="B112" s="24" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C112" s="45" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="113" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="114" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7584,7 +7617,7 @@
         <v>53</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>54</v>
@@ -7694,7 +7727,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="C11" s="4"/>
       <c r="F11" s="1" t="s">
@@ -7736,7 +7769,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="C14" s="4"/>
       <c r="F14" s="1" t="s">
@@ -7748,7 +7781,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="C15" s="4"/>
       <c r="F15" s="1" t="s">
@@ -7775,7 +7808,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="C17" s="4"/>
       <c r="F17" s="1" t="s">
@@ -7923,14 +7956,14 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="C29" s="4"/>
       <c r="F29" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -7938,7 +7971,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C30" s="4">
         <v>2008</v>
@@ -8081,7 +8114,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="19">
@@ -8099,7 +8132,7 @@
         <v>95</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D42" s="19">
         <v>42499</v>
@@ -8158,7 +8191,7 @@
         <v>99</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>54</v>
@@ -8172,7 +8205,7 @@
         <v>100</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>54</v>
@@ -8186,7 +8219,7 @@
         <v>101</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="E48" s="17" t="s">
         <v>102</v>
@@ -8254,7 +8287,7 @@
         <v>109</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D52" s="19">
         <v>42468</v>
@@ -8274,7 +8307,7 @@
         <v>111</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D53" s="19">
         <v>42498</v>
@@ -8294,7 +8327,7 @@
         <v>113</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D54" s="19">
         <v>42529</v>
@@ -8357,7 +8390,7 @@
         <v>119</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D57" s="19">
         <v>42712</v>
@@ -8380,7 +8413,7 @@
         <v>122</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D58" s="19">
         <v>42605</v>
@@ -8397,7 +8430,7 @@
         <v>123</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="D59" s="19">
         <v>42560</v>
@@ -8440,7 +8473,7 @@
         <v>128</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="D61" s="19">
         <v>42665</v>
@@ -8505,7 +8538,7 @@
         <v>134</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D65" s="19">
         <v>42756</v>
@@ -8543,7 +8576,7 @@
         <v>138</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D67" s="19">
         <v>42757</v>
@@ -8643,13 +8676,13 @@
         <v>147</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="D72" s="19">
         <v>42838</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>54</v>
@@ -8663,7 +8696,7 @@
         <v>148</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="D73" s="19">
         <v>42963</v>
@@ -8686,7 +8719,7 @@
         <v>151</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="D74" s="19">
         <v>42980</v>
@@ -8706,7 +8739,7 @@
         <v>153</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="D75" s="19">
         <v>43007</v>
@@ -8726,7 +8759,7 @@
         <v>155</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="D76" s="19">
         <v>43019</v>
@@ -8740,7 +8773,7 @@
     </row>
     <row r="77" spans="1:7" s="33" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="33" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="C77" s="46">
         <v>2009</v>
@@ -8748,7 +8781,7 @@
       <c r="D77" s="34"/>
       <c r="E77" s="47"/>
       <c r="G77" s="33" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -8869,7 +8902,7 @@
         <v>54</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -8881,7 +8914,7 @@
         <v>166</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="D84" s="19">
         <v>43092</v>
@@ -9277,7 +9310,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>210</v>
@@ -9289,7 +9322,7 @@
         <v>54</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9337,7 +9370,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C106" s="4">
         <v>2006</v>
@@ -9420,7 +9453,7 @@
         <v>54</v>
       </c>
       <c r="G110" s="43" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9432,7 +9465,7 @@
         <v>222</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D111" s="19">
         <v>43319</v>
@@ -9450,7 +9483,7 @@
         <v>223</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="D112" s="19">
         <v>43327</v>
@@ -9459,7 +9492,7 @@
         <v>54</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9471,7 +9504,7 @@
         <v>224</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="D113" s="19">
         <v>43346</v>
@@ -9489,7 +9522,7 @@
         <v>225</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="D114" s="19">
         <v>43353</v>
@@ -9501,7 +9534,7 @@
         <v>54</v>
       </c>
       <c r="G114" s="12" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9513,7 +9546,7 @@
         <v>227</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="D115" s="19">
         <v>43373</v>
@@ -9531,7 +9564,7 @@
         <v>228</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="D116" s="19">
         <v>43375</v>
@@ -9561,7 +9594,7 @@
         <v>54</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9690,7 +9723,7 @@
         <v>240</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="D124" s="19">
         <v>43470</v>
@@ -9705,10 +9738,10 @@
         <v>123</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="D125" s="19">
         <v>43513</v>
@@ -9747,7 +9780,7 @@
         <v>243</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="D127" s="19">
         <v>43582</v>
@@ -9765,7 +9798,7 @@
         <v>244</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="D128" s="19">
         <v>43590</v>
@@ -9783,7 +9816,7 @@
         <v>245</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="D129" s="19">
         <v>43617</v>
@@ -9798,16 +9831,16 @@
         <v>128</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9847,7 +9880,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C133" s="4"/>
       <c r="F133" s="1" t="s">
@@ -10079,7 +10112,7 @@
         <v>148</v>
       </c>
       <c r="B150" s="24" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C150" s="23"/>
       <c r="D150" s="20"/>
@@ -10087,7 +10120,7 @@
         <v>248</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -10096,7 +10129,7 @@
         <v>149</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C151" s="4"/>
       <c r="F151" s="1" t="s">
@@ -10109,7 +10142,7 @@
         <v>150</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C152" s="4"/>
       <c r="F152" s="1" t="s">
@@ -10122,7 +10155,7 @@
         <v>151</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C153" s="4"/>
       <c r="F153" s="1" t="s">
@@ -10142,7 +10175,7 @@
         <v>248</v>
       </c>
       <c r="G154" s="12" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -10151,7 +10184,7 @@
         <v>153</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C155" s="4"/>
       <c r="F155" s="1" t="s">
@@ -10607,7 +10640,7 @@
         <v>307</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="D189" s="19">
         <v>42797</v>
@@ -10797,7 +10830,7 @@
         <v>331</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D203" s="19">
         <v>42925</v>
@@ -10809,7 +10842,7 @@
         <v>332</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="204" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -10825,7 +10858,7 @@
         <v>334</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -10882,7 +10915,7 @@
         <v>206</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C208" s="4"/>
       <c r="F208" s="1" t="s">
@@ -11111,14 +11144,14 @@
         <v>222</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C224" s="4"/>
       <c r="F224" s="1" t="s">
         <v>370</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="225" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -11349,7 +11382,7 @@
         <v>238</v>
       </c>
       <c r="B240" s="24" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="C240" s="23">
         <v>1997</v>
@@ -11436,14 +11469,14 @@
         <v>243</v>
       </c>
       <c r="B245" s="30" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C245" s="4"/>
       <c r="D245" s="29" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="G245" s="12" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="246" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -11459,7 +11492,7 @@
         <v>370</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="247" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -11482,7 +11515,7 @@
       </c>
       <c r="C248" s="4"/>
       <c r="G248" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="249" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -11616,7 +11649,7 @@
         <v>258</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C260" s="4"/>
       <c r="D260" s="19">
@@ -11690,13 +11723,13 @@
         <v>263</v>
       </c>
       <c r="B265" s="8" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C265" s="4">
         <v>2007</v>
       </c>
       <c r="G265" s="12" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="266" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -11800,7 +11833,7 @@
         <v>271</v>
       </c>
       <c r="B273" s="24" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="C273" s="23"/>
       <c r="D273" s="20"/>
@@ -11887,7 +11920,7 @@
         <v>2008</v>
       </c>
       <c r="G280" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="281" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12036,17 +12069,17 @@
     <row r="291" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
       <c r="B291" s="8" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="C291" s="4"/>
       <c r="D291" s="29" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="E291" s="17" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="G291" s="1" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="292" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12055,7 +12088,7 @@
         <v>289</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="C292" s="4">
         <v>2021</v>
@@ -12077,7 +12110,7 @@
       </c>
       <c r="C293" s="23"/>
       <c r="D293" s="21" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="G293" s="1" t="s">
         <v>470</v>
@@ -12089,7 +12122,7 @@
         <v>291</v>
       </c>
       <c r="B294" s="30" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="C294" s="23"/>
       <c r="D294" s="20"/>
@@ -12100,7 +12133,7 @@
         <v>292</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="C295" s="4">
         <v>2022</v>
@@ -12155,7 +12188,7 @@
         <v>295</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C298" s="4"/>
     </row>
@@ -12171,10 +12204,10 @@
         <v>2021</v>
       </c>
       <c r="D299" s="21" t="s">
+        <v>1000</v>
+      </c>
+      <c r="G299" s="1" t="s">
         <v>1001</v>
-      </c>
-      <c r="G299" s="1" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="300" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12219,7 +12252,7 @@
         <v>298</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="C302" s="4">
         <v>2022</v>
@@ -12248,7 +12281,7 @@
         <v>300</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C304" s="4">
         <v>2017</v>
@@ -12260,7 +12293,7 @@
         <v>6.5</v>
       </c>
       <c r="G304" s="1" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="305" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12268,7 +12301,7 @@
         <v>301</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="C305" s="4">
         <v>2022</v>
@@ -12308,7 +12341,7 @@
         <v>303</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="C307" s="4">
         <v>2001</v>
@@ -12328,13 +12361,13 @@
         <v>304</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="C308" s="4">
         <v>2022</v>
       </c>
       <c r="D308" s="29" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="E308" s="16">
         <v>7.6</v>
@@ -12345,7 +12378,7 @@
         <v>305</v>
       </c>
       <c r="B309" s="30" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="C309" s="4">
         <v>2023</v>
@@ -12362,7 +12395,7 @@
         <v>306</v>
       </c>
       <c r="B310" s="30" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C310" s="28"/>
       <c r="D310" s="21">
@@ -12374,14 +12407,14 @@
         <v>307</v>
       </c>
       <c r="B311" s="24" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C311" s="28"/>
       <c r="D311" s="21" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="G311" s="1" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
@@ -12389,17 +12422,17 @@
         <v>308</v>
       </c>
       <c r="B312" s="24" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="C312" s="28"/>
       <c r="D312" s="21" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E312" s="18" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G312" s="6" t="s">
         <v>1023</v>
-      </c>
-      <c r="E312" s="18" t="s">
-        <v>1025</v>
-      </c>
-      <c r="G312" s="6" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="313" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -12407,19 +12440,19 @@
         <v>309</v>
       </c>
       <c r="B313" s="25" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C313" s="28">
         <v>2021</v>
       </c>
       <c r="D313" s="21" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E313" s="17" t="s">
         <v>1026</v>
       </c>
-      <c r="E313" s="17" t="s">
+      <c r="G313" s="12" t="s">
         <v>1027</v>
-      </c>
-      <c r="G313" s="12" t="s">
-        <v>1028</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
@@ -12427,14 +12460,14 @@
         <v>310</v>
       </c>
       <c r="B314" s="30" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C314" s="28"/>
       <c r="D314" s="21" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="E314" s="17" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="315" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -12442,17 +12475,17 @@
         <v>311</v>
       </c>
       <c r="B315" s="24" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C315" s="28"/>
       <c r="D315" s="21" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="E315" s="16">
         <v>5</v>
       </c>
       <c r="G315" s="12" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
@@ -12460,11 +12493,11 @@
         <v>312</v>
       </c>
       <c r="B316" s="24" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C316" s="28"/>
       <c r="D316" s="21" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="E316" s="16">
         <v>7</v>
@@ -12475,11 +12508,11 @@
         <v>313</v>
       </c>
       <c r="B317" s="26" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C317" s="28"/>
       <c r="D317" s="21" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
@@ -12487,19 +12520,19 @@
         <v>314</v>
       </c>
       <c r="B318" s="25" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C318" s="28">
         <v>2021</v>
       </c>
       <c r="D318" s="21" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E318" s="18" t="s">
         <v>1066</v>
       </c>
-      <c r="E318" s="18" t="s">
-        <v>1067</v>
-      </c>
       <c r="G318" s="12" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="319" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -12507,16 +12540,16 @@
         <v>315</v>
       </c>
       <c r="B319" s="33" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C319" s="34">
         <v>2001</v>
       </c>
       <c r="D319" s="34" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="E319" s="35" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="G319" s="36"/>
     </row>
@@ -12525,14 +12558,14 @@
         <v>316</v>
       </c>
       <c r="B320" s="25" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="C320" s="4"/>
       <c r="D320" s="29" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E320" s="18" t="s">
         <v>1113</v>
-      </c>
-      <c r="E320" s="18" t="s">
-        <v>1114</v>
       </c>
     </row>
     <row r="321" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -12540,17 +12573,17 @@
         <v>317</v>
       </c>
       <c r="B321" s="25" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="C321" s="4"/>
       <c r="D321" s="29" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="E321" s="18" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="G321" s="12" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="322" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12558,16 +12591,16 @@
         <v>318</v>
       </c>
       <c r="B322" s="24" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="C322" s="4">
         <v>1988</v>
       </c>
       <c r="D322" s="29" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="G322" s="6" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="323" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12575,17 +12608,17 @@
         <v>319</v>
       </c>
       <c r="B323" s="24" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C323" s="4"/>
       <c r="D323" s="29" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="E323" s="18" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="G323" s="1" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="324" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12593,14 +12626,14 @@
         <v>320</v>
       </c>
       <c r="B324" s="25" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="C324" s="4"/>
       <c r="E324" s="48" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="G324" s="1" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="325" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12608,17 +12641,17 @@
         <v>321</v>
       </c>
       <c r="B325" s="25" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="C325" s="4"/>
       <c r="D325" s="29" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="E325" s="48" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="G325" s="1" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="326" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12626,17 +12659,17 @@
         <v>322</v>
       </c>
       <c r="B326" s="25" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="C326" s="4"/>
       <c r="D326" s="29" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="E326" s="48" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="G326" s="1" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="327" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12644,16 +12677,16 @@
         <v>323</v>
       </c>
       <c r="B327" s="25" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="D327" s="29" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="E327" s="48" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="G327" s="1" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="328" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12661,16 +12694,16 @@
         <v>324</v>
       </c>
       <c r="B328" s="52" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="C328" s="4">
         <v>2015</v>
       </c>
       <c r="D328" s="29" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="E328" s="48" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="329" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12678,19 +12711,19 @@
         <v>325</v>
       </c>
       <c r="B329" s="25" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="C329" s="4">
         <v>2000</v>
       </c>
       <c r="D329" s="29" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="E329" s="48" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="G329" s="1" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="330" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14736,10 +14769,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H1005"/>
+  <dimension ref="A1:H1008"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14758,16 +14791,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>527</v>
+        <v>1263</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>528</v>
+        <v>1251</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>490</v>
@@ -14791,7 +14824,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C3" s="39" t="s">
         <v>587</v>
@@ -14825,7 +14858,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -14917,7 +14950,7 @@
         <v>598</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>596</v>
+        <v>1262</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -14972,7 +15005,7 @@
         <v>604</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -15052,45 +15085,59 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="5" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>1036</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>504</v>
+        <v>1035</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>507</v>
@@ -15098,159 +15145,156 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>1036</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>507</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+        <v>512</v>
+      </c>
       <c r="F30" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>1036</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>514</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>515</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+        <v>521</v>
+      </c>
       <c r="F35" s="1" t="s">
-        <v>1036</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>520</v>
+        <v>1035</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>521</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>1036</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>507</v>
+        <v>1035</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+        <v>525</v>
+      </c>
       <c r="F37" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>524</v>
+        <v>526</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>525</v>
+        <v>1252</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>511</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>1036</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>507</v>
-      </c>
+        <v>1253</v>
+      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
@@ -15266,139 +15310,165 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
+    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>1030</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1052</v>
-      </c>
-      <c r="D42" s="1"/>
+        <v>1031</v>
+      </c>
+      <c r="D42" s="1">
+        <v>9</v>
+      </c>
+      <c r="E42" s="1">
+        <v>2023</v>
+      </c>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D43" s="1">
-        <v>9</v>
-      </c>
-      <c r="E43" s="1">
-        <v>2023</v>
-      </c>
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="1" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B45" s="12" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B44" s="12" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>1041</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="D45" s="1"/>
     </row>
     <row r="46" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
-        <v>1043</v>
-      </c>
+        <v>1047</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D46" s="1"/>
     </row>
     <row r="47" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>1051</v>
-      </c>
-      <c r="D47" s="1"/>
+        <v>1058</v>
+      </c>
     </row>
     <row r="48" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="1" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="14" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="32" t="s">
         <v>1164</v>
       </c>
     </row>
-    <row r="50" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="14" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="32" t="s">
         <v>1165</v>
       </c>
-    </row>
-    <row r="52" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E51" s="1" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="32" t="s">
-        <v>1166</v>
+        <v>1175</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1254</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="32" t="s">
         <v>1176</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="32" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="32" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="32" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="E56" s="1" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="32"/>
+      <c r="C57" s="1"/>
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="32"/>
+      <c r="C58" s="1"/>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="8" t="s">
         <v>1177</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="32"/>
-      <c r="E55" s="1"/>
-    </row>
-    <row r="56" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="8" t="s">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="1" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="44" t="s">
-        <v>1179</v>
-      </c>
-    </row>
+    </row>
+    <row r="61" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="67" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="44" t="s">
+        <v>1178</v>
+      </c>
+    </row>
     <row r="69" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="70" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="71" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16336,6 +16406,9 @@
     <row r="1003" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1004" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1005" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1006" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1007" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1008" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -16359,12 +16432,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
     </row>
   </sheetData>
@@ -16394,10 +16467,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>1046</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -16448,7 +16521,7 @@
         <v>496</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -16488,10 +16561,10 @@
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>1018</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>1019</v>
       </c>
     </row>
     <row r="21" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17990,37 +18063,37 @@
     <row r="53" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="54" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19462,7 +19535,7 @@
         <v>617</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19644,13 +19717,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>663</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -23012,10 +23085,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>1046</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -24423,37 +24496,37 @@
     </row>
     <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -24461,17 +24534,17 @@
     </row>
     <row r="21" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="23" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/thongnd_everything_list.xlsx
+++ b/thongnd_everything_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\ドキュメント\GitHub\My_Everything_Lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82280527-1195-4DDD-A30F-91B94913B014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBD7567-968E-4880-AF5A-DFB29AD08C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="885" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1_todolist" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1863" uniqueCount="1264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1873" uniqueCount="1273">
   <si>
     <t>ID</t>
   </si>
@@ -1866,9 +1866,6 @@
   </si>
   <si>
     <t>Good to Great</t>
-  </si>
-  <si>
-    <t>7 habits of highly successful people</t>
   </si>
   <si>
     <t>Einstein: His Life and Universe</t>
@@ -5438,6 +5435,46 @@
   </si>
   <si>
     <t>NAME</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Under Considering</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t xml:space="preserve">So Good They Can't Ignore You </t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Think and Grow Rich</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Napolen Hill</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>the 7 habits of highly effective people</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>The News Diet</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>あの花が咲く丘で、君とまた出会えたら</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>7.2/10</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>2024.10.03</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>I Wish I Could Meet You Again on the Hill Where That Flower Blooms</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -6058,27 +6095,27 @@
   <sheetData>
     <row r="1" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="50" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="2" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="22" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="49" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="49" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6086,25 +6123,25 @@
     </row>
     <row r="8" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="44" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="30" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="24" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="49" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6115,22 +6152,22 @@
     </row>
     <row r="14" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="49" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6144,17 +6181,17 @@
     </row>
     <row r="21" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="50" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="23" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6162,18 +6199,18 @@
     </row>
     <row r="25" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="11" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="26" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="28" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="22" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="29" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6184,18 +6221,18 @@
     </row>
     <row r="31" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="32" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6203,50 +6240,50 @@
     </row>
     <row r="36" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="45" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6254,17 +6291,17 @@
     </row>
     <row r="46" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="47" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="48" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6275,12 +6312,12 @@
     </row>
     <row r="51" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="38" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6295,7 +6332,7 @@
     </row>
     <row r="55" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6304,7 +6341,7 @@
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="44" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -6390,7 +6427,7 @@
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
@@ -6509,7 +6546,7 @@
     <row r="90" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="91" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="3" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="92" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6524,14 +6561,14 @@
     </row>
     <row r="94" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="95" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="96" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="97" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="3" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="98" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6559,69 +6596,69 @@
     </row>
     <row r="102" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="103" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="6" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="104" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="6" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="105" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="107" spans="2:3" ht="55.5" x14ac:dyDescent="0.25">
       <c r="B107" s="37" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C107" s="51" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="108" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B108" s="6" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C108" s="5" t="s">
         <v>1170</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>1171</v>
       </c>
     </row>
     <row r="109" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="6" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="110" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="6" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="111" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="6" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="112" spans="2:3" ht="64.5" x14ac:dyDescent="0.25">
       <c r="B112" s="24" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C112" s="45" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="113" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="114" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7570,8 +7607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G1007"/>
   <sheetViews>
-    <sheetView topLeftCell="A313" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E327" sqref="E327"/>
+    <sheetView tabSelected="1" topLeftCell="A315" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B329" sqref="B329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7579,7 +7616,7 @@
     <col min="1" max="1" width="7.5703125" customWidth="1"/>
     <col min="2" max="2" width="69.28515625" customWidth="1"/>
     <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" style="28" customWidth="1"/>
+    <col min="4" max="4" width="68.28515625" style="28" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.140625" style="16" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="69.28515625" customWidth="1"/>
@@ -7617,7 +7654,7 @@
         <v>53</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>54</v>
@@ -7727,7 +7764,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C11" s="4"/>
       <c r="F11" s="1" t="s">
@@ -7769,7 +7806,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C14" s="4"/>
       <c r="F14" s="1" t="s">
@@ -7781,7 +7818,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="C15" s="4"/>
       <c r="F15" s="1" t="s">
@@ -7808,7 +7845,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C17" s="4"/>
       <c r="F17" s="1" t="s">
@@ -7956,14 +7993,14 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="C29" s="4"/>
       <c r="F29" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -7971,7 +8008,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="C30" s="4">
         <v>2008</v>
@@ -8114,7 +8151,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="19">
@@ -8132,7 +8169,7 @@
         <v>95</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D42" s="19">
         <v>42499</v>
@@ -8191,7 +8228,7 @@
         <v>99</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>54</v>
@@ -8205,7 +8242,7 @@
         <v>100</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>54</v>
@@ -8219,7 +8256,7 @@
         <v>101</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="E48" s="17" t="s">
         <v>102</v>
@@ -8287,7 +8324,7 @@
         <v>109</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D52" s="19">
         <v>42468</v>
@@ -8307,7 +8344,7 @@
         <v>111</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D53" s="19">
         <v>42498</v>
@@ -8327,7 +8364,7 @@
         <v>113</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D54" s="19">
         <v>42529</v>
@@ -8390,7 +8427,7 @@
         <v>119</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D57" s="19">
         <v>42712</v>
@@ -8413,7 +8450,7 @@
         <v>122</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D58" s="19">
         <v>42605</v>
@@ -8430,7 +8467,7 @@
         <v>123</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D59" s="19">
         <v>42560</v>
@@ -8473,7 +8510,7 @@
         <v>128</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="D61" s="19">
         <v>42665</v>
@@ -8538,7 +8575,7 @@
         <v>134</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D65" s="19">
         <v>42756</v>
@@ -8576,7 +8613,7 @@
         <v>138</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="D67" s="19">
         <v>42757</v>
@@ -8676,13 +8713,13 @@
         <v>147</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="D72" s="19">
         <v>42838</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>54</v>
@@ -8696,7 +8733,7 @@
         <v>148</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="D73" s="19">
         <v>42963</v>
@@ -8719,7 +8756,7 @@
         <v>151</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="D74" s="19">
         <v>42980</v>
@@ -8739,7 +8776,7 @@
         <v>153</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="D75" s="19">
         <v>43007</v>
@@ -8759,7 +8796,7 @@
         <v>155</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="D76" s="19">
         <v>43019</v>
@@ -8773,7 +8810,7 @@
     </row>
     <row r="77" spans="1:7" s="33" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="33" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C77" s="46">
         <v>2009</v>
@@ -8781,7 +8818,7 @@
       <c r="D77" s="34"/>
       <c r="E77" s="47"/>
       <c r="G77" s="33" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -8902,7 +8939,7 @@
         <v>54</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -8914,7 +8951,7 @@
         <v>166</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="D84" s="19">
         <v>43092</v>
@@ -9310,7 +9347,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>210</v>
@@ -9322,7 +9359,7 @@
         <v>54</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9370,7 +9407,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C106" s="4">
         <v>2006</v>
@@ -9453,7 +9490,7 @@
         <v>54</v>
       </c>
       <c r="G110" s="43" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9465,7 +9502,7 @@
         <v>222</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="D111" s="19">
         <v>43319</v>
@@ -9483,7 +9520,7 @@
         <v>223</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D112" s="19">
         <v>43327</v>
@@ -9492,7 +9529,7 @@
         <v>54</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9504,7 +9541,7 @@
         <v>224</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="D113" s="19">
         <v>43346</v>
@@ -9522,7 +9559,7 @@
         <v>225</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="D114" s="19">
         <v>43353</v>
@@ -9534,7 +9571,7 @@
         <v>54</v>
       </c>
       <c r="G114" s="12" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9546,7 +9583,7 @@
         <v>227</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="D115" s="19">
         <v>43373</v>
@@ -9564,7 +9601,7 @@
         <v>228</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="D116" s="19">
         <v>43375</v>
@@ -9594,7 +9631,7 @@
         <v>54</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9723,7 +9760,7 @@
         <v>240</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="D124" s="19">
         <v>43470</v>
@@ -9738,10 +9775,10 @@
         <v>123</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="D125" s="19">
         <v>43513</v>
@@ -9780,7 +9817,7 @@
         <v>243</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="D127" s="19">
         <v>43582</v>
@@ -9798,7 +9835,7 @@
         <v>244</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="D128" s="19">
         <v>43590</v>
@@ -9816,7 +9853,7 @@
         <v>245</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="D129" s="19">
         <v>43617</v>
@@ -9831,16 +9868,16 @@
         <v>128</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9880,7 +9917,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="C133" s="4"/>
       <c r="F133" s="1" t="s">
@@ -10112,7 +10149,7 @@
         <v>148</v>
       </c>
       <c r="B150" s="24" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C150" s="23"/>
       <c r="D150" s="20"/>
@@ -10120,7 +10157,7 @@
         <v>248</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -10129,7 +10166,7 @@
         <v>149</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C151" s="4"/>
       <c r="F151" s="1" t="s">
@@ -10142,7 +10179,7 @@
         <v>150</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C152" s="4"/>
       <c r="F152" s="1" t="s">
@@ -10155,7 +10192,7 @@
         <v>151</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C153" s="4"/>
       <c r="F153" s="1" t="s">
@@ -10175,7 +10212,7 @@
         <v>248</v>
       </c>
       <c r="G154" s="12" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -10184,7 +10221,7 @@
         <v>153</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C155" s="4"/>
       <c r="F155" s="1" t="s">
@@ -10640,7 +10677,7 @@
         <v>307</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="D189" s="19">
         <v>42797</v>
@@ -10830,7 +10867,7 @@
         <v>331</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="D203" s="19">
         <v>42925</v>
@@ -10842,7 +10879,7 @@
         <v>332</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="204" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -10858,7 +10895,7 @@
         <v>334</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -10915,7 +10952,7 @@
         <v>206</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C208" s="4"/>
       <c r="F208" s="1" t="s">
@@ -11144,14 +11181,14 @@
         <v>222</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C224" s="4"/>
       <c r="F224" s="1" t="s">
         <v>370</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="225" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -11382,7 +11419,7 @@
         <v>238</v>
       </c>
       <c r="B240" s="24" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C240" s="23">
         <v>1997</v>
@@ -11469,14 +11506,14 @@
         <v>243</v>
       </c>
       <c r="B245" s="30" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C245" s="4"/>
       <c r="D245" s="29" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="G245" s="12" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="246" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -11492,7 +11529,7 @@
         <v>370</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="247" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -11515,7 +11552,7 @@
       </c>
       <c r="C248" s="4"/>
       <c r="G248" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="249" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -11649,7 +11686,7 @@
         <v>258</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C260" s="4"/>
       <c r="D260" s="19">
@@ -11723,13 +11760,13 @@
         <v>263</v>
       </c>
       <c r="B265" s="8" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C265" s="4">
         <v>2007</v>
       </c>
       <c r="G265" s="12" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="266" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -11833,7 +11870,7 @@
         <v>271</v>
       </c>
       <c r="B273" s="24" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C273" s="23"/>
       <c r="D273" s="20"/>
@@ -11920,7 +11957,7 @@
         <v>2008</v>
       </c>
       <c r="G280" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="281" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12069,17 +12106,17 @@
     <row r="291" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
       <c r="B291" s="8" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C291" s="4"/>
       <c r="D291" s="29" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E291" s="17" t="s">
         <v>1192</v>
       </c>
-      <c r="E291" s="17" t="s">
-        <v>1193</v>
-      </c>
       <c r="G291" s="1" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="292" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12088,7 +12125,7 @@
         <v>289</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C292" s="4">
         <v>2021</v>
@@ -12110,7 +12147,7 @@
       </c>
       <c r="C293" s="23"/>
       <c r="D293" s="21" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G293" s="1" t="s">
         <v>470</v>
@@ -12122,7 +12159,7 @@
         <v>291</v>
       </c>
       <c r="B294" s="30" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C294" s="23"/>
       <c r="D294" s="20"/>
@@ -12133,7 +12170,7 @@
         <v>292</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C295" s="4">
         <v>2022</v>
@@ -12188,7 +12225,7 @@
         <v>295</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C298" s="4"/>
     </row>
@@ -12204,10 +12241,10 @@
         <v>2021</v>
       </c>
       <c r="D299" s="21" t="s">
+        <v>999</v>
+      </c>
+      <c r="G299" s="1" t="s">
         <v>1000</v>
-      </c>
-      <c r="G299" s="1" t="s">
-        <v>1001</v>
       </c>
     </row>
     <row r="300" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12252,7 +12289,7 @@
         <v>298</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C302" s="4">
         <v>2022</v>
@@ -12281,7 +12318,7 @@
         <v>300</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C304" s="4">
         <v>2017</v>
@@ -12293,7 +12330,7 @@
         <v>6.5</v>
       </c>
       <c r="G304" s="1" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="305" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12301,7 +12338,7 @@
         <v>301</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C305" s="4">
         <v>2022</v>
@@ -12341,19 +12378,19 @@
         <v>303</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C307" s="4">
         <v>2001</v>
       </c>
       <c r="D307" s="28" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E307" s="16">
         <v>6.8</v>
       </c>
       <c r="G307" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="308" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12361,13 +12398,13 @@
         <v>304</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C308" s="4">
         <v>2022</v>
       </c>
       <c r="D308" s="29" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="E308" s="16">
         <v>7.6</v>
@@ -12378,13 +12415,13 @@
         <v>305</v>
       </c>
       <c r="B309" s="30" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C309" s="4">
         <v>2023</v>
       </c>
       <c r="D309" s="20" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E309" s="16">
         <v>8</v>
@@ -12395,7 +12432,7 @@
         <v>306</v>
       </c>
       <c r="B310" s="30" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C310" s="28"/>
       <c r="D310" s="21">
@@ -12407,14 +12444,14 @@
         <v>307</v>
       </c>
       <c r="B311" s="24" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C311" s="28"/>
       <c r="D311" s="21" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G311" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
@@ -12422,17 +12459,17 @@
         <v>308</v>
       </c>
       <c r="B312" s="24" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C312" s="28"/>
       <c r="D312" s="21" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E312" s="18" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G312" s="6" t="s">
         <v>1022</v>
-      </c>
-      <c r="E312" s="18" t="s">
-        <v>1024</v>
-      </c>
-      <c r="G312" s="6" t="s">
-        <v>1023</v>
       </c>
     </row>
     <row r="313" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -12440,19 +12477,19 @@
         <v>309</v>
       </c>
       <c r="B313" s="25" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C313" s="28">
         <v>2021</v>
       </c>
       <c r="D313" s="21" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E313" s="17" t="s">
         <v>1025</v>
       </c>
-      <c r="E313" s="17" t="s">
+      <c r="G313" s="12" t="s">
         <v>1026</v>
-      </c>
-      <c r="G313" s="12" t="s">
-        <v>1027</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
@@ -12460,14 +12497,14 @@
         <v>310</v>
       </c>
       <c r="B314" s="30" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C314" s="28"/>
       <c r="D314" s="21" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="E314" s="17" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="315" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -12475,17 +12512,17 @@
         <v>311</v>
       </c>
       <c r="B315" s="24" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C315" s="28"/>
       <c r="D315" s="21" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="E315" s="16">
         <v>5</v>
       </c>
       <c r="G315" s="12" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
@@ -12493,11 +12530,11 @@
         <v>312</v>
       </c>
       <c r="B316" s="24" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C316" s="28"/>
       <c r="D316" s="21" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="E316" s="16">
         <v>7</v>
@@ -12508,11 +12545,11 @@
         <v>313</v>
       </c>
       <c r="B317" s="26" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C317" s="28"/>
       <c r="D317" s="21" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
@@ -12520,19 +12557,19 @@
         <v>314</v>
       </c>
       <c r="B318" s="25" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C318" s="28">
         <v>2021</v>
       </c>
       <c r="D318" s="21" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E318" s="18" t="s">
         <v>1065</v>
       </c>
-      <c r="E318" s="18" t="s">
-        <v>1066</v>
-      </c>
       <c r="G318" s="12" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="319" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -12540,16 +12577,16 @@
         <v>315</v>
       </c>
       <c r="B319" s="33" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C319" s="34">
         <v>2001</v>
       </c>
       <c r="D319" s="34" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E319" s="35" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="G319" s="36"/>
     </row>
@@ -12558,14 +12595,14 @@
         <v>316</v>
       </c>
       <c r="B320" s="25" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C320" s="4"/>
       <c r="D320" s="29" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E320" s="18" t="s">
         <v>1112</v>
-      </c>
-      <c r="E320" s="18" t="s">
-        <v>1113</v>
       </c>
     </row>
     <row r="321" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -12573,17 +12610,17 @@
         <v>317</v>
       </c>
       <c r="B321" s="25" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C321" s="4"/>
       <c r="D321" s="29" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E321" s="18" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="G321" s="12" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="322" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12591,16 +12628,16 @@
         <v>318</v>
       </c>
       <c r="B322" s="24" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C322" s="4">
         <v>1988</v>
       </c>
       <c r="D322" s="29" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G322" s="6" t="s">
         <v>1182</v>
-      </c>
-      <c r="G322" s="6" t="s">
-        <v>1183</v>
       </c>
     </row>
     <row r="323" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12608,17 +12645,17 @@
         <v>319</v>
       </c>
       <c r="B323" s="24" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C323" s="4"/>
       <c r="D323" s="29" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E323" s="18" t="s">
+        <v>1112</v>
+      </c>
+      <c r="G323" s="1" t="s">
         <v>1195</v>
-      </c>
-      <c r="E323" s="18" t="s">
-        <v>1113</v>
-      </c>
-      <c r="G323" s="1" t="s">
-        <v>1196</v>
       </c>
     </row>
     <row r="324" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12626,14 +12663,14 @@
         <v>320</v>
       </c>
       <c r="B324" s="25" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C324" s="4"/>
       <c r="E324" s="48" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="G324" s="1" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="325" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12641,17 +12678,17 @@
         <v>321</v>
       </c>
       <c r="B325" s="25" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C325" s="4"/>
       <c r="D325" s="29" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E325" s="48" t="s">
         <v>1200</v>
       </c>
-      <c r="E325" s="48" t="s">
-        <v>1201</v>
-      </c>
       <c r="G325" s="1" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="326" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12659,17 +12696,17 @@
         <v>322</v>
       </c>
       <c r="B326" s="25" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C326" s="4"/>
       <c r="D326" s="29" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E326" s="48" t="s">
+        <v>1248</v>
+      </c>
+      <c r="G326" s="1" t="s">
         <v>1218</v>
-      </c>
-      <c r="E326" s="48" t="s">
-        <v>1249</v>
-      </c>
-      <c r="G326" s="1" t="s">
-        <v>1219</v>
       </c>
     </row>
     <row r="327" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12677,16 +12714,16 @@
         <v>323</v>
       </c>
       <c r="B327" s="25" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D327" s="29" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E327" s="48" t="s">
         <v>1222</v>
       </c>
-      <c r="D327" s="29" t="s">
-        <v>1217</v>
-      </c>
-      <c r="E327" s="48" t="s">
-        <v>1223</v>
-      </c>
       <c r="G327" s="1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="328" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12694,16 +12731,16 @@
         <v>324</v>
       </c>
       <c r="B328" s="52" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C328" s="4">
         <v>2015</v>
       </c>
       <c r="D328" s="29" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="E328" s="48" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="329" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12711,23 +12748,40 @@
         <v>325</v>
       </c>
       <c r="B329" s="25" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C329" s="4">
         <v>2000</v>
       </c>
       <c r="D329" s="29" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E329" s="48" t="s">
+        <v>1112</v>
+      </c>
+      <c r="G329" s="1" t="s">
         <v>1246</v>
       </c>
-      <c r="E329" s="48" t="s">
-        <v>1113</v>
-      </c>
-      <c r="G329" s="1" t="s">
-        <v>1247</v>
-      </c>
     </row>
     <row r="330" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C330" s="4"/>
+      <c r="A330" s="1">
+        <v>326</v>
+      </c>
+      <c r="B330" s="25" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C330" s="4">
+        <v>2023</v>
+      </c>
+      <c r="D330" s="29" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E330" s="48" t="s">
+        <v>1270</v>
+      </c>
+      <c r="G330" s="22" t="s">
+        <v>1269</v>
+      </c>
     </row>
     <row r="331" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C331" s="4"/>
@@ -14771,8 +14825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1008"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14791,16 +14845,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>490</v>
@@ -14824,7 +14878,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C3" s="39" t="s">
         <v>587</v>
@@ -14858,7 +14912,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -14950,7 +15004,7 @@
         <v>598</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -15002,10 +15056,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>604</v>
+        <v>1267</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -15013,7 +15067,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>602</v>
@@ -15026,7 +15080,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>596</v>
@@ -15039,7 +15093,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>602</v>
@@ -15052,15 +15106,15 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>608</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>609</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15068,20 +15122,20 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>611</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15099,7 +15153,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>504</v>
@@ -15118,7 +15172,7 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>507</v>
@@ -15137,7 +15191,7 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>507</v>
@@ -15156,7 +15210,7 @@
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -15167,7 +15221,7 @@
         <v>512</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -15178,7 +15232,7 @@
         <v>513</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>514</v>
@@ -15192,7 +15246,7 @@
         <v>515</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -15208,7 +15262,7 @@
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -15224,7 +15278,7 @@
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>520</v>
@@ -15238,7 +15292,7 @@
         <v>521</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>507</v>
@@ -15257,7 +15311,7 @@
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>524</v>
@@ -15271,7 +15325,7 @@
         <v>525</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>526</v>
@@ -15285,13 +15339,13 @@
         <v>13</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>511</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -15312,20 +15366,20 @@
     </row>
     <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="D41" s="1"/>
       <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>1030</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>1031</v>
       </c>
       <c r="D42" s="1">
         <v>9</v>
@@ -15337,109 +15391,107 @@
     </row>
     <row r="43" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>1040</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>1041</v>
       </c>
       <c r="D44" s="1"/>
     </row>
     <row r="45" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="D46" s="1"/>
     </row>
     <row r="47" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="14" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="49" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="50" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="32" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="51" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="32" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>1165</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>1166</v>
       </c>
     </row>
     <row r="52" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="32" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="E52" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>1254</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>1255</v>
       </c>
     </row>
     <row r="53" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="32" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="54" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="32" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>1256</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>1257</v>
       </c>
       <c r="E54" s="1"/>
     </row>
     <row r="55" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="32" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>1260</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>1261</v>
       </c>
       <c r="E55" s="1"/>
     </row>
     <row r="56" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="32" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C56" s="1"/>
       <c r="E56" s="1" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="57" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="32"/>
-      <c r="C57" s="1"/>
       <c r="E57" s="1"/>
     </row>
     <row r="58" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15450,37 +15502,59 @@
     <row r="59" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="60" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="61" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="62" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="63" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="64" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="44" t="s">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="8" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="32" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="1" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="81" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="82" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="83" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16432,12 +16506,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
   </sheetData>
@@ -16467,10 +16541,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>1045</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>1046</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -16521,7 +16595,7 @@
         <v>496</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -16561,10 +16635,10 @@
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>1017</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>1018</v>
       </c>
     </row>
     <row r="21" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18063,37 +18137,37 @@
     <row r="53" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="54" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19066,13 +19140,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -19080,7 +19154,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -19088,10 +19162,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>616</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -19099,10 +19173,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -19110,10 +19184,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -19121,13 +19195,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>620</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -19135,13 +19209,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>622</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -19149,10 +19223,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -19160,10 +19234,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -19171,10 +19245,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -19182,10 +19256,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -19193,10 +19267,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -19204,10 +19278,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -19215,10 +19289,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -19226,10 +19300,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -19237,10 +19311,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -19248,10 +19322,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -19259,10 +19333,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -19270,10 +19344,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -19281,10 +19355,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19292,10 +19366,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19303,10 +19377,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19314,10 +19388,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19325,10 +19399,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19336,10 +19410,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19347,10 +19421,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19358,10 +19432,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19369,10 +19443,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19380,10 +19454,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19391,10 +19465,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19402,10 +19476,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19413,10 +19487,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>648</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19424,10 +19498,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19435,10 +19509,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19446,13 +19520,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>652</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19460,13 +19534,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>654</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19474,10 +19548,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19485,10 +19559,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19496,10 +19570,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19507,10 +19581,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19518,10 +19592,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19529,13 +19603,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19543,13 +19617,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>663</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19557,10 +19631,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19568,13 +19642,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>666</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19582,10 +19656,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19593,10 +19667,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19604,10 +19678,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19615,10 +19689,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19626,10 +19700,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19637,13 +19711,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>673</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19651,10 +19725,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19662,10 +19736,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19673,10 +19747,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19684,10 +19758,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19695,10 +19769,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19706,10 +19780,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19717,13 +19791,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>1108</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>1109</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19731,10 +19805,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19742,10 +19816,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19753,10 +19827,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19764,10 +19838,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19775,10 +19849,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19786,10 +19860,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19797,10 +19871,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19808,10 +19882,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19819,10 +19893,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19830,10 +19904,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19841,10 +19915,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19852,10 +19926,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19863,10 +19937,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19874,10 +19948,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19885,10 +19959,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19896,10 +19970,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19907,10 +19981,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19918,10 +19992,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19929,10 +20003,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19940,10 +20014,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19951,10 +20025,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19962,10 +20036,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19973,10 +20047,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19984,10 +20058,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19995,10 +20069,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20006,10 +20080,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20017,10 +20091,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20028,10 +20102,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20039,10 +20113,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20050,10 +20124,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20061,10 +20135,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20072,10 +20146,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20083,10 +20157,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20094,10 +20168,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20105,10 +20179,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20116,10 +20190,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20127,10 +20201,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20138,10 +20212,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20149,10 +20223,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20160,10 +20234,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20171,10 +20245,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20182,10 +20256,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20193,10 +20267,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20204,10 +20278,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20215,10 +20289,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20226,10 +20300,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20237,10 +20311,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20248,10 +20322,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20259,10 +20333,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20270,10 +20344,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20281,10 +20355,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20292,10 +20366,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20303,10 +20377,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20314,10 +20388,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20325,10 +20399,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20336,10 +20410,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20347,10 +20421,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20358,10 +20432,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20369,10 +20443,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20380,10 +20454,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20391,10 +20465,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20402,10 +20476,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20413,10 +20487,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20424,10 +20498,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20435,10 +20509,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20446,10 +20520,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20457,10 +20531,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20468,10 +20542,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20479,10 +20553,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20490,10 +20564,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20501,10 +20575,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20512,10 +20586,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20523,10 +20597,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20534,10 +20608,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20545,10 +20619,10 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20556,10 +20630,10 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20567,10 +20641,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20578,10 +20652,10 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20589,10 +20663,10 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20600,10 +20674,10 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20611,10 +20685,10 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20622,10 +20696,10 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20633,10 +20707,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20644,10 +20718,10 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20655,10 +20729,10 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20666,10 +20740,10 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20677,10 +20751,10 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20688,10 +20762,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20699,10 +20773,10 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20710,10 +20784,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20721,10 +20795,10 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20732,10 +20806,10 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20743,10 +20817,10 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20754,10 +20828,10 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20765,10 +20839,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20776,10 +20850,10 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20787,10 +20861,10 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20798,10 +20872,10 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20809,10 +20883,10 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20820,10 +20894,10 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20831,13 +20905,13 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="D159" s="1" t="s">
         <v>783</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20845,10 +20919,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20856,10 +20930,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20867,10 +20941,10 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20878,10 +20952,10 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20889,10 +20963,10 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20900,10 +20974,10 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20911,10 +20985,10 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20922,10 +20996,10 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20933,10 +21007,10 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20944,10 +21018,10 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20955,10 +21029,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20966,10 +21040,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20977,10 +21051,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20988,10 +21062,10 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20999,10 +21073,10 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21010,10 +21084,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21021,10 +21095,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21032,10 +21106,10 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21043,10 +21117,10 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21054,10 +21128,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21065,10 +21139,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21076,10 +21150,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21087,10 +21161,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21098,10 +21172,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21109,10 +21183,10 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21120,10 +21194,10 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21131,10 +21205,10 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21142,10 +21216,10 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21153,10 +21227,10 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21164,10 +21238,10 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21175,10 +21249,10 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21186,10 +21260,10 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21197,10 +21271,10 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21208,10 +21282,10 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21219,10 +21293,10 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21230,10 +21304,10 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21241,10 +21315,10 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21252,10 +21326,10 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21263,10 +21337,10 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21274,10 +21348,10 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21285,10 +21359,10 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21296,10 +21370,10 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21307,10 +21381,10 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21318,10 +21392,10 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21329,10 +21403,10 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21340,10 +21414,10 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21351,10 +21425,10 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21362,10 +21436,10 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21373,10 +21447,10 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21384,13 +21458,13 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="D209" s="1" t="s">
         <v>834</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21398,10 +21472,10 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21409,10 +21483,10 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21420,10 +21494,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21431,10 +21505,10 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21442,10 +21516,10 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21453,10 +21527,10 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21464,10 +21538,10 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21475,10 +21549,10 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21486,10 +21560,10 @@
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21497,10 +21571,10 @@
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21508,10 +21582,10 @@
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21519,13 +21593,13 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="D221" s="1" t="s">
         <v>847</v>
-      </c>
-      <c r="C221" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="D221" s="1" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21533,10 +21607,10 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21544,10 +21618,10 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21555,10 +21629,10 @@
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21566,10 +21640,10 @@
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="226" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21577,10 +21651,10 @@
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21588,10 +21662,10 @@
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21599,10 +21673,10 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21610,10 +21684,10 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="230" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21621,13 +21695,13 @@
         <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="D230" s="1" t="s">
         <v>857</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="D230" s="1" t="s">
-        <v>858</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21635,10 +21709,10 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21646,13 +21720,13 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="D232" s="1" t="s">
         <v>860</v>
-      </c>
-      <c r="C232" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="D232" s="1" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21660,10 +21734,10 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21671,10 +21745,10 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21682,10 +21756,10 @@
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21693,10 +21767,10 @@
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21704,10 +21778,10 @@
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21715,10 +21789,10 @@
         <v>237</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21726,13 +21800,13 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="D239" s="1" t="s">
         <v>868</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="D239" s="1" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21740,13 +21814,13 @@
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="D240" s="1" t="s">
         <v>870</v>
-      </c>
-      <c r="C240" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="D240" s="1" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21754,13 +21828,13 @@
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="D241" s="1" t="s">
         <v>872</v>
-      </c>
-      <c r="C241" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="D241" s="1" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="242" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21768,13 +21842,13 @@
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="D242" s="1" t="s">
         <v>874</v>
-      </c>
-      <c r="C242" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="D242" s="1" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="243" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21782,13 +21856,13 @@
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="D243" s="1" t="s">
         <v>876</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="D243" s="1" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="244" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21796,10 +21870,10 @@
         <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="245" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21807,13 +21881,13 @@
         <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="D245" s="1" t="s">
         <v>879</v>
-      </c>
-      <c r="C245" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="D245" s="1" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="246" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21821,10 +21895,10 @@
         <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="247" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21832,13 +21906,13 @@
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="D247" s="1" t="s">
         <v>882</v>
-      </c>
-      <c r="C247" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="D247" s="1" t="s">
-        <v>883</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21846,10 +21920,10 @@
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="249" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21857,10 +21931,10 @@
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="250" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21868,10 +21942,10 @@
         <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21879,10 +21953,10 @@
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="252" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21890,13 +21964,13 @@
         <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21904,10 +21978,10 @@
         <v>252</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="254" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21915,10 +21989,10 @@
         <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="255" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21926,10 +22000,10 @@
         <v>254</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="256" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21937,10 +22011,10 @@
         <v>255</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="257" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21948,10 +22022,10 @@
         <v>256</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="258" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21959,10 +22033,10 @@
         <v>257</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="259" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21970,10 +22044,10 @@
         <v>258</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="260" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21981,10 +22055,10 @@
         <v>259</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="261" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21992,10 +22066,10 @@
         <v>260</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22003,10 +22077,10 @@
         <v>261</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="263" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22014,10 +22088,10 @@
         <v>262</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="264" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22025,10 +22099,10 @@
         <v>263</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="265" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22036,10 +22110,10 @@
         <v>264</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="266" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22047,10 +22121,10 @@
         <v>265</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="267" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22058,13 +22132,13 @@
         <v>266</v>
       </c>
       <c r="B267" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="D267" s="1" t="s">
         <v>905</v>
-      </c>
-      <c r="C267" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="D267" s="1" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="268" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22072,10 +22146,10 @@
         <v>267</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="269" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22083,10 +22157,10 @@
         <v>268</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="270" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22094,10 +22168,10 @@
         <v>269</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="271" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22105,10 +22179,10 @@
         <v>271</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="272" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22116,10 +22190,10 @@
         <v>272</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22127,10 +22201,10 @@
         <v>273</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22138,10 +22212,10 @@
         <v>274</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22149,10 +22223,10 @@
         <v>275</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22160,10 +22234,10 @@
         <v>276</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22171,10 +22245,10 @@
         <v>277</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22182,7 +22256,7 @@
         <v>278</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22190,10 +22264,10 @@
         <v>279</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22201,10 +22275,10 @@
         <v>280</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22212,10 +22286,10 @@
         <v>281</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22223,10 +22297,10 @@
         <v>282</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22234,7 +22308,7 @@
         <v>283</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22242,7 +22316,7 @@
         <v>284</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22250,7 +22324,7 @@
         <v>285</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22258,10 +22332,10 @@
         <v>286</v>
       </c>
       <c r="B286" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="C286" s="1" t="s">
         <v>925</v>
-      </c>
-      <c r="C286" s="1" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22269,7 +22343,7 @@
         <v>287</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22277,7 +22351,7 @@
         <v>288</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="289" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22285,7 +22359,7 @@
         <v>289</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="290" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22293,7 +22367,7 @@
         <v>290</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="291" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22301,7 +22375,7 @@
         <v>291</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="292" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22309,13 +22383,13 @@
         <v>292</v>
       </c>
       <c r="B292" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="D292" s="1" t="s">
         <v>932</v>
-      </c>
-      <c r="C292" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="D292" s="1" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="293" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22323,7 +22397,7 @@
         <v>293</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="294" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22331,7 +22405,7 @@
         <v>294</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="295" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22339,7 +22413,7 @@
         <v>295</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="296" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22347,10 +22421,10 @@
         <v>296</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="297" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -23085,10 +23159,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>1045</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>1046</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -23096,7 +23170,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -23104,7 +23178,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -23112,10 +23186,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>951</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -23123,10 +23197,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -23134,10 +23208,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -23145,10 +23219,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -23156,10 +23230,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -23167,10 +23241,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -23178,10 +23252,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -23189,10 +23263,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -23200,10 +23274,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -23211,10 +23285,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -23222,10 +23296,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -23233,10 +23307,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -23244,10 +23318,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>964</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -23255,10 +23329,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -23266,10 +23340,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -23277,10 +23351,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -23288,10 +23362,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -23299,10 +23373,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -23310,10 +23384,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -23321,10 +23395,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -23332,10 +23406,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -23343,10 +23417,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -23354,10 +23428,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -23365,10 +23439,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -23376,10 +23450,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -23387,10 +23461,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -23398,10 +23472,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -23409,10 +23483,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>980</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>981</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -24411,7 +24485,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -24419,7 +24493,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -24427,7 +24501,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -24435,7 +24509,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -24443,7 +24517,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -24451,7 +24525,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -24459,7 +24533,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -24467,7 +24541,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -24475,7 +24549,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -24483,7 +24557,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -24491,42 +24565,42 @@
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -24534,17 +24608,17 @@
     </row>
     <row r="21" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="23" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/thongnd_everything_list.xlsx
+++ b/thongnd_everything_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\ドキュメント\GitHub\My_Everything_Lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBD7567-968E-4880-AF5A-DFB29AD08C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52578B1C-D122-4515-B953-753FCDC2E1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="885" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1_todolist" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
   <definedNames>
     <definedName name="beverage">beverage!$A$1:$B$11</definedName>
     <definedName name="game">'7_game'!$A$1:$C$31</definedName>
-    <definedName name="list_film_to_watch">'1_todolist'!$A$59:$D$108</definedName>
+    <definedName name="list_film_to_watch">'1_todolist'!$A$53:$D$102</definedName>
     <definedName name="music_list">'6_music_list'!$A$1:$D$296</definedName>
     <definedName name="reading_list">'3_book_list'!$A$1:$F$21</definedName>
     <definedName name="software_list">'5_software_list'!$A$1:$C$51</definedName>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1873" uniqueCount="1273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1891" uniqueCount="1291">
   <si>
     <t>ID</t>
   </si>
@@ -4388,32 +4388,6 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ゴールデンカムイ　</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2024</t>
-    </r>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="Calibri"/>
@@ -4732,10 +4706,6 @@
   </si>
   <si>
     <t xml:space="preserve">Avatar </t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Watched it when I was a little kid. Updated 2024.04.01</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
@@ -5222,10 +5192,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>Steins Gate 0 (another series of Steins Gate)</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>保留中</t>
     <rPh sb="0" eb="3">
       <t>ホリュウチュウ</t>
@@ -5233,13 +5199,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>新世紀エヴァンゲリオン</t>
-    <rPh sb="0" eb="3">
-      <t>シンセイキ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>小林さんちのメイドラゴン</t>
     <rPh sb="0" eb="2">
       <t>コバヤシ</t>
@@ -5259,16 +5218,6 @@
   </si>
   <si>
     <t>https://myanimelist.net/anime/producer/2/Kyoto_Animation</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>探し方</t>
-    <rPh sb="0" eb="1">
-      <t>サガ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>カタ</t>
-    </rPh>
     <phoneticPr fontId="5"/>
   </si>
   <si>
@@ -5382,10 +5331,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>shougun.</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>STATUS</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -5475,6 +5420,157 @@
   </si>
   <si>
     <t>I Wish I Could Meet You Again on the Hill Where That Flower Blooms</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>2024.11.01</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Neon Genesis Evangelion (全26話)</t>
+    <rPh sb="25" eb="26">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Steins;Gate 0</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Steins Gate with different world line</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Shougun (Season 1, 10 episodes)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>2024.11.17</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>8.4/10</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ゴールデンカムイ　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2024</t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Brush Up Life</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Shitamachi Rocket</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>フルバージョンが見つけられない</t>
+    <rPh sb="8" eb="9">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>不向き</t>
+    <rPh sb="0" eb="2">
+      <t>フム</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>探し方。日本の人気のある映画評価サイト</t>
+    <rPh sb="0" eb="1">
+      <t>サガ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニホン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニンキ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>エイガヒョウカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>https://eiga.com/drama/series/shogun/review/6/</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Mathematic, Genius</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>8.5/10</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Watched it when I was a little kid with my cousins. Updated 2024.04.01</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>True Detective</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Deadpool &amp; Wolverine</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>2024.11.30</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>6.8/10</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Venom 2024. 
+評価が低いので、スキップする</t>
+    <rPh sb="13" eb="15">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヒク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>America Psycho　-&gt; skip</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Arrival 2016</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -5482,7 +5578,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5563,14 +5659,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -5715,6 +5803,21 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -5749,7 +5852,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5773,8 +5876,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5796,13 +5898,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -5812,22 +5914,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="56" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5844,25 +5946,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -6079,603 +6189,616 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1043"/>
+  <dimension ref="A1:D1037"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.7109375" customWidth="1"/>
     <col min="2" max="2" width="88.42578125" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" customWidth="1"/>
+    <col min="3" max="3" width="59.140625" customWidth="1"/>
     <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="50" t="s">
-        <v>1230</v>
+      <c r="B1" s="49" t="s">
+        <v>1226</v>
       </c>
     </row>
     <row r="2" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="48" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="48" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="48"/>
+    </row>
+    <row r="8" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="43" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="52" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="23" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="48" t="s">
         <v>1225</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="22" t="s">
+    <row r="12" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="23"/>
+    </row>
+    <row r="13" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="48" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
         <v>1227</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="49" t="s">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="49" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="49"/>
-    </row>
-    <row r="8" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="44" t="s">
-        <v>1145</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="30" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="24" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="49" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="24"/>
-    </row>
-    <row r="13" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="24"/>
-    </row>
-    <row r="14" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="49" t="s">
-        <v>1232</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>1235</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="10"/>
     </row>
     <row r="19" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="10"/>
+      <c r="B19" s="1"/>
     </row>
     <row r="20" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
+      <c r="B20" s="49" t="s">
+        <v>1223</v>
+      </c>
     </row>
     <row r="21" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="50" t="s">
-        <v>1226</v>
+      <c r="B21" s="11" t="s">
+        <v>1062</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="11" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>1061</v>
       </c>
     </row>
+    <row r="23" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="11" t="s">
+        <v>988</v>
+      </c>
+    </row>
     <row r="24" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="13"/>
+      <c r="B24" s="1" t="s">
+        <v>1012</v>
+      </c>
     </row>
     <row r="25" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="11" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B25" s="21" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
     <row r="27" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>1012</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="28" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="22" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B28" s="1" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>1010</v>
+      </c>
+    </row>
     <row r="30" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>39</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="31" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>1014</v>
+      </c>
+    </row>
     <row r="33" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
-        <v>1009</v>
+      <c r="B33" s="6" t="s">
+        <v>1167</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
-        <v>1010</v>
+      <c r="B34" s="6" t="s">
+        <v>1122</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>1126</v>
+      </c>
     </row>
     <row r="36" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
-        <v>1011</v>
+      <c r="B36" s="6" t="s">
+        <v>1121</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>1013</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="1" t="s">
-        <v>1014</v>
+      <c r="B38" s="6" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>1166</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="6" t="s">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="6" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="8" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="6" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="1" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="6" t="s">
-        <v>1224</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>1167</v>
-      </c>
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="8"/>
     </row>
     <row r="45" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="1"/>
-    </row>
-    <row r="46" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="8" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="37" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="1"/>
-    </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="8"/>
-    </row>
-    <row r="51" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="38" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="1" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="8"/>
+    </row>
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="43" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B53" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>1</v>
+      </c>
       <c r="B54" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="8"/>
-    </row>
-    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="44" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <f t="shared" ref="A55:A57" si="0">A54+1</f>
         <v>2</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>1</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <f t="shared" ref="A61:A63" si="0">A60+1</f>
-        <v>2</v>
-      </c>
-      <c r="B61" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="B57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
-        <v>1155</v>
+        <v>22</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B72" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="78" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B78" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="79" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="80" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="81" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="82" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="B82" s="1"/>
     </row>
     <row r="83" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="84" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
+      <c r="B83" s="1"/>
+    </row>
+    <row r="84" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="85" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="1" t="s">
-        <v>35</v>
+      <c r="B85" s="3" t="s">
+        <v>1221</v>
       </c>
     </row>
     <row r="86" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="87" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="88" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
-    </row>
-    <row r="89" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
-    </row>
+      <c r="B88" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="90" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="91" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="3" t="s">
-        <v>1223</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="92" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="93" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="94" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="95" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B94" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="1" t="s">
+        <v>987</v>
+      </c>
+    </row>
     <row r="97" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="3" t="s">
-        <v>1106</v>
+      <c r="B97" s="6" t="s">
+        <v>1008</v>
       </c>
     </row>
     <row r="98" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>43</v>
+      <c r="B98" s="6" t="s">
+        <v>1019</v>
       </c>
     </row>
     <row r="99" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="100" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="101" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="102" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="1" t="s">
-        <v>987</v>
+      <c r="B99" s="6" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" ht="55.5" x14ac:dyDescent="0.25">
+      <c r="B101" s="36" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C101" s="50" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B102" s="6" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>1169</v>
       </c>
     </row>
     <row r="103" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="6" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="104" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="6" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="105" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1020</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="6" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="107" spans="2:3" ht="55.5" x14ac:dyDescent="0.25">
-      <c r="B107" s="37" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C107" s="51" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="108" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B108" s="6" t="s">
-        <v>1169</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>1170</v>
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="B106" s="53" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C106" s="44" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="1" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C108" s="54" t="s">
+        <v>1278</v>
       </c>
     </row>
     <row r="109" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="6" t="s">
-        <v>1007</v>
+      <c r="B109" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>1277</v>
       </c>
     </row>
     <row r="110" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="6" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="111" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="6" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="112" spans="2:3" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="B112" s="24" t="s">
-        <v>1160</v>
-      </c>
-      <c r="C112" s="45" t="s">
-        <v>1172</v>
-      </c>
-    </row>
-    <row r="113" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="1" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="114" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B110" s="55" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="21" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="129" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="130" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="131" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7585,30 +7708,25 @@
     <row r="1035" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1036" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1037" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1038" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1039" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1040" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1041" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1042" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1043" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="5"/>
   <hyperlinks>
-    <hyperlink ref="B15" r:id="rId1" xr:uid="{84274C41-67A4-4C42-A214-2B8352868740}"/>
-    <hyperlink ref="B16" r:id="rId2" xr:uid="{EC16E6DB-BF4A-4A9B-93C6-121FD5F6D83E}"/>
-    <hyperlink ref="B17" r:id="rId3" xr:uid="{FF4AF8CB-4606-4702-B590-B95074E1C7F2}"/>
+    <hyperlink ref="B14" r:id="rId1" xr:uid="{84274C41-67A4-4C42-A214-2B8352868740}"/>
+    <hyperlink ref="B15" r:id="rId2" xr:uid="{EC16E6DB-BF4A-4A9B-93C6-121FD5F6D83E}"/>
+    <hyperlink ref="B16" r:id="rId3" xr:uid="{FF4AF8CB-4606-4702-B590-B95074E1C7F2}"/>
+    <hyperlink ref="B17" r:id="rId4" xr:uid="{B5CE4C32-7354-48AA-AA4F-F2B635E7F675}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G1007"/>
+  <dimension ref="A1:G1008"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A315" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B329" sqref="B329"/>
+    <sheetView tabSelected="1" topLeftCell="A322" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B153" sqref="B153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7616,8 +7734,8 @@
     <col min="1" max="1" width="7.5703125" customWidth="1"/>
     <col min="2" max="2" width="69.28515625" customWidth="1"/>
     <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="68.28515625" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="68.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="15" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="69.28515625" customWidth="1"/>
     <col min="8" max="26" width="8.7109375" customWidth="1"/>
@@ -7633,10 +7751,10 @@
       <c r="C1" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>51</v>
       </c>
       <c r="F1" s="8" t="s">
@@ -7764,7 +7882,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="C11" s="4"/>
       <c r="F11" s="1" t="s">
@@ -7806,7 +7924,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="C14" s="4"/>
       <c r="F14" s="1" t="s">
@@ -7845,7 +7963,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="C17" s="4"/>
       <c r="F17" s="1" t="s">
@@ -7996,6 +8114,9 @@
         <v>1151</v>
       </c>
       <c r="C29" s="4"/>
+      <c r="E29" s="16" t="s">
+        <v>1282</v>
+      </c>
       <c r="F29" s="1" t="s">
         <v>54</v>
       </c>
@@ -8073,7 +8194,7 @@
         <v>89</v>
       </c>
       <c r="C35" s="4"/>
-      <c r="D35" s="19">
+      <c r="D35" s="18">
         <v>40337</v>
       </c>
       <c r="F35" s="1" t="s">
@@ -8124,7 +8245,7 @@
         <v>93</v>
       </c>
       <c r="C39" s="4"/>
-      <c r="D39" s="19">
+      <c r="D39" s="18">
         <v>42366</v>
       </c>
       <c r="F39" s="1" t="s">
@@ -8139,7 +8260,7 @@
         <v>94</v>
       </c>
       <c r="C40" s="4"/>
-      <c r="D40" s="19">
+      <c r="D40" s="18">
         <v>42422</v>
       </c>
       <c r="F40" s="1" t="s">
@@ -8154,7 +8275,7 @@
         <v>1153</v>
       </c>
       <c r="C41" s="4"/>
-      <c r="D41" s="19">
+      <c r="D41" s="18">
         <v>42481</v>
       </c>
       <c r="F41" s="1" t="s">
@@ -8171,7 +8292,7 @@
       <c r="C42" s="4" t="s">
         <v>1079</v>
       </c>
-      <c r="D42" s="19">
+      <c r="D42" s="18">
         <v>42499</v>
       </c>
       <c r="F42" s="1" t="s">
@@ -8186,7 +8307,7 @@
         <v>96</v>
       </c>
       <c r="C43" s="4"/>
-      <c r="D43" s="19">
+      <c r="D43" s="18">
         <v>42526</v>
       </c>
       <c r="F43" s="1" t="s">
@@ -8201,7 +8322,7 @@
         <v>97</v>
       </c>
       <c r="C44" s="4"/>
-      <c r="D44" s="19">
+      <c r="D44" s="18">
         <v>42530</v>
       </c>
       <c r="F44" s="1" t="s">
@@ -8258,7 +8379,7 @@
       <c r="C48" s="4" t="s">
         <v>1077</v>
       </c>
-      <c r="E48" s="17" t="s">
+      <c r="E48" s="16" t="s">
         <v>102</v>
       </c>
       <c r="F48" s="1" t="s">
@@ -8285,10 +8406,10 @@
         <v>104</v>
       </c>
       <c r="C50" s="4"/>
-      <c r="D50" s="19">
+      <c r="D50" s="18">
         <v>42576</v>
       </c>
-      <c r="E50" s="17" t="s">
+      <c r="E50" s="16" t="s">
         <v>105</v>
       </c>
       <c r="F50" s="1" t="s">
@@ -8303,10 +8424,10 @@
         <v>106</v>
       </c>
       <c r="C51" s="4"/>
-      <c r="D51" s="19">
+      <c r="D51" s="18">
         <v>42579</v>
       </c>
-      <c r="E51" s="17" t="s">
+      <c r="E51" s="16" t="s">
         <v>107</v>
       </c>
       <c r="F51" s="1" t="s">
@@ -8326,10 +8447,10 @@
       <c r="C52" s="4" t="s">
         <v>1080</v>
       </c>
-      <c r="D52" s="19">
+      <c r="D52" s="18">
         <v>42468</v>
       </c>
-      <c r="E52" s="17" t="s">
+      <c r="E52" s="16" t="s">
         <v>110</v>
       </c>
       <c r="F52" s="1" t="s">
@@ -8346,10 +8467,10 @@
       <c r="C53" s="4" t="s">
         <v>1081</v>
       </c>
-      <c r="D53" s="19">
+      <c r="D53" s="18">
         <v>42498</v>
       </c>
-      <c r="E53" s="17" t="s">
+      <c r="E53" s="16" t="s">
         <v>112</v>
       </c>
       <c r="F53" s="1" t="s">
@@ -8366,10 +8487,10 @@
       <c r="C54" s="4" t="s">
         <v>1082</v>
       </c>
-      <c r="D54" s="19">
+      <c r="D54" s="18">
         <v>42529</v>
       </c>
-      <c r="E54" s="17" t="s">
+      <c r="E54" s="16" t="s">
         <v>114</v>
       </c>
       <c r="F54" s="1" t="s">
@@ -8386,10 +8507,10 @@
       <c r="C55" s="4">
         <v>1990</v>
       </c>
-      <c r="D55" s="19">
+      <c r="D55" s="18">
         <v>42651</v>
       </c>
-      <c r="E55" s="17" t="s">
+      <c r="E55" s="16" t="s">
         <v>114</v>
       </c>
       <c r="F55" s="1" t="s">
@@ -8406,10 +8527,10 @@
       <c r="C56" s="4">
         <v>2011</v>
       </c>
-      <c r="D56" s="19">
+      <c r="D56" s="18">
         <v>42682</v>
       </c>
-      <c r="E56" s="17" t="s">
+      <c r="E56" s="16" t="s">
         <v>117</v>
       </c>
       <c r="F56" s="1" t="s">
@@ -8429,10 +8550,10 @@
       <c r="C57" s="4" t="s">
         <v>1082</v>
       </c>
-      <c r="D57" s="19">
+      <c r="D57" s="18">
         <v>42712</v>
       </c>
-      <c r="E57" s="17" t="s">
+      <c r="E57" s="16" t="s">
         <v>120</v>
       </c>
       <c r="F57" s="1" t="s">
@@ -8452,7 +8573,7 @@
       <c r="C58" s="4" t="s">
         <v>1082</v>
       </c>
-      <c r="D58" s="19">
+      <c r="D58" s="18">
         <v>42605</v>
       </c>
       <c r="F58" s="1" t="s">
@@ -8469,10 +8590,10 @@
       <c r="C59" s="4" t="s">
         <v>1083</v>
       </c>
-      <c r="D59" s="19">
+      <c r="D59" s="18">
         <v>42560</v>
       </c>
-      <c r="E59" s="17" t="s">
+      <c r="E59" s="16" t="s">
         <v>124</v>
       </c>
       <c r="F59" s="1" t="s">
@@ -8489,10 +8610,10 @@
       <c r="C60" s="4">
         <v>2002</v>
       </c>
-      <c r="D60" s="19">
+      <c r="D60" s="18">
         <v>42628</v>
       </c>
-      <c r="E60" s="17" t="s">
+      <c r="E60" s="16" t="s">
         <v>126</v>
       </c>
       <c r="F60" s="1" t="s">
@@ -8512,10 +8633,10 @@
       <c r="C61" s="4" t="s">
         <v>1084</v>
       </c>
-      <c r="D61" s="19">
+      <c r="D61" s="18">
         <v>42665</v>
       </c>
-      <c r="E61" s="17" t="s">
+      <c r="E61" s="16" t="s">
         <v>129</v>
       </c>
       <c r="F61" s="1" t="s">
@@ -8542,10 +8663,10 @@
         <v>131</v>
       </c>
       <c r="C63" s="4"/>
-      <c r="D63" s="19">
+      <c r="D63" s="18">
         <v>42751</v>
       </c>
-      <c r="E63" s="17" t="s">
+      <c r="E63" s="16" t="s">
         <v>132</v>
       </c>
       <c r="F63" s="1" t="s">
@@ -8560,7 +8681,7 @@
         <v>133</v>
       </c>
       <c r="C64" s="4"/>
-      <c r="D64" s="19">
+      <c r="D64" s="18">
         <v>42753</v>
       </c>
       <c r="F64" s="1" t="s">
@@ -8577,10 +8698,10 @@
       <c r="C65" s="4" t="s">
         <v>1082</v>
       </c>
-      <c r="D65" s="19">
+      <c r="D65" s="18">
         <v>42756</v>
       </c>
-      <c r="E65" s="17" t="s">
+      <c r="E65" s="16" t="s">
         <v>135</v>
       </c>
       <c r="F65" s="1" t="s">
@@ -8595,7 +8716,7 @@
         <v>136</v>
       </c>
       <c r="C66" s="4"/>
-      <c r="D66" s="19">
+      <c r="D66" s="18">
         <v>42756</v>
       </c>
       <c r="F66" s="1" t="s">
@@ -8615,10 +8736,10 @@
       <c r="C67" s="4" t="s">
         <v>1098</v>
       </c>
-      <c r="D67" s="19">
+      <c r="D67" s="18">
         <v>42757</v>
       </c>
-      <c r="E67" s="17" t="s">
+      <c r="E67" s="16" t="s">
         <v>110</v>
       </c>
       <c r="F67" s="1" t="s">
@@ -8635,10 +8756,10 @@
       <c r="C68" s="4">
         <v>2010</v>
       </c>
-      <c r="D68" s="19">
+      <c r="D68" s="18">
         <v>42758</v>
       </c>
-      <c r="E68" s="17" t="s">
+      <c r="E68" s="16" t="s">
         <v>140</v>
       </c>
       <c r="F68" s="1" t="s">
@@ -8655,10 +8776,10 @@
       <c r="C69" s="4">
         <v>2016</v>
       </c>
-      <c r="D69" s="19">
+      <c r="D69" s="18">
         <v>42765</v>
       </c>
-      <c r="E69" s="17" t="s">
+      <c r="E69" s="16" t="s">
         <v>142</v>
       </c>
       <c r="F69" s="1" t="s">
@@ -8675,10 +8796,10 @@
       <c r="C70" s="4">
         <v>1995</v>
       </c>
-      <c r="D70" s="19">
+      <c r="D70" s="18">
         <v>42768</v>
       </c>
-      <c r="E70" s="17" t="s">
+      <c r="E70" s="16" t="s">
         <v>144</v>
       </c>
       <c r="F70" s="1" t="s">
@@ -8695,7 +8816,7 @@
       <c r="C71" s="4">
         <v>1987</v>
       </c>
-      <c r="D71" s="19">
+      <c r="D71" s="18">
         <v>42829</v>
       </c>
       <c r="F71" s="1" t="s">
@@ -8715,10 +8836,10 @@
       <c r="C72" s="4" t="s">
         <v>1085</v>
       </c>
-      <c r="D72" s="19">
+      <c r="D72" s="18">
         <v>42838</v>
       </c>
-      <c r="E72" s="17" t="s">
+      <c r="E72" s="16" t="s">
         <v>1149</v>
       </c>
       <c r="F72" s="1" t="s">
@@ -8735,10 +8856,10 @@
       <c r="C73" s="4" t="s">
         <v>1086</v>
       </c>
-      <c r="D73" s="19">
+      <c r="D73" s="18">
         <v>42963</v>
       </c>
-      <c r="E73" s="17" t="s">
+      <c r="E73" s="16" t="s">
         <v>149</v>
       </c>
       <c r="F73" s="1" t="s">
@@ -8758,10 +8879,10 @@
       <c r="C74" s="4" t="s">
         <v>1087</v>
       </c>
-      <c r="D74" s="19">
+      <c r="D74" s="18">
         <v>42980</v>
       </c>
-      <c r="E74" s="17" t="s">
+      <c r="E74" s="16" t="s">
         <v>152</v>
       </c>
       <c r="F74" s="1" t="s">
@@ -8778,10 +8899,10 @@
       <c r="C75" s="4" t="s">
         <v>1087</v>
       </c>
-      <c r="D75" s="19">
+      <c r="D75" s="18">
         <v>43007</v>
       </c>
-      <c r="E75" s="17" t="s">
+      <c r="E75" s="16" t="s">
         <v>154</v>
       </c>
       <c r="F75" s="1" t="s">
@@ -8798,27 +8919,27 @@
       <c r="C76" s="4" t="s">
         <v>1086</v>
       </c>
-      <c r="D76" s="19">
+      <c r="D76" s="18">
         <v>43019</v>
       </c>
-      <c r="E76" s="17" t="s">
+      <c r="E76" s="16" t="s">
         <v>149</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="77" spans="1:7" s="33" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="33" t="s">
-        <v>1187</v>
-      </c>
-      <c r="C77" s="46">
+    <row r="77" spans="1:7" s="32" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="32" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C77" s="45">
         <v>2009</v>
       </c>
-      <c r="D77" s="34"/>
-      <c r="E77" s="47"/>
-      <c r="G77" s="33" t="s">
-        <v>1188</v>
+      <c r="D77" s="33"/>
+      <c r="E77" s="46"/>
+      <c r="G77" s="32" t="s">
+        <v>1283</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -8830,7 +8951,7 @@
         <v>156</v>
       </c>
       <c r="C78" s="4"/>
-      <c r="D78" s="19">
+      <c r="D78" s="18">
         <v>43043</v>
       </c>
       <c r="F78" s="1" t="s">
@@ -8863,10 +8984,10 @@
       <c r="C80" s="4">
         <v>2017</v>
       </c>
-      <c r="D80" s="19">
+      <c r="D80" s="18">
         <v>43072</v>
       </c>
-      <c r="E80" s="17" t="s">
+      <c r="E80" s="16" t="s">
         <v>160</v>
       </c>
       <c r="F80" s="1" t="s">
@@ -8884,10 +9005,10 @@
       <c r="C81" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="D81" s="19">
+      <c r="D81" s="18">
         <v>43076</v>
       </c>
-      <c r="E81" s="17" t="s">
+      <c r="E81" s="16" t="s">
         <v>149</v>
       </c>
       <c r="F81" s="1" t="s">
@@ -8908,10 +9029,10 @@
       <c r="C82" s="4">
         <v>2009</v>
       </c>
-      <c r="D82" s="19">
+      <c r="D82" s="18">
         <v>43086</v>
       </c>
-      <c r="E82" s="17" t="s">
+      <c r="E82" s="16" t="s">
         <v>110</v>
       </c>
       <c r="F82" s="1" t="s">
@@ -8929,10 +9050,10 @@
       <c r="C83" s="4">
         <v>2001</v>
       </c>
-      <c r="D83" s="31">
+      <c r="D83" s="30">
         <v>43090</v>
       </c>
-      <c r="E83" s="17" t="s">
+      <c r="E83" s="16" t="s">
         <v>149</v>
       </c>
       <c r="F83" s="1" t="s">
@@ -8953,10 +9074,10 @@
       <c r="C84" s="4" t="s">
         <v>1085</v>
       </c>
-      <c r="D84" s="19">
+      <c r="D84" s="18">
         <v>43092</v>
       </c>
-      <c r="E84" s="17" t="s">
+      <c r="E84" s="16" t="s">
         <v>142</v>
       </c>
       <c r="F84" s="1" t="s">
@@ -8975,7 +9096,7 @@
         <v>168</v>
       </c>
       <c r="C85" s="4"/>
-      <c r="D85" s="19">
+      <c r="D85" s="18">
         <v>43070</v>
       </c>
       <c r="F85" s="1" t="s">
@@ -8996,10 +9117,10 @@
       <c r="C86" s="4">
         <v>2017</v>
       </c>
-      <c r="D86" s="19">
+      <c r="D86" s="18">
         <v>43096</v>
       </c>
-      <c r="E86" s="17" t="s">
+      <c r="E86" s="16" t="s">
         <v>171</v>
       </c>
       <c r="F86" s="1" t="s">
@@ -9031,7 +9152,7 @@
         <v>174</v>
       </c>
       <c r="C88" s="4"/>
-      <c r="E88" s="17" t="s">
+      <c r="E88" s="16" t="s">
         <v>175</v>
       </c>
       <c r="F88" s="1" t="s">
@@ -9052,10 +9173,10 @@
       <c r="C89" s="4">
         <v>2017</v>
       </c>
-      <c r="D89" s="19">
+      <c r="D89" s="18">
         <v>43111</v>
       </c>
-      <c r="E89" s="17" t="s">
+      <c r="E89" s="16" t="s">
         <v>178</v>
       </c>
       <c r="F89" s="1" t="s">
@@ -9074,7 +9195,7 @@
         <v>180</v>
       </c>
       <c r="C90" s="4"/>
-      <c r="D90" s="19">
+      <c r="D90" s="18">
         <v>43127</v>
       </c>
       <c r="F90" s="1" t="s">
@@ -9093,10 +9214,10 @@
         <v>182</v>
       </c>
       <c r="C91" s="4"/>
-      <c r="D91" s="19">
+      <c r="D91" s="18">
         <v>43137</v>
       </c>
-      <c r="E91" s="17" t="s">
+      <c r="E91" s="16" t="s">
         <v>183</v>
       </c>
       <c r="F91" s="1" t="s">
@@ -9112,7 +9233,7 @@
         <v>184</v>
       </c>
       <c r="C92" s="4"/>
-      <c r="D92" s="19">
+      <c r="D92" s="18">
         <v>43138</v>
       </c>
       <c r="F92" s="1" t="s">
@@ -9133,10 +9254,10 @@
       <c r="C93" s="4">
         <v>2017</v>
       </c>
-      <c r="D93" s="19">
+      <c r="D93" s="18">
         <v>43177</v>
       </c>
-      <c r="E93" s="17" t="s">
+      <c r="E93" s="16" t="s">
         <v>187</v>
       </c>
       <c r="F93" s="1" t="s">
@@ -9154,10 +9275,10 @@
       <c r="C94" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D94" s="19">
+      <c r="D94" s="18">
         <v>43194</v>
       </c>
-      <c r="E94" s="17" t="s">
+      <c r="E94" s="16" t="s">
         <v>190</v>
       </c>
       <c r="F94" s="1" t="s">
@@ -9178,10 +9299,10 @@
       <c r="C95" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D95" s="19">
+      <c r="D95" s="18">
         <v>43204</v>
       </c>
-      <c r="E95" s="17" t="s">
+      <c r="E95" s="16" t="s">
         <v>194</v>
       </c>
       <c r="F95" s="1" t="s">
@@ -9199,10 +9320,10 @@
       <c r="C96" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="D96" s="19">
+      <c r="D96" s="18">
         <v>43230</v>
       </c>
-      <c r="E96" s="17" t="s">
+      <c r="E96" s="16" t="s">
         <v>152</v>
       </c>
       <c r="F96" s="1" t="s">
@@ -9223,10 +9344,10 @@
       <c r="C97" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D97" s="19">
+      <c r="D97" s="18">
         <v>43252</v>
       </c>
-      <c r="E97" s="17" t="s">
+      <c r="E97" s="16" t="s">
         <v>154</v>
       </c>
       <c r="F97" s="1" t="s">
@@ -9247,10 +9368,10 @@
       <c r="C98" s="4">
         <v>1999</v>
       </c>
-      <c r="D98" s="19">
+      <c r="D98" s="18">
         <v>43253</v>
       </c>
-      <c r="E98" s="17" t="s">
+      <c r="E98" s="16" t="s">
         <v>201</v>
       </c>
       <c r="F98" s="1" t="s">
@@ -9268,7 +9389,7 @@
       <c r="C99" s="4">
         <v>2018</v>
       </c>
-      <c r="E99" s="17" t="s">
+      <c r="E99" s="16" t="s">
         <v>194</v>
       </c>
       <c r="F99" s="1" t="s">
@@ -9286,7 +9407,7 @@
       <c r="C100" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="D100" s="19">
+      <c r="D100" s="18">
         <v>43290</v>
       </c>
       <c r="F100" s="1" t="s">
@@ -9307,10 +9428,10 @@
       <c r="C101" s="4">
         <v>2018</v>
       </c>
-      <c r="D101" s="19">
+      <c r="D101" s="18">
         <v>43291</v>
       </c>
-      <c r="E101" s="17" t="s">
+      <c r="E101" s="16" t="s">
         <v>194</v>
       </c>
       <c r="F101" s="1" t="s">
@@ -9331,10 +9452,10 @@
       <c r="C102" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="D102" s="19">
+      <c r="D102" s="18">
         <v>43297</v>
       </c>
-      <c r="E102" s="17" t="s">
+      <c r="E102" s="16" t="s">
         <v>209</v>
       </c>
       <c r="F102" s="1" t="s">
@@ -9352,7 +9473,7 @@
       <c r="C103" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="D103" s="19">
+      <c r="D103" s="18">
         <v>43303</v>
       </c>
       <c r="F103" s="1" t="s">
@@ -9391,7 +9512,7 @@
       <c r="C105" s="4">
         <v>2004</v>
       </c>
-      <c r="D105" s="19">
+      <c r="D105" s="18">
         <v>43302</v>
       </c>
       <c r="F105" s="1" t="s">
@@ -9412,7 +9533,7 @@
       <c r="C106" s="4">
         <v>2006</v>
       </c>
-      <c r="D106" s="19">
+      <c r="D106" s="18">
         <v>43304</v>
       </c>
       <c r="F106" s="1" t="s">
@@ -9430,7 +9551,7 @@
       <c r="C107" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="D107" s="19">
+      <c r="D107" s="18">
         <v>43305</v>
       </c>
       <c r="F107" s="1" t="s">
@@ -9464,32 +9585,32 @@
       <c r="C109" s="4">
         <v>2011</v>
       </c>
-      <c r="D109" s="19">
+      <c r="D109" s="18">
         <v>43309</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="110" spans="1:7" s="40" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A110" s="39">
+    <row r="110" spans="1:7" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A110" s="38">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
-      <c r="B110" s="40" t="s">
+      <c r="B110" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="C110" s="41">
+      <c r="C110" s="40">
         <v>1995</v>
       </c>
-      <c r="D110" s="19">
+      <c r="D110" s="18">
         <v>43310</v>
       </c>
-      <c r="E110" s="42"/>
-      <c r="F110" s="39" t="s">
+      <c r="E110" s="41"/>
+      <c r="F110" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="G110" s="43" t="s">
+      <c r="G110" s="42" t="s">
         <v>1127</v>
       </c>
     </row>
@@ -9504,7 +9625,7 @@
       <c r="C111" s="4" t="s">
         <v>1047</v>
       </c>
-      <c r="D111" s="19">
+      <c r="D111" s="18">
         <v>43319</v>
       </c>
       <c r="F111" s="1" t="s">
@@ -9522,7 +9643,7 @@
       <c r="C112" s="4" t="s">
         <v>1048</v>
       </c>
-      <c r="D112" s="19">
+      <c r="D112" s="18">
         <v>43327</v>
       </c>
       <c r="F112" s="1" t="s">
@@ -9543,7 +9664,7 @@
       <c r="C113" s="4" t="s">
         <v>1100</v>
       </c>
-      <c r="D113" s="19">
+      <c r="D113" s="18">
         <v>43346</v>
       </c>
       <c r="F113" s="1" t="s">
@@ -9561,10 +9682,10 @@
       <c r="C114" s="4" t="s">
         <v>1101</v>
       </c>
-      <c r="D114" s="19">
+      <c r="D114" s="18">
         <v>43353</v>
       </c>
-      <c r="E114" s="17" t="s">
+      <c r="E114" s="16" t="s">
         <v>226</v>
       </c>
       <c r="F114" s="1" t="s">
@@ -9585,7 +9706,7 @@
       <c r="C115" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D115" s="19">
+      <c r="D115" s="18">
         <v>43373</v>
       </c>
       <c r="F115" s="1" t="s">
@@ -9603,7 +9724,7 @@
       <c r="C116" s="4" t="s">
         <v>1089</v>
       </c>
-      <c r="D116" s="19">
+      <c r="D116" s="18">
         <v>43375</v>
       </c>
       <c r="F116" s="1" t="s">
@@ -9615,16 +9736,16 @@
         <f>'2_watched_movies'!A116+1</f>
         <v>115</v>
       </c>
-      <c r="B117" s="24" t="s">
+      <c r="B117" s="23" t="s">
         <v>229</v>
       </c>
       <c r="C117" s="4">
         <v>2016</v>
       </c>
-      <c r="D117" s="19">
+      <c r="D117" s="18">
         <v>43387</v>
       </c>
-      <c r="E117" s="17" t="s">
+      <c r="E117" s="16" t="s">
         <v>230</v>
       </c>
       <c r="F117" s="1" t="s">
@@ -9645,7 +9766,7 @@
       <c r="C118" s="4">
         <v>1999</v>
       </c>
-      <c r="D118" s="19">
+      <c r="D118" s="18">
         <v>43389</v>
       </c>
       <c r="F118" s="1" t="s">
@@ -9663,7 +9784,7 @@
       <c r="C119" s="4">
         <v>2018</v>
       </c>
-      <c r="D119" s="19">
+      <c r="D119" s="18">
         <v>43416</v>
       </c>
       <c r="F119" s="1" t="s">
@@ -9681,7 +9802,7 @@
       <c r="C120" s="4">
         <v>2018</v>
       </c>
-      <c r="D120" s="19">
+      <c r="D120" s="18">
         <v>43438</v>
       </c>
       <c r="F120" s="1" t="s">
@@ -9699,10 +9820,10 @@
       <c r="C121" s="4">
         <v>2018</v>
       </c>
-      <c r="D121" s="19">
+      <c r="D121" s="18">
         <v>43450</v>
       </c>
-      <c r="E121" s="17" t="s">
+      <c r="E121" s="16" t="s">
         <v>235</v>
       </c>
       <c r="F121" s="1" t="s">
@@ -9717,13 +9838,13 @@
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="B122" s="24" t="s">
+      <c r="B122" s="23" t="s">
         <v>237</v>
       </c>
       <c r="C122" s="4">
         <v>2001</v>
       </c>
-      <c r="D122" s="19">
+      <c r="D122" s="18">
         <v>43461</v>
       </c>
       <c r="F122" s="1" t="s">
@@ -9744,7 +9865,7 @@
       <c r="C123" s="4">
         <v>2004</v>
       </c>
-      <c r="D123" s="19">
+      <c r="D123" s="18">
         <v>43468</v>
       </c>
       <c r="F123" s="1" t="s">
@@ -9762,7 +9883,7 @@
       <c r="C124" s="4" t="s">
         <v>1090</v>
       </c>
-      <c r="D124" s="19">
+      <c r="D124" s="18">
         <v>43470</v>
       </c>
       <c r="F124" s="1" t="s">
@@ -9780,7 +9901,7 @@
       <c r="C125" s="4" t="s">
         <v>1091</v>
       </c>
-      <c r="D125" s="19">
+      <c r="D125" s="18">
         <v>43513</v>
       </c>
       <c r="F125" s="1" t="s">
@@ -9798,7 +9919,7 @@
       <c r="C126" s="4">
         <v>2016</v>
       </c>
-      <c r="D126" s="19">
+      <c r="D126" s="18">
         <v>43528</v>
       </c>
       <c r="F126" s="1" t="s">
@@ -9819,7 +9940,7 @@
       <c r="C127" s="4" t="s">
         <v>1091</v>
       </c>
-      <c r="D127" s="19">
+      <c r="D127" s="18">
         <v>43582</v>
       </c>
       <c r="F127" s="1" t="s">
@@ -9837,7 +9958,7 @@
       <c r="C128" s="4" t="s">
         <v>1092</v>
       </c>
-      <c r="D128" s="19">
+      <c r="D128" s="18">
         <v>43590</v>
       </c>
       <c r="F128" s="1" t="s">
@@ -9855,7 +9976,7 @@
       <c r="C129" s="4" t="s">
         <v>1091</v>
       </c>
-      <c r="D129" s="19">
+      <c r="D129" s="18">
         <v>43617</v>
       </c>
       <c r="F129" s="1" t="s">
@@ -9891,7 +10012,7 @@
       <c r="C131" s="4">
         <v>2019</v>
       </c>
-      <c r="D131" s="19">
+      <c r="D131" s="18">
         <v>43708</v>
       </c>
       <c r="F131" s="1" t="s">
@@ -10148,11 +10269,11 @@
         <f>'2_watched_movies'!A149+1</f>
         <v>148</v>
       </c>
-      <c r="B150" s="24" t="s">
+      <c r="B150" s="23" t="s">
         <v>1074</v>
       </c>
-      <c r="C150" s="23"/>
-      <c r="D150" s="20"/>
+      <c r="C150" s="22"/>
+      <c r="D150" s="19"/>
       <c r="F150" s="1" t="s">
         <v>248</v>
       </c>
@@ -10212,7 +10333,7 @@
         <v>248</v>
       </c>
       <c r="G154" s="12" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -10266,11 +10387,14 @@
         <v>273</v>
       </c>
       <c r="C158" s="4"/>
-      <c r="D158" s="29" t="s">
+      <c r="D158" s="28" t="s">
         <v>274</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>248</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>1281</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -10661,7 +10785,7 @@
         <v>305</v>
       </c>
       <c r="C188" s="4"/>
-      <c r="E188" s="17" t="s">
+      <c r="E188" s="16" t="s">
         <v>306</v>
       </c>
       <c r="F188" s="1" t="s">
@@ -10679,10 +10803,10 @@
       <c r="C189" s="4" t="s">
         <v>1134</v>
       </c>
-      <c r="D189" s="19">
+      <c r="D189" s="18">
         <v>42797</v>
       </c>
-      <c r="E189" s="17" t="s">
+      <c r="E189" s="16" t="s">
         <v>171</v>
       </c>
       <c r="F189" s="1" t="s">
@@ -10869,10 +10993,10 @@
       <c r="C203" s="4" t="s">
         <v>1135</v>
       </c>
-      <c r="D203" s="19">
+      <c r="D203" s="18">
         <v>42925</v>
       </c>
-      <c r="E203" s="17" t="s">
+      <c r="E203" s="16" t="s">
         <v>110</v>
       </c>
       <c r="F203" s="1" t="s">
@@ -10968,7 +11092,7 @@
         <v>345</v>
       </c>
       <c r="C209" s="4"/>
-      <c r="D209" s="19">
+      <c r="D209" s="18">
         <v>43071</v>
       </c>
       <c r="F209" s="1" t="s">
@@ -11235,11 +11359,11 @@
         <f>'2_watched_movies'!A227+1</f>
         <v>226</v>
       </c>
-      <c r="B228" s="30" t="s">
+      <c r="B228" s="29" t="s">
         <v>380</v>
       </c>
-      <c r="C228" s="23"/>
-      <c r="D228" s="20"/>
+      <c r="C228" s="22"/>
+      <c r="D228" s="19"/>
       <c r="F228" s="1" t="s">
         <v>370</v>
       </c>
@@ -11336,7 +11460,7 @@
       <c r="C235" s="4">
         <v>2021</v>
       </c>
-      <c r="D235" s="19">
+      <c r="D235" s="18">
         <v>44303</v>
       </c>
     </row>
@@ -11351,10 +11475,10 @@
       <c r="C236" s="4">
         <v>2021</v>
       </c>
-      <c r="D236" s="19">
+      <c r="D236" s="18">
         <v>44332</v>
       </c>
-      <c r="E236" s="17" t="s">
+      <c r="E236" s="16" t="s">
         <v>391</v>
       </c>
     </row>
@@ -11369,10 +11493,10 @@
       <c r="C237" s="4">
         <v>2011</v>
       </c>
-      <c r="D237" s="19">
+      <c r="D237" s="18">
         <v>44340</v>
       </c>
-      <c r="E237" s="17" t="s">
+      <c r="E237" s="16" t="s">
         <v>393</v>
       </c>
       <c r="G237" s="1" t="s">
@@ -11388,10 +11512,10 @@
         <v>395</v>
       </c>
       <c r="C238" s="4"/>
-      <c r="D238" s="19">
+      <c r="D238" s="18">
         <v>44343</v>
       </c>
-      <c r="E238" s="17" t="s">
+      <c r="E238" s="16" t="s">
         <v>396</v>
       </c>
       <c r="G238" s="1" t="s">
@@ -11409,7 +11533,7 @@
       <c r="C239" s="4">
         <v>1986</v>
       </c>
-      <c r="D239" s="19">
+      <c r="D239" s="18">
         <v>44351</v>
       </c>
     </row>
@@ -11418,13 +11542,13 @@
         <f>'2_watched_movies'!A239+1</f>
         <v>238</v>
       </c>
-      <c r="B240" s="24" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C240" s="23">
+      <c r="B240" s="23" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C240" s="22">
         <v>1997</v>
       </c>
-      <c r="D240" s="19">
+      <c r="D240" s="18">
         <v>44346</v>
       </c>
       <c r="F240" s="1" t="s">
@@ -11440,7 +11564,7 @@
         <v>400</v>
       </c>
       <c r="C241" s="4"/>
-      <c r="D241" s="19">
+      <c r="D241" s="18">
         <v>44380</v>
       </c>
       <c r="F241" s="1" t="s">
@@ -11459,10 +11583,10 @@
         <v>402</v>
       </c>
       <c r="C242" s="4"/>
-      <c r="D242" s="19">
+      <c r="D242" s="18">
         <v>44380</v>
       </c>
-      <c r="E242" s="17" t="s">
+      <c r="E242" s="16" t="s">
         <v>403</v>
       </c>
       <c r="F242" s="1" t="s">
@@ -11483,7 +11607,7 @@
       <c r="C243" s="4">
         <v>2021</v>
       </c>
-      <c r="D243" s="19">
+      <c r="D243" s="18">
         <v>44401</v>
       </c>
       <c r="G243" s="1" t="s">
@@ -11505,11 +11629,11 @@
         <f t="shared" si="7"/>
         <v>243</v>
       </c>
-      <c r="B245" s="30" t="s">
+      <c r="B245" s="29" t="s">
         <v>1137</v>
       </c>
       <c r="C245" s="4"/>
-      <c r="D245" s="29" t="s">
+      <c r="D245" s="28" t="s">
         <v>1119</v>
       </c>
       <c r="G245" s="12" t="s">
@@ -11689,7 +11813,7 @@
         <v>1102</v>
       </c>
       <c r="C260" s="4"/>
-      <c r="D260" s="19">
+      <c r="D260" s="18">
         <v>44437</v>
       </c>
       <c r="G260" s="1" t="s">
@@ -11733,11 +11857,11 @@
         <f>'2_watched_movies'!A262+1</f>
         <v>261</v>
       </c>
-      <c r="B263" s="24" t="s">
+      <c r="B263" s="23" t="s">
         <v>430</v>
       </c>
-      <c r="C263" s="23"/>
-      <c r="D263" s="20"/>
+      <c r="C263" s="22"/>
+      <c r="D263" s="19"/>
     </row>
     <row r="264" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
@@ -11825,14 +11949,14 @@
         <f t="shared" si="8"/>
         <v>268</v>
       </c>
-      <c r="B270" s="30" t="s">
+      <c r="B270" s="29" t="s">
         <v>440</v>
       </c>
       <c r="C270" s="4"/>
-      <c r="D270" s="19">
+      <c r="D270" s="18">
         <v>44448</v>
       </c>
-      <c r="E270" s="17" t="s">
+      <c r="E270" s="16" t="s">
         <v>403</v>
       </c>
       <c r="F270" s="1" t="s">
@@ -11869,11 +11993,11 @@
         <f>'2_watched_movies'!A272+1</f>
         <v>271</v>
       </c>
-      <c r="B273" s="24" t="s">
-        <v>1210</v>
-      </c>
-      <c r="C273" s="23"/>
-      <c r="D273" s="20"/>
+      <c r="B273" s="23" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C273" s="22"/>
+      <c r="D273" s="19"/>
     </row>
     <row r="274" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
@@ -11884,7 +12008,7 @@
         <v>444</v>
       </c>
       <c r="C274" s="4"/>
-      <c r="D274" s="19">
+      <c r="D274" s="18">
         <v>44550</v>
       </c>
     </row>
@@ -11979,7 +12103,7 @@
         <v>453</v>
       </c>
       <c r="C282" s="4"/>
-      <c r="D282" s="19">
+      <c r="D282" s="18">
         <v>44458</v>
       </c>
       <c r="G282" s="1" t="s">
@@ -11997,10 +12121,10 @@
       <c r="C283" s="4">
         <v>2019</v>
       </c>
-      <c r="D283" s="19">
+      <c r="D283" s="18">
         <v>44499</v>
       </c>
-      <c r="E283" s="17" t="s">
+      <c r="E283" s="16" t="s">
         <v>456</v>
       </c>
     </row>
@@ -12015,10 +12139,10 @@
       <c r="C284" s="4">
         <v>2021</v>
       </c>
-      <c r="D284" s="19">
+      <c r="D284" s="18">
         <v>44520</v>
       </c>
-      <c r="E284" s="17" t="s">
+      <c r="E284" s="16" t="s">
         <v>458</v>
       </c>
     </row>
@@ -12033,10 +12157,10 @@
       <c r="C285" s="4">
         <v>2013</v>
       </c>
-      <c r="D285" s="19">
+      <c r="D285" s="18">
         <v>44545</v>
       </c>
-      <c r="E285" s="17" t="s">
+      <c r="E285" s="16" t="s">
         <v>142</v>
       </c>
     </row>
@@ -12051,10 +12175,10 @@
       <c r="C286" s="4">
         <v>2021</v>
       </c>
-      <c r="D286" s="19">
+      <c r="D286" s="18">
         <v>44548</v>
       </c>
-      <c r="E286" s="17" t="s">
+      <c r="E286" s="16" t="s">
         <v>461</v>
       </c>
       <c r="G286" s="1" t="s">
@@ -12106,17 +12230,17 @@
     <row r="291" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
       <c r="B291" s="8" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C291" s="4"/>
+      <c r="D291" s="28" t="s">
         <v>1189</v>
       </c>
-      <c r="C291" s="4"/>
-      <c r="D291" s="29" t="s">
-        <v>1191</v>
-      </c>
-      <c r="E291" s="17" t="s">
-        <v>1192</v>
+      <c r="E291" s="16" t="s">
+        <v>1190</v>
       </c>
       <c r="G291" s="1" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="292" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12125,12 +12249,12 @@
         <v>289</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="C292" s="4">
         <v>2021</v>
       </c>
-      <c r="D292" s="29" t="s">
+      <c r="D292" s="28" t="s">
         <v>467</v>
       </c>
       <c r="G292" s="1" t="s">
@@ -12142,11 +12266,11 @@
         <f>'2_watched_movies'!A292+1</f>
         <v>290</v>
       </c>
-      <c r="B293" s="30" t="s">
+      <c r="B293" s="29" t="s">
         <v>469</v>
       </c>
-      <c r="C293" s="23"/>
-      <c r="D293" s="21" t="s">
+      <c r="C293" s="22"/>
+      <c r="D293" s="20" t="s">
         <v>1003</v>
       </c>
       <c r="G293" s="1" t="s">
@@ -12158,11 +12282,11 @@
         <f>A293+1</f>
         <v>291</v>
       </c>
-      <c r="B294" s="30" t="s">
-        <v>1203</v>
-      </c>
-      <c r="C294" s="23"/>
-      <c r="D294" s="20"/>
+      <c r="B294" s="29" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C294" s="22"/>
+      <c r="D294" s="19"/>
     </row>
     <row r="295" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
@@ -12170,12 +12294,12 @@
         <v>292</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="C295" s="4">
         <v>2022</v>
       </c>
-      <c r="D295" s="29" t="s">
+      <c r="D295" s="28" t="s">
         <v>471</v>
       </c>
       <c r="G295" s="1" t="s">
@@ -12191,10 +12315,10 @@
         <v>473</v>
       </c>
       <c r="C296" s="4"/>
-      <c r="D296" s="29" t="s">
+      <c r="D296" s="28" t="s">
         <v>474</v>
       </c>
-      <c r="E296" s="23">
+      <c r="E296" s="22">
         <v>7</v>
       </c>
       <c r="G296" s="1" t="s">
@@ -12206,13 +12330,13 @@
         <f>'2_watched_movies'!A296+1</f>
         <v>294</v>
       </c>
-      <c r="B297" s="24" t="s">
+      <c r="B297" s="23" t="s">
         <v>476</v>
       </c>
       <c r="C297" s="4">
         <v>2021</v>
       </c>
-      <c r="D297" s="21" t="s">
+      <c r="D297" s="20" t="s">
         <v>477</v>
       </c>
       <c r="G297" s="1" t="s">
@@ -12234,13 +12358,13 @@
         <f>'2_watched_movies'!A298+1</f>
         <v>296</v>
       </c>
-      <c r="B299" s="24" t="s">
+      <c r="B299" s="23" t="s">
         <v>476</v>
       </c>
       <c r="C299" s="4">
         <v>2021</v>
       </c>
-      <c r="D299" s="21" t="s">
+      <c r="D299" s="20" t="s">
         <v>999</v>
       </c>
       <c r="G299" s="1" t="s">
@@ -12258,10 +12382,10 @@
       <c r="C300" s="4">
         <v>2014</v>
       </c>
-      <c r="D300" s="29" t="s">
+      <c r="D300" s="28" t="s">
         <v>480</v>
       </c>
-      <c r="E300" s="17">
+      <c r="E300" s="16">
         <v>6</v>
       </c>
     </row>
@@ -12276,10 +12400,10 @@
       <c r="C301" s="4">
         <v>2022</v>
       </c>
-      <c r="D301" s="29" t="s">
+      <c r="D301" s="28" t="s">
         <v>482</v>
       </c>
-      <c r="E301" s="17">
+      <c r="E301" s="16">
         <v>7.3</v>
       </c>
     </row>
@@ -12289,12 +12413,12 @@
         <v>298</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="C302" s="4">
         <v>2022</v>
       </c>
-      <c r="D302" s="29" t="s">
+      <c r="D302" s="28" t="s">
         <v>483</v>
       </c>
     </row>
@@ -12306,10 +12430,10 @@
         <v>484</v>
       </c>
       <c r="C303" s="4"/>
-      <c r="D303" s="29" t="s">
+      <c r="D303" s="28" t="s">
         <v>485</v>
       </c>
-      <c r="E303" s="17">
+      <c r="E303" s="16">
         <v>7.8</v>
       </c>
     </row>
@@ -12323,10 +12447,10 @@
       <c r="C304" s="4">
         <v>2017</v>
       </c>
-      <c r="D304" s="29" t="s">
+      <c r="D304" s="28" t="s">
         <v>485</v>
       </c>
-      <c r="E304" s="17">
+      <c r="E304" s="16">
         <v>6.5</v>
       </c>
       <c r="G304" s="1" t="s">
@@ -12338,15 +12462,15 @@
         <v>301</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="C305" s="4">
         <v>2022</v>
       </c>
-      <c r="D305" s="29" t="s">
+      <c r="D305" s="28" t="s">
         <v>486</v>
       </c>
-      <c r="E305" s="17">
+      <c r="E305" s="16">
         <v>7</v>
       </c>
       <c r="G305" s="1" t="s">
@@ -12363,10 +12487,10 @@
       <c r="C306" s="4">
         <v>2019</v>
       </c>
-      <c r="D306" s="29">
+      <c r="D306" s="28">
         <v>2019</v>
       </c>
-      <c r="E306" s="17">
+      <c r="E306" s="16">
         <v>7.8</v>
       </c>
       <c r="G306" s="1" t="s">
@@ -12378,15 +12502,15 @@
         <v>303</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="C307" s="4">
         <v>2001</v>
       </c>
-      <c r="D307" s="28" t="s">
+      <c r="D307" s="27" t="s">
         <v>981</v>
       </c>
-      <c r="E307" s="16">
+      <c r="E307" s="15">
         <v>6.8</v>
       </c>
       <c r="G307" t="s">
@@ -12398,15 +12522,15 @@
         <v>304</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="C308" s="4">
         <v>2022</v>
       </c>
-      <c r="D308" s="29" t="s">
+      <c r="D308" s="28" t="s">
         <v>1043</v>
       </c>
-      <c r="E308" s="16">
+      <c r="E308" s="15">
         <v>7.6</v>
       </c>
     </row>
@@ -12414,16 +12538,16 @@
       <c r="A309" s="1">
         <v>305</v>
       </c>
-      <c r="B309" s="30" t="s">
-        <v>1202</v>
+      <c r="B309" s="29" t="s">
+        <v>1200</v>
       </c>
       <c r="C309" s="4">
         <v>2023</v>
       </c>
-      <c r="D309" s="20" t="s">
+      <c r="D309" s="19" t="s">
         <v>983</v>
       </c>
-      <c r="E309" s="16">
+      <c r="E309" s="15">
         <v>8</v>
       </c>
     </row>
@@ -12431,11 +12555,11 @@
       <c r="A310" s="1">
         <v>306</v>
       </c>
-      <c r="B310" s="30" t="s">
+      <c r="B310" s="29" t="s">
         <v>1001</v>
       </c>
-      <c r="C310" s="28"/>
-      <c r="D310" s="21">
+      <c r="C310" s="27"/>
+      <c r="D310" s="20">
         <v>2023</v>
       </c>
     </row>
@@ -12443,11 +12567,11 @@
       <c r="A311">
         <v>307</v>
       </c>
-      <c r="B311" s="24" t="s">
+      <c r="B311" s="23" t="s">
         <v>1066</v>
       </c>
-      <c r="C311" s="28"/>
-      <c r="D311" s="21" t="s">
+      <c r="C311" s="27"/>
+      <c r="D311" s="20" t="s">
         <v>1015</v>
       </c>
       <c r="G311" s="1" t="s">
@@ -12458,14 +12582,14 @@
       <c r="A312" s="1">
         <v>308</v>
       </c>
-      <c r="B312" s="24" t="s">
-        <v>1205</v>
-      </c>
-      <c r="C312" s="28"/>
-      <c r="D312" s="21" t="s">
+      <c r="B312" s="23" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C312" s="27"/>
+      <c r="D312" s="20" t="s">
         <v>1021</v>
       </c>
-      <c r="E312" s="18" t="s">
+      <c r="E312" s="17" t="s">
         <v>1023</v>
       </c>
       <c r="G312" s="6" t="s">
@@ -12476,16 +12600,16 @@
       <c r="A313" s="1">
         <v>309</v>
       </c>
-      <c r="B313" s="25" t="s">
+      <c r="B313" s="24" t="s">
         <v>1067</v>
       </c>
-      <c r="C313" s="28">
+      <c r="C313" s="27">
         <v>2021</v>
       </c>
-      <c r="D313" s="21" t="s">
+      <c r="D313" s="20" t="s">
         <v>1024</v>
       </c>
-      <c r="E313" s="17" t="s">
+      <c r="E313" s="16" t="s">
         <v>1025</v>
       </c>
       <c r="G313" s="12" t="s">
@@ -12496,14 +12620,14 @@
       <c r="A314" s="1">
         <v>310</v>
       </c>
-      <c r="B314" s="30" t="s">
+      <c r="B314" s="29" t="s">
         <v>1032</v>
       </c>
-      <c r="C314" s="28"/>
-      <c r="D314" s="21" t="s">
+      <c r="C314" s="27"/>
+      <c r="D314" s="20" t="s">
         <v>1031</v>
       </c>
-      <c r="E314" s="17" t="s">
+      <c r="E314" s="16" t="s">
         <v>1033</v>
       </c>
     </row>
@@ -12511,14 +12635,14 @@
       <c r="A315">
         <v>311</v>
       </c>
-      <c r="B315" s="24" t="s">
+      <c r="B315" s="23" t="s">
         <v>1068</v>
       </c>
-      <c r="C315" s="28"/>
-      <c r="D315" s="21" t="s">
+      <c r="C315" s="27"/>
+      <c r="D315" s="20" t="s">
         <v>1042</v>
       </c>
-      <c r="E315" s="16">
+      <c r="E315" s="15">
         <v>5</v>
       </c>
       <c r="G315" s="12" t="s">
@@ -12529,14 +12653,14 @@
       <c r="A316" s="1">
         <v>312</v>
       </c>
-      <c r="B316" s="24" t="s">
+      <c r="B316" s="23" t="s">
         <v>1055</v>
       </c>
-      <c r="C316" s="28"/>
-      <c r="D316" s="21" t="s">
+      <c r="C316" s="27"/>
+      <c r="D316" s="20" t="s">
         <v>1056</v>
       </c>
-      <c r="E316" s="16">
+      <c r="E316" s="15">
         <v>7</v>
       </c>
     </row>
@@ -12544,11 +12668,11 @@
       <c r="A317" s="1">
         <v>313</v>
       </c>
-      <c r="B317" s="26" t="s">
+      <c r="B317" s="25" t="s">
         <v>1052</v>
       </c>
-      <c r="C317" s="28"/>
-      <c r="D317" s="21" t="s">
+      <c r="C317" s="27"/>
+      <c r="D317" s="20" t="s">
         <v>1059</v>
       </c>
     </row>
@@ -12556,52 +12680,52 @@
       <c r="A318" s="1">
         <v>314</v>
       </c>
-      <c r="B318" s="25" t="s">
+      <c r="B318" s="24" t="s">
         <v>1069</v>
       </c>
-      <c r="C318" s="28">
+      <c r="C318" s="27">
         <v>2021</v>
       </c>
-      <c r="D318" s="21" t="s">
+      <c r="D318" s="20" t="s">
         <v>1064</v>
       </c>
-      <c r="E318" s="18" t="s">
+      <c r="E318" s="17" t="s">
         <v>1065</v>
       </c>
       <c r="G318" s="12" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="319" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A319" s="33">
+    <row r="319" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="32">
         <v>315</v>
       </c>
-      <c r="B319" s="33" t="s">
+      <c r="B319" s="32" t="s">
         <v>1114</v>
       </c>
-      <c r="C319" s="34">
+      <c r="C319" s="33">
         <v>2001</v>
       </c>
-      <c r="D319" s="34" t="s">
+      <c r="D319" s="33" t="s">
         <v>1116</v>
       </c>
-      <c r="E319" s="35" t="s">
+      <c r="E319" s="34" t="s">
         <v>1115</v>
       </c>
-      <c r="G319" s="36"/>
+      <c r="G319" s="35"/>
     </row>
     <row r="320" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>316</v>
       </c>
-      <c r="B320" s="25" t="s">
+      <c r="B320" s="24" t="s">
         <v>1110</v>
       </c>
       <c r="C320" s="4"/>
-      <c r="D320" s="29" t="s">
+      <c r="D320" s="28" t="s">
         <v>1111</v>
       </c>
-      <c r="E320" s="18" t="s">
+      <c r="E320" s="17" t="s">
         <v>1112</v>
       </c>
     </row>
@@ -12609,83 +12733,77 @@
       <c r="A321" s="1">
         <v>317</v>
       </c>
-      <c r="B321" s="25" t="s">
+      <c r="B321" s="24" t="s">
         <v>1120</v>
       </c>
       <c r="C321" s="4"/>
-      <c r="D321" s="29" t="s">
+      <c r="D321" s="28" t="s">
         <v>1111</v>
       </c>
-      <c r="E321" s="18" t="s">
+      <c r="E321" s="17" t="s">
         <v>1065</v>
       </c>
       <c r="G321" s="12" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="322" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>318</v>
       </c>
-      <c r="B322" s="24" t="s">
-        <v>1180</v>
+      <c r="B322" s="23" t="s">
+        <v>1179</v>
       </c>
       <c r="C322" s="4">
         <v>1988</v>
       </c>
-      <c r="D322" s="29" t="s">
+      <c r="D322" s="28" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G322" s="6" t="s">
         <v>1181</v>
-      </c>
-      <c r="G322" s="6" t="s">
-        <v>1182</v>
       </c>
     </row>
     <row r="323" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>319</v>
       </c>
-      <c r="B323" s="24" t="s">
+      <c r="B323" s="23" t="s">
         <v>1158</v>
       </c>
       <c r="C323" s="4"/>
-      <c r="D323" s="29" t="s">
-        <v>1194</v>
-      </c>
-      <c r="E323" s="18" t="s">
+      <c r="D323" s="28" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E323" s="17" t="s">
         <v>1112</v>
       </c>
       <c r="G323" s="1" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="324" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A324" s="1">
-        <v>320</v>
-      </c>
-      <c r="B324" s="25" t="s">
-        <v>1201</v>
+      <c r="A324" s="1"/>
+      <c r="B324" s="23" t="s">
+        <v>1269</v>
       </c>
       <c r="C324" s="4"/>
-      <c r="E324" s="48" t="s">
-        <v>1200</v>
-      </c>
+      <c r="D324" s="28"/>
+      <c r="E324" s="17"/>
       <c r="G324" s="1" t="s">
-        <v>1198</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="325" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
-        <v>321</v>
-      </c>
-      <c r="B325" s="25" t="s">
-        <v>1197</v>
+        <v>320</v>
+      </c>
+      <c r="B325" s="24" t="s">
+        <v>1199</v>
       </c>
       <c r="C325" s="4"/>
-      <c r="D325" s="29" t="s">
-        <v>1199</v>
-      </c>
-      <c r="E325" s="48" t="s">
-        <v>1200</v>
+      <c r="E325" s="47" t="s">
+        <v>1198</v>
       </c>
       <c r="G325" s="1" t="s">
         <v>1196</v>
@@ -12693,107 +12811,161 @@
     </row>
     <row r="326" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
+        <v>321</v>
+      </c>
+      <c r="B326" s="24" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C326" s="4"/>
+      <c r="D326" s="28" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E326" s="47" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G326" s="1" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A327" s="1">
         <v>322</v>
       </c>
-      <c r="B326" s="25" t="s">
-        <v>1219</v>
-      </c>
-      <c r="C326" s="4"/>
-      <c r="D326" s="29" t="s">
+      <c r="B327" s="24" t="s">
         <v>1217</v>
       </c>
-      <c r="E326" s="48" t="s">
-        <v>1248</v>
-      </c>
-      <c r="G326" s="1" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="327" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A327" s="1">
-        <v>323</v>
-      </c>
-      <c r="B327" s="25" t="s">
-        <v>1221</v>
-      </c>
-      <c r="D327" s="29" t="s">
+      <c r="C327" s="4"/>
+      <c r="D327" s="28" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E327" s="47" t="s">
+        <v>1243</v>
+      </c>
+      <c r="G327" s="1" t="s">
         <v>1216</v>
-      </c>
-      <c r="E327" s="48" t="s">
-        <v>1222</v>
-      </c>
-      <c r="G327" s="1" t="s">
-        <v>1220</v>
       </c>
     </row>
     <row r="328" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
+        <v>323</v>
+      </c>
+      <c r="B328" s="24" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D328" s="28" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E328" s="47" t="s">
+        <v>1220</v>
+      </c>
+      <c r="G328" s="1" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A329" s="1">
         <v>324</v>
       </c>
-      <c r="B328" s="52" t="s">
-        <v>1243</v>
-      </c>
-      <c r="C328" s="4">
+      <c r="B329" s="51" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C329" s="4">
         <v>2015</v>
       </c>
-      <c r="D328" s="29" t="s">
-        <v>1244</v>
-      </c>
-      <c r="E328" s="48" t="s">
+      <c r="D329" s="28" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E329" s="47" t="s">
         <v>1065</v>
-      </c>
-    </row>
-    <row r="329" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A329" s="1">
-        <v>325</v>
-      </c>
-      <c r="B329" s="25" t="s">
-        <v>1247</v>
-      </c>
-      <c r="C329" s="4">
-        <v>2000</v>
-      </c>
-      <c r="D329" s="29" t="s">
-        <v>1245</v>
-      </c>
-      <c r="E329" s="48" t="s">
-        <v>1112</v>
-      </c>
-      <c r="G329" s="1" t="s">
-        <v>1246</v>
       </c>
     </row>
     <row r="330" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
+        <v>325</v>
+      </c>
+      <c r="B330" s="24" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C330" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D330" s="28" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E330" s="47" t="s">
+        <v>1112</v>
+      </c>
+      <c r="G330" s="1" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A331" s="1">
         <v>326</v>
       </c>
-      <c r="B330" s="25" t="s">
+      <c r="B331" s="24" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C331" s="4">
+        <v>2023</v>
+      </c>
+      <c r="D331" s="28" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E331" s="47" t="s">
+        <v>1264</v>
+      </c>
+      <c r="G331" s="21" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A332" s="1">
+        <v>327</v>
+      </c>
+      <c r="B332" s="24" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C332" s="4">
+        <v>1995</v>
+      </c>
+      <c r="D332" s="28" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A333" s="1">
+        <v>328</v>
+      </c>
+      <c r="B333" s="24" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C333" s="4">
+        <v>2014</v>
+      </c>
+      <c r="D333" s="28" t="s">
         <v>1272</v>
       </c>
-      <c r="C330" s="4">
-        <v>2023</v>
-      </c>
-      <c r="D330" s="29" t="s">
-        <v>1271</v>
-      </c>
-      <c r="E330" s="48" t="s">
-        <v>1270</v>
-      </c>
-      <c r="G330" s="22" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="331" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C331" s="4"/>
-    </row>
-    <row r="332" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C332" s="4"/>
-    </row>
-    <row r="333" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C333" s="4"/>
-    </row>
-    <row r="334" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C334" s="4"/>
+      <c r="E333" s="47" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" s="32" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A334" s="32">
+        <v>329</v>
+      </c>
+      <c r="B334" s="32" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C334" s="45">
+        <v>2024</v>
+      </c>
+      <c r="D334" s="33" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E334" s="46" t="s">
+        <v>1287</v>
+      </c>
     </row>
     <row r="335" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C335" s="4"/>
@@ -14813,6 +14985,9 @@
     </row>
     <row r="1007" spans="3:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C1007" s="4"/>
+    </row>
+    <row r="1008" spans="3:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1008" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5"/>
@@ -14825,7 +15000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1008"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
@@ -14845,10 +15020,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1250</v>
+        <v>1244</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1051</v>
@@ -14873,18 +15048,18 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:6" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="39">
+    <row r="3" spans="1:6" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="38">
         <v>2</v>
       </c>
-      <c r="B3" s="43" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C3" s="39" t="s">
+      <c r="B3" s="42" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C3" s="38" t="s">
         <v>587</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -15004,7 +15179,7 @@
         <v>598</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1261</v>
+        <v>1255</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -15056,7 +15231,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1267</v>
+        <v>1261</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>1038</v>
@@ -15339,13 +15514,13 @@
         <v>13</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1251</v>
+        <v>1245</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>511</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>1252</v>
+        <v>1246</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -15423,86 +15598,86 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="13" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="13" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="31" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="49" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="14" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="32" t="s">
+    <row r="51" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="31" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="51" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="32" t="s">
+      <c r="E51" s="1" t="s">
         <v>1164</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>1165</v>
-      </c>
     </row>
     <row r="52" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="32" t="s">
+      <c r="B52" s="31" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="31" t="s">
         <v>1174</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E53" s="1" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="31" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="31" t="s">
         <v>1253</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>1254</v>
       </c>
-    </row>
-    <row r="53" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="32" t="s">
-        <v>1175</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="32" t="s">
-        <v>1255</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>1256</v>
-      </c>
-      <c r="E54" s="1"/>
-    </row>
-    <row r="55" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="32" t="s">
-        <v>1259</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>1260</v>
-      </c>
       <c r="E55" s="1"/>
     </row>
     <row r="56" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="32" t="s">
-        <v>1257</v>
+      <c r="B56" s="31" t="s">
+        <v>1251</v>
       </c>
       <c r="C56" s="1"/>
       <c r="E56" s="1" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="57" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E57" s="1"/>
     </row>
     <row r="58" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="32"/>
+      <c r="B58" s="31"/>
       <c r="C58" s="1"/>
       <c r="E58" s="1"/>
     </row>
     <row r="59" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="60" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="61" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15517,8 +15692,8 @@
     <row r="66" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="67" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="68" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="44" t="s">
-        <v>1177</v>
+      <c r="B68" s="43" t="s">
+        <v>1176</v>
       </c>
     </row>
     <row r="69" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15528,12 +15703,12 @@
     <row r="73" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="74" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="8" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="75" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="32" t="s">
-        <v>1264</v>
+      <c r="B75" s="31" t="s">
+        <v>1258</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>1030</v>
@@ -15541,15 +15716,15 @@
     </row>
     <row r="76" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
-        <v>1265</v>
+        <v>1259</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1266</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="77" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
-        <v>1268</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="78" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16506,12 +16681,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
   </sheetData>
@@ -16595,7 +16770,7 @@
         <v>496</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -18137,37 +18312,37 @@
     <row r="53" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="54" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
-        <v>1236</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>1240</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
-        <v>1237</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
-        <v>1238</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/thongnd_everything_list.xlsx
+++ b/thongnd_everything_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\ドキュメント\GitHub\My_Everything_Lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52578B1C-D122-4515-B953-753FCDC2E1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA666C69-986A-4BC5-8547-67D955FA4577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1_todolist" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1891" uniqueCount="1291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1902" uniqueCount="1302">
   <si>
     <t>ID</t>
   </si>
@@ -4225,10 +4225,6 @@
   </si>
   <si>
     <t>Anaconda</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Phim mãng xà ăn thịt người, trước thường được chiếu trên kênh HBO?</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
@@ -5570,7 +5566,139 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>Arrival 2016</t>
+    <t>Arrival</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>2024.12.08</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>7.2/10</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>Phim mãng xà ăn thịt người, trước thường được chiếu trên kênh HBO?
+Quả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ng cáo nhi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ề</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">u và gây </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>n t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ợ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ng</t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Steve Jobs</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Start reading around 2024.10 …
+</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>In progress</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Focus on your goals, everything is important but some are more important. </t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>The richest man in Babylon</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>The personal MBA</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Factfulness: Ten Reasons We're Wrong About The World - And Why Things Are Better Than You Think</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Shinsekai yori</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Hunter x Hunter</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -5578,7 +5706,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5817,6 +5945,27 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="4">
@@ -6191,8 +6340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1037"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD14"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6205,22 +6354,27 @@
   <sheetData>
     <row r="1" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="49" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="2" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>1290</v>
+      <c r="B2" s="48" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="48" t="s">
+        <v>1283</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="48" t="s">
-        <v>1224</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="48" t="s">
-        <v>1284</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6228,25 +6382,25 @@
     </row>
     <row r="8" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="43" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="52" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="23" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="48" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6254,27 +6408,27 @@
     </row>
     <row r="13" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="48" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6285,7 +6439,7 @@
     </row>
     <row r="20" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="49" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6350,7 +6504,7 @@
     </row>
     <row r="33" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6375,10 +6529,10 @@
     </row>
     <row r="38" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6407,7 +6561,7 @@
     </row>
     <row r="45" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="37" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="46" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6436,7 +6590,7 @@
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="43" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -6522,7 +6676,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -6641,7 +6795,7 @@
     <row r="84" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="85" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="86" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6656,7 +6810,7 @@
     </row>
     <row r="88" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="89" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6709,20 +6863,20 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="101" spans="2:3" ht="55.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:3" ht="42" x14ac:dyDescent="0.25">
       <c r="B101" s="36" t="s">
         <v>1053</v>
       </c>
       <c r="C101" s="50" t="s">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="102" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" s="6" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C102" s="5" t="s">
         <v>1168</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>1169</v>
       </c>
     </row>
     <row r="103" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6735,20 +6889,20 @@
         <v>1020</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="105" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="6" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="106" spans="2:3" ht="39" x14ac:dyDescent="0.25">
       <c r="B106" s="53" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C106" s="44" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="107" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6758,28 +6912,28 @@
     </row>
     <row r="108" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C108" s="54" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="109" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>1276</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>1277</v>
       </c>
     </row>
     <row r="110" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="55" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="111" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="21" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="112" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7725,8 +7879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G1008"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A322" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B153" sqref="B153"/>
+    <sheetView topLeftCell="A280" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A130" sqref="A130:XFD130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7882,7 +8036,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C11" s="4"/>
       <c r="F11" s="1" t="s">
@@ -7924,7 +8078,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C14" s="4"/>
       <c r="F14" s="1" t="s">
@@ -7936,7 +8090,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C15" s="4"/>
       <c r="F15" s="1" t="s">
@@ -7963,7 +8117,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C17" s="4"/>
       <c r="F17" s="1" t="s">
@@ -8111,11 +8265,11 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="C29" s="4"/>
       <c r="E29" s="16" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>54</v>
@@ -8129,7 +8283,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="C30" s="4">
         <v>2008</v>
@@ -8272,7 +8426,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="18">
@@ -8840,7 +8994,7 @@
         <v>42838</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>54</v>
@@ -8931,7 +9085,7 @@
     </row>
     <row r="77" spans="1:7" s="32" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="32" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C77" s="45">
         <v>2009</v>
@@ -8939,7 +9093,7 @@
       <c r="D77" s="33"/>
       <c r="E77" s="46"/>
       <c r="G77" s="32" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9468,7 +9622,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>210</v>
@@ -9480,7 +9634,7 @@
         <v>54</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9528,7 +9682,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C106" s="4">
         <v>2006</v>
@@ -9896,7 +10050,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>1091</v>
@@ -9983,7 +10137,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" ht="33.75" x14ac:dyDescent="0.4">
       <c r="A130" s="1">
         <f t="shared" si="2"/>
         <v>128</v>
@@ -9997,8 +10151,8 @@
       <c r="F130" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G130" s="1" t="s">
-        <v>1132</v>
+      <c r="G130" s="12" t="s">
+        <v>1292</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -10038,7 +10192,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="C133" s="4"/>
       <c r="F133" s="1" t="s">
@@ -10300,7 +10454,7 @@
         <v>150</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C152" s="4"/>
       <c r="F152" s="1" t="s">
@@ -10313,7 +10467,7 @@
         <v>151</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C153" s="4"/>
       <c r="F153" s="1" t="s">
@@ -10333,7 +10487,7 @@
         <v>248</v>
       </c>
       <c r="G154" s="12" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -10342,7 +10496,7 @@
         <v>153</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C155" s="4"/>
       <c r="F155" s="1" t="s">
@@ -10394,7 +10548,7 @@
         <v>248</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -10801,7 +10955,7 @@
         <v>307</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="D189" s="18">
         <v>42797</v>
@@ -10991,7 +11145,7 @@
         <v>331</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="D203" s="18">
         <v>42925</v>
@@ -11543,7 +11697,7 @@
         <v>238</v>
       </c>
       <c r="B240" s="23" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C240" s="22">
         <v>1997</v>
@@ -11630,14 +11784,14 @@
         <v>243</v>
       </c>
       <c r="B245" s="29" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C245" s="4"/>
       <c r="D245" s="28" t="s">
         <v>1119</v>
       </c>
       <c r="G245" s="12" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="246" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -11676,7 +11830,7 @@
       </c>
       <c r="C248" s="4"/>
       <c r="G248" s="1" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="249" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -11994,7 +12148,7 @@
         <v>271</v>
       </c>
       <c r="B273" s="23" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C273" s="22"/>
       <c r="D273" s="19"/>
@@ -12230,17 +12384,17 @@
     <row r="291" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
       <c r="B291" s="8" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C291" s="4"/>
       <c r="D291" s="28" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E291" s="16" t="s">
         <v>1189</v>
       </c>
-      <c r="E291" s="16" t="s">
-        <v>1190</v>
-      </c>
       <c r="G291" s="1" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="292" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12249,7 +12403,7 @@
         <v>289</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C292" s="4">
         <v>2021</v>
@@ -12283,7 +12437,7 @@
         <v>291</v>
       </c>
       <c r="B294" s="29" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C294" s="22"/>
       <c r="D294" s="19"/>
@@ -12294,7 +12448,7 @@
         <v>292</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C295" s="4">
         <v>2022</v>
@@ -12413,7 +12567,7 @@
         <v>298</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C302" s="4">
         <v>2022</v>
@@ -12442,7 +12596,7 @@
         <v>300</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C304" s="4">
         <v>2017</v>
@@ -12454,7 +12608,7 @@
         <v>6.5</v>
       </c>
       <c r="G304" s="1" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="305" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12462,7 +12616,7 @@
         <v>301</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C305" s="4">
         <v>2022</v>
@@ -12502,7 +12656,7 @@
         <v>303</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C307" s="4">
         <v>2001</v>
@@ -12522,7 +12676,7 @@
         <v>304</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C308" s="4">
         <v>2022</v>
@@ -12539,7 +12693,7 @@
         <v>305</v>
       </c>
       <c r="B309" s="29" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C309" s="4">
         <v>2023</v>
@@ -12583,7 +12737,7 @@
         <v>308</v>
       </c>
       <c r="B312" s="23" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C312" s="27"/>
       <c r="D312" s="20" t="s">
@@ -12744,7 +12898,7 @@
         <v>1065</v>
       </c>
       <c r="G321" s="12" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="322" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12752,16 +12906,16 @@
         <v>318</v>
       </c>
       <c r="B322" s="23" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C322" s="4">
         <v>1988</v>
       </c>
       <c r="D322" s="28" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G322" s="6" t="s">
         <v>1180</v>
-      </c>
-      <c r="G322" s="6" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="323" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12769,29 +12923,29 @@
         <v>319</v>
       </c>
       <c r="B323" s="23" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C323" s="4"/>
       <c r="D323" s="28" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="E323" s="17" t="s">
         <v>1112</v>
       </c>
       <c r="G323" s="1" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="324" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1"/>
       <c r="B324" s="23" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C324" s="4"/>
       <c r="D324" s="28"/>
       <c r="E324" s="17"/>
       <c r="G324" s="1" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="325" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12799,14 +12953,14 @@
         <v>320</v>
       </c>
       <c r="B325" s="24" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C325" s="4"/>
       <c r="E325" s="47" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="G325" s="1" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="326" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12814,17 +12968,17 @@
         <v>321</v>
       </c>
       <c r="B326" s="24" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C326" s="4"/>
       <c r="D326" s="28" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E326" s="47" t="s">
         <v>1197</v>
       </c>
-      <c r="E326" s="47" t="s">
-        <v>1198</v>
-      </c>
       <c r="G326" s="1" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="327" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12832,17 +12986,17 @@
         <v>322</v>
       </c>
       <c r="B327" s="24" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C327" s="4"/>
       <c r="D327" s="28" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E327" s="47" t="s">
+        <v>1242</v>
+      </c>
+      <c r="G327" s="1" t="s">
         <v>1215</v>
-      </c>
-      <c r="E327" s="47" t="s">
-        <v>1243</v>
-      </c>
-      <c r="G327" s="1" t="s">
-        <v>1216</v>
       </c>
     </row>
     <row r="328" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12850,16 +13004,16 @@
         <v>323</v>
       </c>
       <c r="B328" s="24" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D328" s="28" t="s">
+        <v>1213</v>
+      </c>
+      <c r="E328" s="47" t="s">
         <v>1219</v>
       </c>
-      <c r="D328" s="28" t="s">
-        <v>1214</v>
-      </c>
-      <c r="E328" s="47" t="s">
-        <v>1220</v>
-      </c>
       <c r="G328" s="1" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="329" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12867,13 +13021,13 @@
         <v>324</v>
       </c>
       <c r="B329" s="51" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="C329" s="4">
         <v>2015</v>
       </c>
       <c r="D329" s="28" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="E329" s="47" t="s">
         <v>1065</v>
@@ -12884,19 +13038,19 @@
         <v>325</v>
       </c>
       <c r="B330" s="24" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C330" s="4">
         <v>2000</v>
       </c>
       <c r="D330" s="28" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="E330" s="47" t="s">
         <v>1112</v>
       </c>
       <c r="G330" s="1" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="331" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12904,19 +13058,19 @@
         <v>326</v>
       </c>
       <c r="B331" s="24" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C331" s="4">
         <v>2023</v>
       </c>
       <c r="D331" s="28" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="E331" s="47" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="G331" s="21" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="332" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12924,13 +13078,13 @@
         <v>327</v>
       </c>
       <c r="B332" s="24" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C332" s="4">
         <v>1995</v>
       </c>
       <c r="D332" s="28" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="333" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12938,16 +13092,16 @@
         <v>328</v>
       </c>
       <c r="B333" s="24" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C333" s="4">
         <v>2014</v>
       </c>
       <c r="D333" s="28" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E333" s="47" t="s">
         <v>1272</v>
-      </c>
-      <c r="E333" s="47" t="s">
-        <v>1273</v>
       </c>
     </row>
     <row r="334" spans="1:7" s="32" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12955,20 +13109,34 @@
         <v>329</v>
       </c>
       <c r="B334" s="32" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C334" s="45">
         <v>2024</v>
       </c>
       <c r="D334" s="33" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E334" s="46" t="s">
         <v>1286</v>
       </c>
-      <c r="E334" s="46" t="s">
-        <v>1287</v>
-      </c>
     </row>
     <row r="335" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C335" s="4"/>
+      <c r="A335" s="1">
+        <v>330</v>
+      </c>
+      <c r="B335" s="24" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C335" s="4">
+        <v>2016</v>
+      </c>
+      <c r="D335" s="28" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E335" s="16" t="s">
+        <v>1291</v>
+      </c>
     </row>
     <row r="336" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C336" s="4"/>
@@ -14998,10 +15166,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H1008"/>
+  <dimension ref="A1:H1009"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15020,10 +15188,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1051</v>
@@ -15053,7 +15221,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C3" s="38" t="s">
         <v>587</v>
@@ -15179,7 +15347,7 @@
         <v>598</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -15231,7 +15399,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>1038</v>
@@ -15514,13 +15682,13 @@
         <v>13</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>511</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -15599,7 +15767,7 @@
     </row>
     <row r="48" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="13" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="49" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15609,127 +15777,152 @@
     </row>
     <row r="50" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="31" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="51" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="31" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>1163</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>1164</v>
       </c>
     </row>
     <row r="52" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="31" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="E52" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>1247</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>1248</v>
       </c>
     </row>
     <row r="53" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="31" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="54" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="31" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>1249</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>1250</v>
-      </c>
       <c r="E54" s="1"/>
+      <c r="F54" s="1" t="s">
+        <v>1296</v>
+      </c>
     </row>
     <row r="55" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="31" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>1253</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>1254</v>
       </c>
       <c r="E55" s="1"/>
     </row>
     <row r="56" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="31" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="C56" s="1"/>
       <c r="E56" s="1" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="57" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="31" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C57" s="1"/>
       <c r="E57" s="1"/>
     </row>
-    <row r="58" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="31"/>
-      <c r="C58" s="1"/>
-      <c r="E58" s="1"/>
-    </row>
-    <row r="59" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="8" t="s">
-        <v>1175</v>
-      </c>
-    </row>
+    <row r="58" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B58" s="31" t="s">
+        <v>1293</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="31"/>
+      <c r="C59" s="1"/>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="61" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="8" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="62" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="63" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="64" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="67" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="43" t="s">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="43" t="s">
+        <v>1175</v>
+      </c>
+    </row>
     <row r="70" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="71" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="72" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="73" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="8" t="s">
+    <row r="74" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="8" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="31" t="s">
         <v>1257</v>
       </c>
-    </row>
-    <row r="75" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="31" t="s">
-        <v>1258</v>
-      </c>
-      <c r="C75" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>1030</v>
-      </c>
-    </row>
-    <row r="76" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="1" t="s">
-        <v>1259</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>1260</v>
       </c>
     </row>
     <row r="77" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="78" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>1258</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="1" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="1" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B80" s="12" t="s">
+        <v>1299</v>
+      </c>
+    </row>
     <row r="81" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="82" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="83" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16658,6 +16851,7 @@
     <row r="1006" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1007" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1008" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1009" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -16681,12 +16875,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
   </sheetData>
@@ -16770,7 +16964,7 @@
         <v>496</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -18312,37 +18506,37 @@
     <row r="53" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="54" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/thongnd_everything_list.xlsx
+++ b/thongnd_everything_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\ドキュメント\GitHub\My_Everything_Lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD1C523-E96A-4C22-A35A-6008CB62AA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E471A082-7F79-419B-8A71-56259ACDC397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1_todolist" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
   <definedNames>
     <definedName name="beverage">beverage!$A$1:$B$11</definedName>
     <definedName name="game">'7_game'!$A$1:$C$31</definedName>
-    <definedName name="list_film_to_watch">'1_todolist'!$A$62:$D$112</definedName>
+    <definedName name="list_film_to_watch">'1_todolist'!$A$60:$D$110</definedName>
     <definedName name="music_list">'6_music_list'!$A$1:$D$296</definedName>
     <definedName name="reading_list">'3_book_list'!$A$1:$F$21</definedName>
     <definedName name="software_list">'5_software_list'!$A$1:$C$51</definedName>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1924" uniqueCount="1324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1932" uniqueCount="1330">
   <si>
     <t>ID</t>
   </si>
@@ -1863,9 +1863,6 @@
   </si>
   <si>
     <t>Steve Jobs: The Exclusive Biography</t>
-  </si>
-  <si>
-    <t>The Da Vinci Code</t>
   </si>
   <si>
     <t>done</t>
@@ -4031,21 +4028,6 @@
   </si>
   <si>
     <t>7/10</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <r>
-      <t>I</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>kigai</t>
-    </r>
     <phoneticPr fontId="5"/>
   </si>
   <si>
@@ -5310,10 +5292,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>Start Nation</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>Dropped</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -5872,8 +5850,12 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
+    <t>The Da Vinci Code</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
     <r>
-      <t>L</t>
+      <t>I</t>
     </r>
     <r>
       <rPr>
@@ -5882,33 +5864,118 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>ọ</t>
+      <t>kigai</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve"> Lem Thanh Xuân</t>
+      <t>: the Japanese secret to a long and happy life</t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>2025, still continue reading in Japanese</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Start-up Nation</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Nのために</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>7.0/10</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>2025.01.27</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Testimony Of N
+許容範囲内の画質はスペイン語っぽいドラマサイトからダウンロードした。
+字幕はネット上なさそうだけど、大丈夫</t>
+    <rPh sb="15" eb="17">
+      <t>キョヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ハンイナイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ガシツ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ジマク</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="65" eb="68">
+      <t>ダイジョウブ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>口癖セルフ：
+ちゃんと話したい。
+いつも、三月さんはずっと私の友達だ
+付き合ってください。
+あまり期待していなかったけどな</t>
+    <rPh sb="0" eb="2">
+      <t>クチグセ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ミツキ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>トモダチ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>キタイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lọ Lem Thanh Xuân
+</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
+        <color rgb="FF00B050"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">
-青春シンデレラ 2022</t>
+      <t>青春シンデレラ</t>
     </r>
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>Nのために</t>
+    <t>Suzume.no.Tojimari.2022</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -5916,7 +5983,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="39">
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6198,6 +6265,14 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -6232,7 +6307,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6365,6 +6440,25 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -6581,10 +6675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1047"/>
+  <dimension ref="A1:D1045"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -6597,656 +6691,653 @@
   <sheetData>
     <row r="1" spans="2:3" ht="15" customHeight="1">
       <c r="B1" s="49" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="2" spans="2:3" ht="15" customHeight="1">
       <c r="B2" s="48" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="15" customHeight="1">
       <c r="B3" s="59" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15" customHeight="1">
       <c r="B4" s="48" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15" customHeight="1">
       <c r="B5" s="48" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15" customHeight="1">
       <c r="B6" s="48" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="15" customHeight="1">
       <c r="B7" s="48" t="s">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="15" customHeight="1">
-      <c r="B8" s="10" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="30">
-      <c r="B9" s="55" t="s">
-        <v>1322</v>
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="55" t="s">
+        <v>1329</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="15" customHeight="1">
-      <c r="B10" s="61" t="s">
-        <v>1323</v>
+      <c r="B10" s="43" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="15" customHeight="1">
+      <c r="B11" s="52" t="s">
+        <v>1263</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="15" customHeight="1">
-      <c r="B12" s="43" t="s">
-        <v>1139</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>1159</v>
+      <c r="B12" s="23" t="s">
+        <v>1149</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="15" customHeight="1">
-      <c r="B13" s="52" t="s">
-        <v>1266</v>
+      <c r="B13" s="48" t="s">
+        <v>1216</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="15" customHeight="1">
-      <c r="B14" s="23" t="s">
-        <v>1151</v>
-      </c>
+      <c r="B14" s="23"/>
     </row>
     <row r="15" spans="2:3" ht="15" customHeight="1">
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="68" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="15" customHeight="1">
+      <c r="B16" s="10" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="15" customHeight="1">
-      <c r="B16" s="23"/>
-    </row>
     <row r="17" spans="2:3" ht="15" customHeight="1">
-      <c r="B17" s="48" t="s">
-        <v>1270</v>
+      <c r="B17" s="10" t="s">
+        <v>1220</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="15" customHeight="1">
       <c r="B18" s="10" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="15" customHeight="1">
       <c r="B19" s="10" t="s">
-        <v>1222</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="15" customHeight="1">
       <c r="B20" s="10" t="s">
-        <v>1223</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="15" customHeight="1">
       <c r="B21" s="10" t="s">
-        <v>1271</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="15" customHeight="1">
       <c r="B22" s="10" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="15" customHeight="1">
-      <c r="B23" s="10" t="s">
-        <v>1316</v>
+      <c r="B23" s="61"/>
+    </row>
+    <row r="24" spans="2:3" ht="15" customHeight="1">
+      <c r="B24" s="49" t="s">
+        <v>1214</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="15" customHeight="1">
-      <c r="B25" s="61"/>
-    </row>
-    <row r="26" spans="2:3" ht="15" customHeight="1">
-      <c r="B26" s="49" t="s">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" ht="15" customHeight="1">
-      <c r="B27" s="6" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" ht="15" customHeight="1">
+      <c r="B25" s="6" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" ht="15" customHeight="1">
+      <c r="B28" s="1" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" ht="15.95" customHeight="1">
       <c r="B30" s="1" t="s">
-        <v>1057</v>
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" ht="15.95" customHeight="1">
+      <c r="B31" s="21" t="s">
+        <v>1055</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="15.95" customHeight="1">
       <c r="B32" s="1" t="s">
-        <v>1008</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="15.95" customHeight="1">
-      <c r="B33" s="21" t="s">
-        <v>1056</v>
+      <c r="B33" s="1" t="s">
+        <v>997</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="15.95" customHeight="1">
       <c r="B34" s="1" t="s">
-        <v>39</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="15.95" customHeight="1">
       <c r="B35" s="1" t="s">
-        <v>998</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="15.95" customHeight="1">
       <c r="B36" s="1" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="15.95" customHeight="1">
       <c r="B37" s="1" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="15.95" customHeight="1">
       <c r="B38" s="1" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="15.95" customHeight="1">
-      <c r="B39" s="1" t="s">
-        <v>1009</v>
+      <c r="B39" s="6" t="s">
+        <v>1159</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="15.95" customHeight="1">
-      <c r="B40" s="1" t="s">
-        <v>1010</v>
+      <c r="B40" s="6" t="s">
+        <v>1115</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="15.95" customHeight="1">
-      <c r="B41" s="6" t="s">
-        <v>1161</v>
+      <c r="B41" s="1" t="s">
+        <v>1119</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="15.95" customHeight="1">
       <c r="B42" s="6" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="15.95" customHeight="1">
       <c r="B43" s="1" t="s">
-        <v>1121</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="15.95" customHeight="1">
-      <c r="B44" s="6" t="s">
-        <v>1116</v>
+      <c r="B44" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>1307</v>
       </c>
     </row>
     <row r="45" spans="2:3" ht="15.95" customHeight="1">
       <c r="B45" s="1" t="s">
-        <v>1014</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="46" spans="2:3" ht="15.95" customHeight="1">
-      <c r="B46" s="1" t="s">
-        <v>1309</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" ht="15.95" customHeight="1">
-      <c r="B47" s="1" t="s">
-        <v>1311</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" ht="15.95" customHeight="1">
-      <c r="B48" s="1"/>
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="2:3" ht="15" customHeight="1">
+      <c r="B47" s="8" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" ht="15" customHeight="1">
+      <c r="B48" s="1" t="s">
+        <v>1117</v>
+      </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1">
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="1" t="s">
         <v>1118</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1">
-      <c r="B50" s="1" t="s">
-        <v>1119</v>
-      </c>
+      <c r="B50" s="1"/>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1">
-      <c r="B51" s="1" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1">
-      <c r="B52" s="1"/>
-    </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1">
-      <c r="B53" s="8"/>
+      <c r="B51" s="8"/>
+    </row>
+    <row r="52" spans="1:4" ht="15.95" customHeight="1">
+      <c r="B52" s="37" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.95" customHeight="1">
+      <c r="B53" s="1" t="s">
+        <v>1099</v>
+      </c>
     </row>
     <row r="54" spans="1:4" ht="15.95" customHeight="1">
-      <c r="B54" s="37" t="s">
-        <v>1132</v>
+      <c r="B54" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15.95" customHeight="1">
       <c r="B55" s="1" t="s">
-        <v>1100</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.95" customHeight="1">
-      <c r="B56" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15.95" customHeight="1">
-      <c r="B57" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15.95" customHeight="1">
-      <c r="B58" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="15.95" customHeight="1"/>
-    <row r="60" spans="1:4" ht="15" customHeight="1">
-      <c r="B60" s="8"/>
-    </row>
-    <row r="61" spans="1:4" ht="15" customHeight="1">
-      <c r="B61" s="43" t="s">
-        <v>1140</v>
+      <c r="B56" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.95" customHeight="1"/>
+    <row r="58" spans="1:4" ht="15" customHeight="1">
+      <c r="B58" s="8"/>
+    </row>
+    <row r="59" spans="1:4" ht="15" customHeight="1">
+      <c r="B59" s="43" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1">
+        <v>1</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="1" t="s">
-        <v>0</v>
+      <c r="A62" s="1">
+        <f t="shared" ref="A62:A64" si="0">A61+1</f>
+        <v>2</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1">
-        <f t="shared" ref="A64:A66" si="0">A63+1</f>
-        <v>2</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="B64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
+      <c r="B65" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3">
       <c r="B66" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3">
       <c r="B67" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3">
       <c r="B68" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3">
       <c r="B69" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3">
       <c r="B70" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3">
       <c r="B71" s="1" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>17</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3">
       <c r="B72" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3">
       <c r="B73" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3">
       <c r="B74" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3">
       <c r="B75" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>22</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3">
       <c r="B76" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3">
       <c r="B77" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3">
       <c r="B78" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="B79" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" ht="30">
+      <c r="B79" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" ht="15.95" customHeight="1">
       <c r="B80" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3" ht="30">
-      <c r="B81" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" ht="15.95" customHeight="1">
+      <c r="B81" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="82" spans="2:3" ht="15.95" customHeight="1">
       <c r="B82" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83" spans="2:3" ht="15.95" customHeight="1">
       <c r="B83" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84" spans="2:3" ht="15.95" customHeight="1">
       <c r="B84" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="85" spans="2:3" ht="15.95" customHeight="1">
       <c r="B85" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86" spans="2:3" ht="15.95" customHeight="1">
       <c r="B86" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87" spans="2:3" ht="15.95" customHeight="1">
       <c r="B87" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="88" spans="2:3" ht="15.95" customHeight="1">
       <c r="B88" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="89" spans="2:3" ht="15.95" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" ht="15" customHeight="1">
       <c r="B89" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="90" spans="2:3" ht="15.95" customHeight="1">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" ht="15" customHeight="1">
       <c r="B90" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="91" spans="2:3" ht="15" customHeight="1">
-      <c r="B91" s="1" t="s">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="92" spans="2:3" ht="15" customHeight="1">
-      <c r="B92" s="1" t="s">
-        <v>1313</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>1314</v>
-      </c>
-    </row>
+        <v>1310</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" ht="15.95" customHeight="1">
+      <c r="B91" s="1"/>
+    </row>
+    <row r="92" spans="2:3" ht="15.95" customHeight="1"/>
     <row r="93" spans="2:3" ht="15.95" customHeight="1">
-      <c r="B93" s="1"/>
-    </row>
-    <row r="94" spans="2:3" ht="15.95" customHeight="1"/>
+      <c r="B93" s="3" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" ht="15.95" customHeight="1">
+      <c r="B94" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
     <row r="95" spans="2:3" ht="15.95" customHeight="1">
-      <c r="B95" s="3" t="s">
-        <v>1214</v>
+      <c r="B95" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="96" spans="2:3" ht="15.95" customHeight="1">
-      <c r="B96" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="97" spans="2:3" ht="15.95" customHeight="1">
-      <c r="B97" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="98" spans="2:3" ht="15.95" customHeight="1">
-      <c r="B98" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="99" spans="2:3" ht="15.95" customHeight="1"/>
-    <row r="100" spans="2:3" ht="15.95" customHeight="1"/>
+      <c r="B96" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" ht="15.95" customHeight="1"/>
+    <row r="98" spans="2:3" ht="15.95" customHeight="1"/>
+    <row r="99" spans="2:3" ht="15.95" customHeight="1">
+      <c r="B99" s="3" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" ht="15.95" customHeight="1">
+      <c r="B100" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
     <row r="101" spans="2:3" ht="15.95" customHeight="1">
-      <c r="B101" s="3" t="s">
-        <v>1101</v>
+      <c r="B101" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="102" spans="2:3" ht="15.95" customHeight="1">
       <c r="B102" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="103" spans="2:3" ht="15.95" customHeight="1">
       <c r="B103" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="104" spans="2:3" ht="15.95" customHeight="1">
       <c r="B104" s="1" t="s">
-        <v>45</v>
+        <v>982</v>
       </c>
     </row>
     <row r="105" spans="2:3" ht="15.95" customHeight="1">
-      <c r="B105" s="1" t="s">
-        <v>46</v>
+      <c r="B105" s="6" t="s">
+        <v>1003</v>
       </c>
     </row>
     <row r="106" spans="2:3" ht="15.95" customHeight="1">
-      <c r="B106" s="1" t="s">
-        <v>983</v>
+      <c r="B106" s="6" t="s">
+        <v>1014</v>
       </c>
     </row>
     <row r="107" spans="2:3" ht="15.95" customHeight="1">
       <c r="B107" s="6" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="108" spans="2:3" ht="15.95" customHeight="1">
-      <c r="B108" s="6" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" ht="42">
+      <c r="B109" s="36" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C109" s="50" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3">
+      <c r="B110" s="6" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" ht="15.95" customHeight="1">
+      <c r="B111" s="6" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" ht="15.95" customHeight="1">
+      <c r="B112" s="6" t="s">
         <v>1015</v>
       </c>
-    </row>
-    <row r="109" spans="2:3" ht="15.95" customHeight="1">
-      <c r="B109" s="6" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="111" spans="2:3" ht="42">
-      <c r="B111" s="36" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C111" s="50" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="112" spans="2:3">
-      <c r="B112" s="6" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C112" s="5" t="s">
+      <c r="C112" s="1" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" ht="15" customHeight="1">
+      <c r="B113" s="6" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" ht="39">
+      <c r="B114" s="53" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C114" s="44" t="s">
         <v>1163</v>
       </c>
     </row>
-    <row r="113" spans="2:3" ht="15.95" customHeight="1">
-      <c r="B113" s="6" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="114" spans="2:3" ht="15.95" customHeight="1">
-      <c r="B114" s="6" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="115" spans="2:3" ht="15" customHeight="1">
-      <c r="B115" s="6" t="s">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="116" spans="2:3" ht="39">
-      <c r="B116" s="53" t="s">
-        <v>1153</v>
-      </c>
-      <c r="C116" s="44" t="s">
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="117" spans="2:3" ht="15.95" customHeight="1">
-      <c r="B117" s="1" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="118" spans="2:3" ht="15.95" customHeight="1">
-      <c r="B118" s="1" t="s">
-        <v>1267</v>
-      </c>
-      <c r="C118" s="54" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="119" spans="2:3" ht="15" customHeight="1">
-      <c r="B119" s="11" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="120" spans="2:3" ht="87">
-      <c r="B120" s="60" t="s">
-        <v>1268</v>
-      </c>
-      <c r="C120" s="56" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="121" spans="2:3" ht="15.95" customHeight="1">
-      <c r="B121" s="55" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="122" spans="2:3" ht="15.95" customHeight="1">
-      <c r="B122" s="21" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="123" spans="2:3" ht="45">
-      <c r="B123" s="56" t="s">
-        <v>1301</v>
-      </c>
-      <c r="C123" s="57" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="124" spans="2:3" ht="15" customHeight="1">
-      <c r="B124" s="58" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="125" spans="2:3" ht="15.95" customHeight="1">
-      <c r="B125" s="11" t="s">
-        <v>984</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>1321</v>
-      </c>
-    </row>
+    <row r="115" spans="2:3" ht="15.95" customHeight="1">
+      <c r="B115" s="1" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" ht="15.95" customHeight="1">
+      <c r="B116" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C116" s="54" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" ht="15" customHeight="1">
+      <c r="B117" s="11" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" ht="87">
+      <c r="B118" s="60" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C118" s="56" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" ht="15.95" customHeight="1">
+      <c r="B119" s="55" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" ht="15.95" customHeight="1">
+      <c r="B120" s="21" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" ht="45">
+      <c r="B121" s="56" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C121" s="57" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" ht="15" customHeight="1">
+      <c r="B122" s="58" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" ht="15.95" customHeight="1">
+      <c r="B123" s="11" t="s">
+        <v>983</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" ht="15.95" customHeight="1"/>
+    <row r="125" spans="2:3" ht="15.95" customHeight="1"/>
     <row r="126" spans="2:3" ht="15.95" customHeight="1"/>
     <row r="127" spans="2:3" ht="15.95" customHeight="1"/>
     <row r="128" spans="2:3" ht="15.95" customHeight="1"/>
@@ -8167,18 +8258,16 @@
     <row r="1043" ht="15.95" customHeight="1"/>
     <row r="1044" ht="15.95" customHeight="1"/>
     <row r="1045" ht="15.95" customHeight="1"/>
-    <row r="1046" ht="15.95" customHeight="1"/>
-    <row r="1047" ht="15.95" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="5"/>
   <hyperlinks>
-    <hyperlink ref="B18" r:id="rId1" xr:uid="{84274C41-67A4-4C42-A214-2B8352868740}"/>
-    <hyperlink ref="B19" r:id="rId2" xr:uid="{EC16E6DB-BF4A-4A9B-93C6-121FD5F6D83E}"/>
-    <hyperlink ref="B20" r:id="rId3" xr:uid="{FF4AF8CB-4606-4702-B590-B95074E1C7F2}"/>
-    <hyperlink ref="B21" r:id="rId4" xr:uid="{B5CE4C32-7354-48AA-AA4F-F2B635E7F675}"/>
-    <hyperlink ref="B22" r:id="rId5" xr:uid="{984323AF-F90C-43E0-88EA-813DF073BE83}"/>
-    <hyperlink ref="B23" r:id="rId6" xr:uid="{3301660F-2088-435C-81B6-7D08627E2CCF}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{3045A735-60A4-4215-81E9-7A12788A66ED}"/>
+    <hyperlink ref="B16" r:id="rId1" xr:uid="{84274C41-67A4-4C42-A214-2B8352868740}"/>
+    <hyperlink ref="B17" r:id="rId2" xr:uid="{EC16E6DB-BF4A-4A9B-93C6-121FD5F6D83E}"/>
+    <hyperlink ref="B18" r:id="rId3" xr:uid="{FF4AF8CB-4606-4702-B590-B95074E1C7F2}"/>
+    <hyperlink ref="B19" r:id="rId4" xr:uid="{B5CE4C32-7354-48AA-AA4F-F2B635E7F675}"/>
+    <hyperlink ref="B20" r:id="rId5" xr:uid="{984323AF-F90C-43E0-88EA-813DF073BE83}"/>
+    <hyperlink ref="B21" r:id="rId6" xr:uid="{3301660F-2088-435C-81B6-7D08627E2CCF}"/>
+    <hyperlink ref="B22" r:id="rId7" xr:uid="{3045A735-60A4-4215-81E9-7A12788A66ED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId8"/>
@@ -8189,8 +8278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G1008"/>
   <sheetViews>
-    <sheetView topLeftCell="A314" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B326" sqref="B326"/>
+    <sheetView topLeftCell="A319" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B338" sqref="B338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -8236,7 +8325,7 @@
         <v>53</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>54</v>
@@ -8346,7 +8435,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="C11" s="4"/>
       <c r="F11" s="1" t="s">
@@ -8388,7 +8477,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="C14" s="4"/>
       <c r="F14" s="1" t="s">
@@ -8400,7 +8489,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="C15" s="4"/>
       <c r="F15" s="1" t="s">
@@ -8427,7 +8516,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="C17" s="4"/>
       <c r="F17" s="1" t="s">
@@ -8575,17 +8664,17 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="C29" s="4"/>
       <c r="E29" s="16" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.95" customHeight="1">
@@ -8593,7 +8682,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="C30" s="4">
         <v>2008</v>
@@ -8736,7 +8825,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="18">
@@ -8754,7 +8843,7 @@
         <v>95</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="D42" s="18">
         <v>42499</v>
@@ -8813,7 +8902,7 @@
         <v>99</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>54</v>
@@ -8827,7 +8916,7 @@
         <v>100</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>54</v>
@@ -8841,7 +8930,7 @@
         <v>101</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="E48" s="16" t="s">
         <v>102</v>
@@ -8909,7 +8998,7 @@
         <v>109</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D52" s="18">
         <v>42468</v>
@@ -8929,7 +9018,7 @@
         <v>111</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="D53" s="18">
         <v>42498</v>
@@ -8949,7 +9038,7 @@
         <v>113</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D54" s="18">
         <v>42529</v>
@@ -9012,7 +9101,7 @@
         <v>119</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D57" s="18">
         <v>42712</v>
@@ -9035,7 +9124,7 @@
         <v>122</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D58" s="18">
         <v>42605</v>
@@ -9052,7 +9141,7 @@
         <v>123</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D59" s="18">
         <v>42560</v>
@@ -9095,7 +9184,7 @@
         <v>128</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D61" s="18">
         <v>42665</v>
@@ -9160,7 +9249,7 @@
         <v>134</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D65" s="18">
         <v>42756</v>
@@ -9198,7 +9287,7 @@
         <v>138</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="D67" s="18">
         <v>42757</v>
@@ -9298,13 +9387,13 @@
         <v>147</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D72" s="18">
         <v>42838</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>54</v>
@@ -9318,7 +9407,7 @@
         <v>148</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D73" s="18">
         <v>42963</v>
@@ -9341,7 +9430,7 @@
         <v>151</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D74" s="18">
         <v>42980</v>
@@ -9361,7 +9450,7 @@
         <v>153</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D75" s="18">
         <v>43007</v>
@@ -9381,7 +9470,7 @@
         <v>155</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D76" s="18">
         <v>43019</v>
@@ -9395,7 +9484,7 @@
     </row>
     <row r="77" spans="1:7" s="32" customFormat="1" ht="15.95" customHeight="1">
       <c r="B77" s="32" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="C77" s="45">
         <v>2009</v>
@@ -9403,7 +9492,7 @@
       <c r="D77" s="33"/>
       <c r="E77" s="46"/>
       <c r="G77" s="32" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="15.95" customHeight="1">
@@ -9524,7 +9613,7 @@
         <v>54</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="15.95" customHeight="1">
@@ -9536,7 +9625,7 @@
         <v>166</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D84" s="18">
         <v>43092</v>
@@ -9932,7 +10021,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>210</v>
@@ -9944,7 +10033,7 @@
         <v>54</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="15.95" customHeight="1">
@@ -9992,7 +10081,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="C106" s="4">
         <v>2006</v>
@@ -10075,7 +10164,7 @@
         <v>54</v>
       </c>
       <c r="G110" s="42" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="15.95" customHeight="1">
@@ -10087,7 +10176,7 @@
         <v>222</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D111" s="18">
         <v>43319</v>
@@ -10105,7 +10194,7 @@
         <v>223</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D112" s="18">
         <v>43327</v>
@@ -10114,7 +10203,7 @@
         <v>54</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="15.95" customHeight="1">
@@ -10126,7 +10215,7 @@
         <v>224</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="D113" s="18">
         <v>43346</v>
@@ -10144,7 +10233,7 @@
         <v>225</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D114" s="18">
         <v>43353</v>
@@ -10156,7 +10245,7 @@
         <v>54</v>
       </c>
       <c r="G114" s="12" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="15.95" customHeight="1">
@@ -10165,10 +10254,10 @@
         <v>113</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D115" s="18">
         <v>43373</v>
@@ -10186,7 +10275,7 @@
         <v>227</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D116" s="18">
         <v>43375</v>
@@ -10201,7 +10290,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="23" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="C117" s="4">
         <v>2016</v>
@@ -10216,7 +10305,7 @@
         <v>54</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="15.95" customHeight="1">
@@ -10345,7 +10434,7 @@
         <v>238</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="D124" s="18">
         <v>43470</v>
@@ -10360,10 +10449,10 @@
         <v>123</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="D125" s="18">
         <v>43513</v>
@@ -10402,7 +10491,7 @@
         <v>241</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="D127" s="18">
         <v>43582</v>
@@ -10420,7 +10509,7 @@
         <v>242</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="D128" s="18">
         <v>43590</v>
@@ -10438,7 +10527,7 @@
         <v>243</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="D129" s="18">
         <v>43617</v>
@@ -10453,16 +10542,16 @@
         <v>128</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G130" s="12" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="15.95" customHeight="1">
@@ -10502,7 +10591,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="C133" s="4"/>
       <c r="F133" s="1" t="s">
@@ -10734,7 +10823,7 @@
         <v>148</v>
       </c>
       <c r="B150" s="23" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C150" s="22"/>
       <c r="D150" s="19"/>
@@ -10742,7 +10831,7 @@
         <v>246</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="15.95" customHeight="1">
@@ -10751,14 +10840,14 @@
         <v>149</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C151" s="4"/>
       <c r="F151" s="1" t="s">
         <v>246</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="15.95" customHeight="1">
@@ -10767,7 +10856,7 @@
         <v>150</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="C152" s="4"/>
       <c r="F152" s="1" t="s">
@@ -10780,7 +10869,7 @@
         <v>151</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="C153" s="4"/>
       <c r="F153" s="1" t="s">
@@ -10793,14 +10882,14 @@
         <v>152</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="C154" s="4"/>
       <c r="F154" s="1" t="s">
         <v>246</v>
       </c>
       <c r="G154" s="12" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="15.95" customHeight="1">
@@ -10809,7 +10898,7 @@
         <v>153</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="C155" s="4"/>
       <c r="F155" s="1" t="s">
@@ -10861,7 +10950,7 @@
         <v>246</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="15.95" customHeight="1">
@@ -11268,7 +11357,7 @@
         <v>304</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="D189" s="18">
         <v>42797</v>
@@ -11458,7 +11547,7 @@
         <v>328</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="D203" s="18">
         <v>42925</v>
@@ -11470,7 +11559,7 @@
         <v>329</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="204" spans="1:7" ht="15.95" customHeight="1">
@@ -11486,7 +11575,7 @@
         <v>331</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="15.95" customHeight="1">
@@ -11543,7 +11632,7 @@
         <v>206</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C208" s="4"/>
       <c r="F208" s="1" t="s">
@@ -11772,14 +11861,14 @@
         <v>222</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C224" s="4"/>
       <c r="F224" s="1" t="s">
         <v>367</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="225" spans="1:7" ht="15.95" customHeight="1">
@@ -12010,7 +12099,7 @@
         <v>238</v>
       </c>
       <c r="B240" s="23" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="C240" s="22">
         <v>1997</v>
@@ -12097,14 +12186,14 @@
         <v>243</v>
       </c>
       <c r="B245" s="29" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="C245" s="4"/>
       <c r="D245" s="28" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="G245" s="12" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="246" spans="1:7" ht="15.95" customHeight="1">
@@ -12120,7 +12209,7 @@
         <v>367</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="247" spans="1:7" ht="15.95" customHeight="1">
@@ -12143,7 +12232,7 @@
       </c>
       <c r="C248" s="4"/>
       <c r="G248" s="1" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="249" spans="1:7" ht="15.95" customHeight="1">
@@ -12277,7 +12366,7 @@
         <v>258</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C260" s="4"/>
       <c r="D260" s="18">
@@ -12351,13 +12440,13 @@
         <v>263</v>
       </c>
       <c r="B265" s="8" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C265" s="4">
         <v>2007</v>
       </c>
       <c r="G265" s="12" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="266" spans="1:7" ht="15.95" customHeight="1">
@@ -12461,7 +12550,7 @@
         <v>271</v>
       </c>
       <c r="B273" s="23" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="C273" s="22"/>
       <c r="D273" s="19"/>
@@ -12548,7 +12637,7 @@
         <v>2008</v>
       </c>
       <c r="G280" s="1" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="281" spans="1:7" ht="15.95" customHeight="1">
@@ -12697,17 +12786,17 @@
     <row r="291" spans="1:7" ht="30">
       <c r="A291" s="1"/>
       <c r="B291" s="8" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="C291" s="4"/>
       <c r="D291" s="28" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="E291" s="16" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="G291" s="12" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="292" spans="1:7" ht="15.95" customHeight="1">
@@ -12716,7 +12805,7 @@
         <v>289</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="C292" s="4">
         <v>2021</v>
@@ -12738,7 +12827,7 @@
       </c>
       <c r="C293" s="22"/>
       <c r="D293" s="20" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="G293" s="1" t="s">
         <v>467</v>
@@ -12750,7 +12839,7 @@
         <v>291</v>
       </c>
       <c r="B294" s="29" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="C294" s="22"/>
       <c r="D294" s="19"/>
@@ -12761,7 +12850,7 @@
         <v>292</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="C295" s="4">
         <v>2022</v>
@@ -12816,7 +12905,7 @@
         <v>295</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C298" s="4"/>
     </row>
@@ -12832,10 +12921,10 @@
         <v>2021</v>
       </c>
       <c r="D299" s="20" t="s">
+        <v>994</v>
+      </c>
+      <c r="G299" s="1" t="s">
         <v>995</v>
-      </c>
-      <c r="G299" s="1" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="300" spans="1:7" ht="15.95" customHeight="1">
@@ -12880,7 +12969,7 @@
         <v>298</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="C302" s="4">
         <v>2022</v>
@@ -12909,7 +12998,7 @@
         <v>300</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="C304" s="4">
         <v>2017</v>
@@ -12921,7 +13010,7 @@
         <v>6.5</v>
       </c>
       <c r="G304" s="1" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="305" spans="1:7" ht="15.95" customHeight="1">
@@ -12929,7 +13018,7 @@
         <v>301</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="C305" s="4">
         <v>2022</v>
@@ -12969,19 +13058,19 @@
         <v>303</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="C307" s="4">
         <v>2001</v>
       </c>
       <c r="D307" s="27" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E307" s="15">
         <v>6.8</v>
       </c>
       <c r="G307" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="308" spans="1:7" ht="15.95" customHeight="1">
@@ -12989,13 +13078,13 @@
         <v>304</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="C308" s="4">
         <v>2022</v>
       </c>
       <c r="D308" s="28" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="E308" s="15">
         <v>7.6</v>
@@ -13006,13 +13095,13 @@
         <v>305</v>
       </c>
       <c r="B309" s="29" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="C309" s="4">
         <v>2023</v>
       </c>
       <c r="D309" s="19" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E309" s="15">
         <v>8</v>
@@ -13023,7 +13112,7 @@
         <v>306</v>
       </c>
       <c r="B310" s="29" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C310" s="27"/>
       <c r="D310" s="20">
@@ -13035,14 +13124,14 @@
         <v>307</v>
       </c>
       <c r="B311" s="23" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="C311" s="27"/>
       <c r="D311" s="20" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="G311" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="312" spans="1:7">
@@ -13050,17 +13139,17 @@
         <v>308</v>
       </c>
       <c r="B312" s="23" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="C312" s="27"/>
       <c r="D312" s="20" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E312" s="17" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G312" s="6" t="s">
         <v>1017</v>
-      </c>
-      <c r="E312" s="17" t="s">
-        <v>1019</v>
-      </c>
-      <c r="G312" s="6" t="s">
-        <v>1018</v>
       </c>
     </row>
     <row r="313" spans="1:7" ht="30">
@@ -13068,19 +13157,19 @@
         <v>309</v>
       </c>
       <c r="B313" s="24" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C313" s="27">
         <v>2021</v>
       </c>
       <c r="D313" s="20" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E313" s="16" t="s">
         <v>1020</v>
       </c>
-      <c r="E313" s="16" t="s">
+      <c r="G313" s="12" t="s">
         <v>1021</v>
-      </c>
-      <c r="G313" s="12" t="s">
-        <v>1022</v>
       </c>
     </row>
     <row r="314" spans="1:7">
@@ -13088,14 +13177,14 @@
         <v>310</v>
       </c>
       <c r="B314" s="29" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C314" s="27"/>
       <c r="D314" s="20" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E314" s="16" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="315" spans="1:7" ht="30">
@@ -13103,17 +13192,17 @@
         <v>311</v>
       </c>
       <c r="B315" s="23" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C315" s="27"/>
       <c r="D315" s="20" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="E315" s="15">
         <v>5</v>
       </c>
       <c r="G315" s="12" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="316" spans="1:7">
@@ -13121,11 +13210,11 @@
         <v>312</v>
       </c>
       <c r="B316" s="23" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C316" s="27"/>
       <c r="D316" s="20" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E316" s="15">
         <v>7</v>
@@ -13136,11 +13225,11 @@
         <v>313</v>
       </c>
       <c r="B317" s="25" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C317" s="27"/>
       <c r="D317" s="20" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="318" spans="1:7">
@@ -13148,19 +13237,19 @@
         <v>314</v>
       </c>
       <c r="B318" s="24" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C318" s="27">
         <v>2021</v>
       </c>
       <c r="D318" s="20" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E318" s="17" t="s">
         <v>1060</v>
       </c>
-      <c r="E318" s="17" t="s">
-        <v>1061</v>
-      </c>
       <c r="G318" s="12" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="319" spans="1:7" s="32" customFormat="1">
@@ -13168,16 +13257,16 @@
         <v>315</v>
       </c>
       <c r="B319" s="32" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="C319" s="33">
         <v>2001</v>
       </c>
       <c r="D319" s="33" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="E319" s="34" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="G319" s="35"/>
     </row>
@@ -13186,14 +13275,14 @@
         <v>316</v>
       </c>
       <c r="B320" s="24" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C320" s="4"/>
       <c r="D320" s="28" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E320" s="17" t="s">
         <v>1106</v>
-      </c>
-      <c r="E320" s="17" t="s">
-        <v>1107</v>
       </c>
     </row>
     <row r="321" spans="1:7" ht="45">
@@ -13201,17 +13290,17 @@
         <v>317</v>
       </c>
       <c r="B321" s="24" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="C321" s="4"/>
       <c r="D321" s="28" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E321" s="17" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="G321" s="12" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="322" spans="1:7" ht="15.95" customHeight="1">
@@ -13219,16 +13308,16 @@
         <v>318</v>
       </c>
       <c r="B322" s="23" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="C322" s="4">
         <v>1988</v>
       </c>
       <c r="D322" s="28" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="G322" s="6" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="323" spans="1:7" ht="15.95" customHeight="1">
@@ -13236,29 +13325,29 @@
         <v>319</v>
       </c>
       <c r="B323" s="23" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="C323" s="4"/>
       <c r="D323" s="28" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="E323" s="17" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G323" s="1" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="324" spans="1:7" ht="15.95" customHeight="1">
       <c r="A324" s="1"/>
       <c r="B324" s="23" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="C324" s="4"/>
       <c r="D324" s="28"/>
       <c r="E324" s="17"/>
       <c r="G324" s="1" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="325" spans="1:7" ht="15.95" customHeight="1">
@@ -13266,14 +13355,14 @@
         <v>320</v>
       </c>
       <c r="B325" s="24" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="C325" s="4"/>
       <c r="E325" s="47" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="G325" s="1" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="326" spans="1:7" ht="15.95" customHeight="1">
@@ -13281,17 +13370,17 @@
         <v>321</v>
       </c>
       <c r="B326" s="24" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="C326" s="4"/>
       <c r="D326" s="28" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="E326" s="47" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="G326" s="1" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="327" spans="1:7" ht="15.95" customHeight="1">
@@ -13299,17 +13388,17 @@
         <v>322</v>
       </c>
       <c r="B327" s="24" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="C327" s="4"/>
       <c r="D327" s="28" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="E327" s="47" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="G327" s="1" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="328" spans="1:7" ht="15" customHeight="1">
@@ -13317,16 +13406,16 @@
         <v>323</v>
       </c>
       <c r="B328" s="24" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="D328" s="28" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="E328" s="47" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="G328" s="1" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="329" spans="1:7" ht="15" customHeight="1">
@@ -13334,16 +13423,16 @@
         <v>324</v>
       </c>
       <c r="B329" s="51" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="C329" s="4">
         <v>2015</v>
       </c>
       <c r="D329" s="28" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="E329" s="47" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="330" spans="1:7" ht="15.95" customHeight="1">
@@ -13351,19 +13440,19 @@
         <v>325</v>
       </c>
       <c r="B330" s="24" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="C330" s="4">
         <v>2000</v>
       </c>
       <c r="D330" s="28" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="E330" s="47" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G330" s="1" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="331" spans="1:7" ht="15.95" customHeight="1">
@@ -13371,19 +13460,19 @@
         <v>326</v>
       </c>
       <c r="B331" s="24" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="C331" s="4">
         <v>2023</v>
       </c>
       <c r="D331" s="28" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="E331" s="47" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="G331" s="21" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="332" spans="1:7" ht="15.95" customHeight="1">
@@ -13391,13 +13480,13 @@
         <v>327</v>
       </c>
       <c r="B332" s="24" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="C332" s="4">
         <v>1995</v>
       </c>
       <c r="D332" s="28" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="333" spans="1:7" ht="15.95" customHeight="1">
@@ -13405,16 +13494,16 @@
         <v>328</v>
       </c>
       <c r="B333" s="24" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="C333" s="4">
         <v>2014</v>
       </c>
       <c r="D333" s="28" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="E333" s="47" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="334" spans="1:7" s="32" customFormat="1" ht="15.95" customHeight="1">
@@ -13422,16 +13511,16 @@
         <v>329</v>
       </c>
       <c r="B334" s="32" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="C334" s="45">
         <v>2024</v>
       </c>
       <c r="D334" s="33" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="E334" s="46" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="335" spans="1:7" ht="15.95" customHeight="1">
@@ -13439,67 +13528,101 @@
         <v>330</v>
       </c>
       <c r="B335" s="24" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="C335" s="4">
         <v>2016</v>
       </c>
       <c r="D335" s="28" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="E335" s="16" t="s">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="336" spans="1:7" ht="15.95" customHeight="1">
-      <c r="C336" s="4"/>
-    </row>
-    <row r="337" spans="3:3" ht="15.95" customHeight="1">
-      <c r="C337" s="4"/>
-    </row>
-    <row r="338" spans="3:3" ht="15.95" customHeight="1">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" s="19" customFormat="1" ht="54">
+      <c r="A336" s="66">
+        <v>331</v>
+      </c>
+      <c r="B336" s="63" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C336" s="40">
+        <v>2014</v>
+      </c>
+      <c r="D336" s="20" t="s">
+        <v>1325</v>
+      </c>
+      <c r="E336" s="64" t="s">
+        <v>1324</v>
+      </c>
+      <c r="G336" s="65" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" s="62" customFormat="1" ht="81">
+      <c r="A337" s="62">
+        <v>332</v>
+      </c>
+      <c r="B337" s="67" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C337" s="40">
+        <v>2022</v>
+      </c>
+      <c r="D337" s="20" t="s">
+        <v>1325</v>
+      </c>
+      <c r="E337" s="64" t="s">
+        <v>1324</v>
+      </c>
+      <c r="G337" s="57" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" ht="15.95" customHeight="1">
       <c r="C338" s="4"/>
     </row>
-    <row r="339" spans="3:3" ht="15.95" customHeight="1">
+    <row r="339" spans="1:7" ht="15.95" customHeight="1">
       <c r="C339" s="4"/>
     </row>
-    <row r="340" spans="3:3" ht="15.95" customHeight="1">
+    <row r="340" spans="1:7" ht="15.95" customHeight="1">
       <c r="C340" s="4"/>
     </row>
-    <row r="341" spans="3:3" ht="15.95" customHeight="1">
+    <row r="341" spans="1:7" ht="15.95" customHeight="1">
       <c r="C341" s="4"/>
     </row>
-    <row r="342" spans="3:3" ht="15.95" customHeight="1">
+    <row r="342" spans="1:7" ht="15.95" customHeight="1">
       <c r="C342" s="4"/>
     </row>
-    <row r="343" spans="3:3" ht="15.95" customHeight="1">
+    <row r="343" spans="1:7" ht="15.95" customHeight="1">
       <c r="C343" s="4"/>
     </row>
-    <row r="344" spans="3:3" ht="15.95" customHeight="1">
+    <row r="344" spans="1:7" ht="15.95" customHeight="1">
       <c r="C344" s="4"/>
     </row>
-    <row r="345" spans="3:3" ht="15.95" customHeight="1">
+    <row r="345" spans="1:7" ht="15.95" customHeight="1">
       <c r="C345" s="4"/>
     </row>
-    <row r="346" spans="3:3" ht="15.95" customHeight="1">
+    <row r="346" spans="1:7" ht="15.95" customHeight="1">
       <c r="C346" s="4"/>
     </row>
-    <row r="347" spans="3:3" ht="15.95" customHeight="1">
+    <row r="347" spans="1:7" ht="15.95" customHeight="1">
       <c r="C347" s="4"/>
     </row>
-    <row r="348" spans="3:3" ht="15.95" customHeight="1">
+    <row r="348" spans="1:7" ht="15.95" customHeight="1">
       <c r="C348" s="4"/>
     </row>
-    <row r="349" spans="3:3" ht="15.95" customHeight="1">
+    <row r="349" spans="1:7" ht="15.95" customHeight="1">
       <c r="C349" s="4"/>
     </row>
-    <row r="350" spans="3:3" ht="15.95" customHeight="1">
+    <row r="350" spans="1:7" ht="15.95" customHeight="1">
       <c r="C350" s="4"/>
     </row>
-    <row r="351" spans="3:3" ht="15.95" customHeight="1">
+    <row r="351" spans="1:7" ht="15.95" customHeight="1">
       <c r="C351" s="4"/>
     </row>
-    <row r="352" spans="3:3" ht="15.95" customHeight="1">
+    <row r="352" spans="1:7" ht="15.95" customHeight="1">
       <c r="C352" s="4"/>
     </row>
     <row r="353" spans="3:3" ht="15.95" customHeight="1">
@@ -15481,8 +15604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1009"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -15501,16 +15624,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>487</v>
@@ -15534,7 +15657,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="C3" s="38" t="s">
         <v>583</v>
@@ -15568,7 +15691,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -15660,7 +15783,7 @@
         <v>594</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -15712,10 +15835,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -15762,15 +15885,15 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>603</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>604</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.95" customHeight="1">
@@ -15778,20 +15901,20 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>606</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.95" customHeight="1">
       <c r="B22" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.95" customHeight="1">
       <c r="B23" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.95" customHeight="1"/>
@@ -15809,7 +15932,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>501</v>
@@ -15828,7 +15951,7 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>504</v>
@@ -15847,7 +15970,7 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>504</v>
@@ -15866,7 +15989,7 @@
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -15877,7 +16000,7 @@
         <v>509</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -15888,7 +16011,7 @@
         <v>510</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>511</v>
@@ -15902,7 +16025,7 @@
         <v>512</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -15918,7 +16041,7 @@
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -15934,7 +16057,7 @@
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>517</v>
@@ -15948,7 +16071,7 @@
         <v>518</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>504</v>
@@ -15967,7 +16090,7 @@
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>521</v>
@@ -15981,7 +16104,7 @@
         <v>522</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>523</v>
@@ -15995,13 +16118,13 @@
         <v>13</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>508</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -16022,20 +16145,20 @@
     </row>
     <row r="41" spans="1:8" ht="15" customHeight="1">
       <c r="B41" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D41" s="1"/>
       <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:8" ht="15" customHeight="1">
       <c r="B42" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>1025</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>1026</v>
       </c>
       <c r="D42" s="1">
         <v>9</v>
@@ -16047,125 +16170,131 @@
     </row>
     <row r="43" spans="1:8" ht="15.95" customHeight="1">
       <c r="B43" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="30">
       <c r="B44" s="12" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>1035</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>1036</v>
       </c>
       <c r="D44" s="1"/>
     </row>
     <row r="45" spans="1:8" ht="15.95" customHeight="1">
       <c r="B45" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.95" customHeight="1">
       <c r="B46" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D46" s="1"/>
     </row>
     <row r="47" spans="1:8" ht="15.95" customHeight="1">
       <c r="B47" s="1" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.95" customHeight="1">
       <c r="B48" s="13" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="49" spans="2:6" ht="15.95" customHeight="1">
       <c r="B49" s="13" t="s">
-        <v>1108</v>
+        <v>1320</v>
+      </c>
+      <c r="E49">
+        <v>2024</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>1321</v>
       </c>
     </row>
     <row r="50" spans="2:6" ht="15.95" customHeight="1">
       <c r="B50" s="31" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="51" spans="2:6" ht="15.95" customHeight="1">
       <c r="B51" s="31" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="52" spans="2:6" ht="15.95" customHeight="1">
       <c r="B52" s="31" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="53" spans="2:6" ht="15.95" customHeight="1">
       <c r="B53" s="31" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="54" spans="2:6" ht="15.95" customHeight="1">
       <c r="B54" s="31" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="55" spans="2:6" ht="15.95" customHeight="1">
       <c r="B55" s="31" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="E55" s="1"/>
     </row>
     <row r="56" spans="2:6" ht="15.95" customHeight="1">
       <c r="B56" s="31" t="s">
-        <v>1244</v>
+        <v>1322</v>
       </c>
       <c r="C56" s="1"/>
       <c r="E56" s="1" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="57" spans="2:6" ht="15.95" customHeight="1">
       <c r="B57" s="31" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="C57" s="1"/>
       <c r="E57" s="1"/>
     </row>
     <row r="58" spans="2:6" ht="30">
       <c r="B58" s="31" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="59" spans="2:6" ht="15.95" customHeight="1">
@@ -16176,12 +16305,12 @@
     <row r="60" spans="2:6" ht="15.95" customHeight="1"/>
     <row r="61" spans="2:6" ht="15.95" customHeight="1">
       <c r="B61" s="8" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="62" spans="2:6" ht="15.95" customHeight="1">
       <c r="B62" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="63" spans="2:6" ht="15.95" customHeight="1"/>
@@ -16192,7 +16321,7 @@
     <row r="68" spans="2:3" ht="15.95" customHeight="1"/>
     <row r="69" spans="2:3" ht="15.95" customHeight="1">
       <c r="B69" s="43" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="70" spans="2:3" ht="15.95" customHeight="1"/>
@@ -16202,38 +16331,38 @@
     <row r="74" spans="2:3" ht="15.95" customHeight="1"/>
     <row r="75" spans="2:3" ht="15.95" customHeight="1">
       <c r="B75" s="8" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="76" spans="2:3" ht="15.95" customHeight="1">
       <c r="B76" s="31" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="77" spans="2:3" ht="15.95" customHeight="1">
       <c r="B77" s="1" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="78" spans="2:3" ht="15.95" customHeight="1">
       <c r="B78" s="1" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="79" spans="2:3" ht="15.95" customHeight="1">
       <c r="B79" s="1" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="80" spans="2:3" ht="30">
       <c r="B80" s="12" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="81" ht="15.95" customHeight="1"/>
@@ -17188,12 +17317,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="45">
       <c r="A2" s="12" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
   </sheetData>
@@ -17223,10 +17352,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>1040</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>1041</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -17277,7 +17406,7 @@
         <v>493</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -17317,10 +17446,10 @@
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1">
       <c r="B12" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>1012</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>1013</v>
       </c>
     </row>
     <row r="21" ht="15.95" customHeight="1"/>
@@ -18774,10 +18903,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.95" customHeight="1">
@@ -18823,52 +18952,52 @@
     <row r="53" spans="1:3" ht="15.95" customHeight="1"/>
     <row r="54" spans="1:3" ht="15.95" customHeight="1">
       <c r="B54" s="8" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.95" customHeight="1">
       <c r="B55" s="8" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.95" customHeight="1">
       <c r="B56" s="1" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.95" customHeight="1">
       <c r="B57" s="1" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.95" customHeight="1">
       <c r="B58" s="1" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.95" customHeight="1">
       <c r="B59" s="1" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.95" customHeight="1">
       <c r="B60" s="1" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.95" customHeight="1"/>
     <row r="62" spans="1:3" ht="15.95" customHeight="1"/>
     <row r="63" spans="1:3" ht="15.95" customHeight="1">
       <c r="B63" s="1" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15.95" customHeight="1">
       <c r="B64" s="1" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="65" ht="15.95" customHeight="1"/>
@@ -19837,13 +19966,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -19851,7 +19980,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -19859,10 +19988,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>611</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -19870,10 +19999,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -19881,10 +20010,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -19892,13 +20021,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>615</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -19906,13 +20035,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>617</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -19920,10 +20049,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -19931,10 +20060,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -19942,10 +20071,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -19953,10 +20082,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -19964,10 +20093,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -19975,10 +20104,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -19986,10 +20115,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -19997,10 +20126,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -20008,10 +20137,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -20019,10 +20148,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -20030,10 +20159,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -20041,10 +20170,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -20052,10 +20181,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.95" customHeight="1">
@@ -20063,10 +20192,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.95" customHeight="1">
@@ -20074,10 +20203,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.95" customHeight="1">
@@ -20085,10 +20214,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.95" customHeight="1">
@@ -20096,10 +20225,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.95" customHeight="1">
@@ -20107,10 +20236,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.95" customHeight="1">
@@ -20118,10 +20247,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.95" customHeight="1">
@@ -20129,10 +20258,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.95" customHeight="1">
@@ -20140,10 +20269,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.95" customHeight="1">
@@ -20151,10 +20280,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.95" customHeight="1">
@@ -20162,10 +20291,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.95" customHeight="1">
@@ -20173,10 +20302,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.95" customHeight="1">
@@ -20184,10 +20313,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>643</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.95" customHeight="1">
@@ -20195,10 +20324,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.95" customHeight="1">
@@ -20206,10 +20335,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.95" customHeight="1">
@@ -20217,13 +20346,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>647</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.95" customHeight="1">
@@ -20231,13 +20360,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>649</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.95" customHeight="1">
@@ -20245,10 +20374,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.95" customHeight="1">
@@ -20256,10 +20385,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.95" customHeight="1">
@@ -20267,10 +20396,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.95" customHeight="1">
@@ -20278,10 +20407,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.95" customHeight="1">
@@ -20289,10 +20418,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.95" customHeight="1">
@@ -20300,13 +20429,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.95" customHeight="1">
@@ -20314,13 +20443,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>658</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.95" customHeight="1">
@@ -20328,10 +20457,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.95" customHeight="1">
@@ -20339,13 +20468,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>661</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.95" customHeight="1">
@@ -20353,10 +20482,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.95" customHeight="1">
@@ -20364,10 +20493,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.95" customHeight="1">
@@ -20375,10 +20504,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.95" customHeight="1">
@@ -20386,10 +20515,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.95" customHeight="1">
@@ -20397,10 +20526,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.95" customHeight="1">
@@ -20408,13 +20537,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>668</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15.95" customHeight="1">
@@ -20422,10 +20551,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15.95" customHeight="1">
@@ -20433,10 +20562,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15.95" customHeight="1">
@@ -20444,10 +20573,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15.95" customHeight="1">
@@ -20455,10 +20584,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.95" customHeight="1">
@@ -20466,10 +20595,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15.95" customHeight="1">
@@ -20477,10 +20606,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.95" customHeight="1">
@@ -20488,13 +20617,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>1102</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>1103</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15.95" customHeight="1">
@@ -20502,10 +20631,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15.95" customHeight="1">
@@ -20513,10 +20642,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15.95" customHeight="1">
@@ -20524,10 +20653,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15.95" customHeight="1">
@@ -20535,10 +20664,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15.95" customHeight="1">
@@ -20546,10 +20675,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15.95" customHeight="1">
@@ -20557,10 +20686,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15.95" customHeight="1">
@@ -20568,10 +20697,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15.95" customHeight="1">
@@ -20579,10 +20708,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15.95" customHeight="1">
@@ -20590,10 +20719,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15.95" customHeight="1">
@@ -20601,10 +20730,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15.95" customHeight="1">
@@ -20612,10 +20741,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15.95" customHeight="1">
@@ -20623,10 +20752,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.95" customHeight="1">
@@ -20634,10 +20763,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15.95" customHeight="1">
@@ -20645,10 +20774,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15.95" customHeight="1">
@@ -20656,10 +20785,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15.95" customHeight="1">
@@ -20667,10 +20796,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15.95" customHeight="1">
@@ -20678,10 +20807,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="15.95" customHeight="1">
@@ -20689,10 +20818,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="15.95" customHeight="1">
@@ -20700,10 +20829,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="15.95" customHeight="1">
@@ -20711,10 +20840,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="15.95" customHeight="1">
@@ -20722,10 +20851,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="15.95" customHeight="1">
@@ -20733,10 +20862,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="15.95" customHeight="1">
@@ -20744,10 +20873,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="15.95" customHeight="1">
@@ -20755,10 +20884,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="15.95" customHeight="1">
@@ -20766,10 +20895,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="15.95" customHeight="1">
@@ -20777,10 +20906,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="15.95" customHeight="1">
@@ -20788,10 +20917,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="15.95" customHeight="1">
@@ -20799,10 +20928,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15.95" customHeight="1">
@@ -20810,10 +20939,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15.95" customHeight="1">
@@ -20821,10 +20950,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="15.95" customHeight="1">
@@ -20832,10 +20961,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="15.95" customHeight="1">
@@ -20843,10 +20972,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15.95" customHeight="1">
@@ -20854,10 +20983,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="15.95" customHeight="1">
@@ -20865,10 +20994,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15.95" customHeight="1">
@@ -20876,10 +21005,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="15.95" customHeight="1">
@@ -20887,10 +21016,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="15.95" customHeight="1">
@@ -20898,10 +21027,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15.95" customHeight="1">
@@ -20909,10 +21038,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="15.95" customHeight="1">
@@ -20920,10 +21049,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="15.95" customHeight="1">
@@ -20931,10 +21060,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="15.95" customHeight="1">
@@ -20942,10 +21071,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="15.95" customHeight="1">
@@ -20953,10 +21082,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="15.95" customHeight="1">
@@ -20964,10 +21093,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="15.95" customHeight="1">
@@ -20975,10 +21104,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="15.95" customHeight="1">
@@ -20986,10 +21115,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="15.95" customHeight="1">
@@ -20997,10 +21126,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="15.95" customHeight="1">
@@ -21008,10 +21137,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="15.95" customHeight="1">
@@ -21019,10 +21148,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="15.95" customHeight="1">
@@ -21030,10 +21159,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="15.95" customHeight="1">
@@ -21041,10 +21170,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="15.95" customHeight="1">
@@ -21052,10 +21181,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="15.95" customHeight="1">
@@ -21063,10 +21192,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="15.95" customHeight="1">
@@ -21074,10 +21203,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="15.95" customHeight="1">
@@ -21085,10 +21214,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="15.95" customHeight="1">
@@ -21096,10 +21225,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="15.95" customHeight="1">
@@ -21107,10 +21236,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="15.95" customHeight="1">
@@ -21118,10 +21247,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="15.95" customHeight="1">
@@ -21129,10 +21258,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="15.95" customHeight="1">
@@ -21140,10 +21269,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="15.95" customHeight="1">
@@ -21151,10 +21280,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="15.95" customHeight="1">
@@ -21162,10 +21291,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="15.95" customHeight="1">
@@ -21173,10 +21302,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="15.95" customHeight="1">
@@ -21184,10 +21313,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="15.95" customHeight="1">
@@ -21195,10 +21324,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="15.95" customHeight="1">
@@ -21206,10 +21335,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="15.95" customHeight="1">
@@ -21217,10 +21346,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="15.95" customHeight="1">
@@ -21228,10 +21357,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="15.95" customHeight="1">
@@ -21239,10 +21368,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="15.95" customHeight="1">
@@ -21250,10 +21379,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="15.95" customHeight="1">
@@ -21261,10 +21390,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="15.95" customHeight="1">
@@ -21272,10 +21401,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="15.95" customHeight="1">
@@ -21283,10 +21412,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="15.95" customHeight="1">
@@ -21294,10 +21423,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="15.95" customHeight="1">
@@ -21305,10 +21434,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="15.95" customHeight="1">
@@ -21316,10 +21445,10 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="15.95" customHeight="1">
@@ -21327,10 +21456,10 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="15.95" customHeight="1">
@@ -21338,10 +21467,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="15.95" customHeight="1">
@@ -21349,10 +21478,10 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="15.95" customHeight="1">
@@ -21360,10 +21489,10 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="15.95" customHeight="1">
@@ -21371,10 +21500,10 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="15.95" customHeight="1">
@@ -21382,10 +21511,10 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="15.95" customHeight="1">
@@ -21393,10 +21522,10 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="15.95" customHeight="1">
@@ -21404,10 +21533,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="15.95" customHeight="1">
@@ -21415,10 +21544,10 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="15.95" customHeight="1">
@@ -21426,10 +21555,10 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="15.95" customHeight="1">
@@ -21437,10 +21566,10 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="15.95" customHeight="1">
@@ -21448,10 +21577,10 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="15.95" customHeight="1">
@@ -21459,10 +21588,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="15.95" customHeight="1">
@@ -21470,10 +21599,10 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="15.95" customHeight="1">
@@ -21481,10 +21610,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="15.95" customHeight="1">
@@ -21492,10 +21621,10 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="15.95" customHeight="1">
@@ -21503,10 +21632,10 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="15.95" customHeight="1">
@@ -21514,10 +21643,10 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="15.95" customHeight="1">
@@ -21525,10 +21654,10 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="15.95" customHeight="1">
@@ -21536,10 +21665,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="15.95" customHeight="1">
@@ -21547,10 +21676,10 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="15.95" customHeight="1">
@@ -21558,10 +21687,10 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="15.95" customHeight="1">
@@ -21569,10 +21698,10 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="15.95" customHeight="1">
@@ -21580,10 +21709,10 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="15.95" customHeight="1">
@@ -21591,10 +21720,10 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="15.95" customHeight="1">
@@ -21602,13 +21731,13 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="D159" s="1" t="s">
         <v>778</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="15.95" customHeight="1">
@@ -21616,10 +21745,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="15.95" customHeight="1">
@@ -21627,10 +21756,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="15.95" customHeight="1">
@@ -21638,10 +21767,10 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="15.95" customHeight="1">
@@ -21649,10 +21778,10 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="15.95" customHeight="1">
@@ -21660,10 +21789,10 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="15.95" customHeight="1">
@@ -21671,10 +21800,10 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="15.95" customHeight="1">
@@ -21682,10 +21811,10 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="15.95" customHeight="1">
@@ -21693,10 +21822,10 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="15.95" customHeight="1">
@@ -21704,10 +21833,10 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="15.95" customHeight="1">
@@ -21715,10 +21844,10 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="15.95" customHeight="1">
@@ -21726,10 +21855,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="15.95" customHeight="1">
@@ -21737,10 +21866,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="15.95" customHeight="1">
@@ -21748,10 +21877,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="15.95" customHeight="1">
@@ -21759,10 +21888,10 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="15.95" customHeight="1">
@@ -21770,10 +21899,10 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="15.95" customHeight="1">
@@ -21781,10 +21910,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="15.95" customHeight="1">
@@ -21792,10 +21921,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="15.95" customHeight="1">
@@ -21803,10 +21932,10 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="15.95" customHeight="1">
@@ -21814,10 +21943,10 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="15.95" customHeight="1">
@@ -21825,10 +21954,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="15.95" customHeight="1">
@@ -21836,10 +21965,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="15.95" customHeight="1">
@@ -21847,10 +21976,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="15.95" customHeight="1">
@@ -21858,10 +21987,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="15.95" customHeight="1">
@@ -21869,10 +21998,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="15.95" customHeight="1">
@@ -21880,10 +22009,10 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="15.95" customHeight="1">
@@ -21891,10 +22020,10 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="15.95" customHeight="1">
@@ -21902,10 +22031,10 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="15.95" customHeight="1">
@@ -21913,10 +22042,10 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="15.95" customHeight="1">
@@ -21924,10 +22053,10 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="15.95" customHeight="1">
@@ -21935,10 +22064,10 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="15.95" customHeight="1">
@@ -21946,10 +22075,10 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="15.95" customHeight="1">
@@ -21957,10 +22086,10 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="15.95" customHeight="1">
@@ -21968,10 +22097,10 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="15.95" customHeight="1">
@@ -21979,10 +22108,10 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="15.95" customHeight="1">
@@ -21990,10 +22119,10 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="15.95" customHeight="1">
@@ -22001,10 +22130,10 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="15.95" customHeight="1">
@@ -22012,10 +22141,10 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="15.95" customHeight="1">
@@ -22023,10 +22152,10 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="15.95" customHeight="1">
@@ -22034,10 +22163,10 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="15.95" customHeight="1">
@@ -22045,10 +22174,10 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="15.95" customHeight="1">
@@ -22056,10 +22185,10 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="15.95" customHeight="1">
@@ -22067,10 +22196,10 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="15.95" customHeight="1">
@@ -22078,10 +22207,10 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="15.95" customHeight="1">
@@ -22089,10 +22218,10 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="15.95" customHeight="1">
@@ -22100,10 +22229,10 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="15.95" customHeight="1">
@@ -22111,10 +22240,10 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="15.95" customHeight="1">
@@ -22122,10 +22251,10 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="15.95" customHeight="1">
@@ -22133,10 +22262,10 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="15.95" customHeight="1">
@@ -22144,10 +22273,10 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="15.95" customHeight="1">
@@ -22155,13 +22284,13 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="D209" s="1" t="s">
         <v>829</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>830</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="15.95" customHeight="1">
@@ -22169,10 +22298,10 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="15.95" customHeight="1">
@@ -22180,10 +22309,10 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="15.95" customHeight="1">
@@ -22191,10 +22320,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="15.95" customHeight="1">
@@ -22202,10 +22331,10 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="15.95" customHeight="1">
@@ -22213,10 +22342,10 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="15.95" customHeight="1">
@@ -22224,10 +22353,10 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="15.95" customHeight="1">
@@ -22235,10 +22364,10 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="15.95" customHeight="1">
@@ -22246,10 +22375,10 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="15.95" customHeight="1">
@@ -22257,10 +22386,10 @@
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="15.95" customHeight="1">
@@ -22268,10 +22397,10 @@
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="15.95" customHeight="1">
@@ -22279,10 +22408,10 @@
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="15.95" customHeight="1">
@@ -22290,13 +22419,13 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="D221" s="1" t="s">
         <v>842</v>
-      </c>
-      <c r="C221" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="D221" s="1" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="15.95" customHeight="1">
@@ -22304,10 +22433,10 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="15.95" customHeight="1">
@@ -22315,10 +22444,10 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="15.95" customHeight="1">
@@ -22326,10 +22455,10 @@
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="15.95" customHeight="1">
@@ -22337,10 +22466,10 @@
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="226" spans="1:4" ht="15.95" customHeight="1">
@@ -22348,10 +22477,10 @@
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="15.95" customHeight="1">
@@ -22359,10 +22488,10 @@
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="15.95" customHeight="1">
@@ -22370,10 +22499,10 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="15.95" customHeight="1">
@@ -22381,10 +22510,10 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="230" spans="1:4" ht="15.95" customHeight="1">
@@ -22392,13 +22521,13 @@
         <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="D230" s="1" t="s">
         <v>852</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="D230" s="1" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="15.95" customHeight="1">
@@ -22406,10 +22535,10 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="15.95" customHeight="1">
@@ -22417,13 +22546,13 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="D232" s="1" t="s">
         <v>855</v>
-      </c>
-      <c r="C232" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="D232" s="1" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="15.95" customHeight="1">
@@ -22431,10 +22560,10 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="15.95" customHeight="1">
@@ -22442,10 +22571,10 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="15.95" customHeight="1">
@@ -22453,10 +22582,10 @@
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="15.95" customHeight="1">
@@ -22464,10 +22593,10 @@
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="15.95" customHeight="1">
@@ -22475,10 +22604,10 @@
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="15.95" customHeight="1">
@@ -22486,10 +22615,10 @@
         <v>237</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="15.95" customHeight="1">
@@ -22497,13 +22626,13 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="D239" s="1" t="s">
         <v>863</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="D239" s="1" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="15.95" customHeight="1">
@@ -22511,13 +22640,13 @@
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="D240" s="1" t="s">
         <v>865</v>
-      </c>
-      <c r="C240" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="D240" s="1" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="15.95" customHeight="1">
@@ -22525,13 +22654,13 @@
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="D241" s="1" t="s">
         <v>867</v>
-      </c>
-      <c r="C241" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="D241" s="1" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="242" spans="1:4" ht="15.95" customHeight="1">
@@ -22539,13 +22668,13 @@
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="D242" s="1" t="s">
         <v>869</v>
-      </c>
-      <c r="C242" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="D242" s="1" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="243" spans="1:4" ht="15.95" customHeight="1">
@@ -22553,13 +22682,13 @@
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="D243" s="1" t="s">
         <v>871</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="D243" s="1" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="244" spans="1:4" ht="15.95" customHeight="1">
@@ -22567,10 +22696,10 @@
         <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="245" spans="1:4" ht="15.95" customHeight="1">
@@ -22578,13 +22707,13 @@
         <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="D245" s="1" t="s">
         <v>874</v>
-      </c>
-      <c r="C245" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="D245" s="1" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="246" spans="1:4" ht="15.95" customHeight="1">
@@ -22592,10 +22721,10 @@
         <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="247" spans="1:4" ht="15.95" customHeight="1">
@@ -22603,13 +22732,13 @@
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="D247" s="1" t="s">
         <v>877</v>
-      </c>
-      <c r="C247" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="D247" s="1" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="15.95" customHeight="1">
@@ -22617,10 +22746,10 @@
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="249" spans="1:4" ht="15.95" customHeight="1">
@@ -22628,10 +22757,10 @@
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="250" spans="1:4" ht="15.95" customHeight="1">
@@ -22639,10 +22768,10 @@
         <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="15.95" customHeight="1">
@@ -22650,10 +22779,10 @@
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="252" spans="1:4" ht="15.95" customHeight="1">
@@ -22661,13 +22790,13 @@
         <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="15.95" customHeight="1">
@@ -22675,10 +22804,10 @@
         <v>252</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="254" spans="1:4" ht="15.95" customHeight="1">
@@ -22686,10 +22815,10 @@
         <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="255" spans="1:4" ht="15.95" customHeight="1">
@@ -22697,10 +22826,10 @@
         <v>254</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="256" spans="1:4" ht="15.95" customHeight="1">
@@ -22708,10 +22837,10 @@
         <v>255</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="257" spans="1:4" ht="15.95" customHeight="1">
@@ -22719,10 +22848,10 @@
         <v>256</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="258" spans="1:4" ht="15.95" customHeight="1">
@@ -22730,10 +22859,10 @@
         <v>257</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="259" spans="1:4" ht="15.95" customHeight="1">
@@ -22741,10 +22870,10 @@
         <v>258</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="260" spans="1:4" ht="15.95" customHeight="1">
@@ -22752,10 +22881,10 @@
         <v>259</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="261" spans="1:4" ht="15.95" customHeight="1">
@@ -22763,10 +22892,10 @@
         <v>260</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="15.95" customHeight="1">
@@ -22774,10 +22903,10 @@
         <v>261</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="263" spans="1:4" ht="15.95" customHeight="1">
@@ -22785,10 +22914,10 @@
         <v>262</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="264" spans="1:4" ht="15.95" customHeight="1">
@@ -22796,10 +22925,10 @@
         <v>263</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="265" spans="1:4" ht="15.95" customHeight="1">
@@ -22807,10 +22936,10 @@
         <v>264</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="266" spans="1:4" ht="15.95" customHeight="1">
@@ -22818,10 +22947,10 @@
         <v>265</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="267" spans="1:4" ht="15.95" customHeight="1">
@@ -22829,13 +22958,13 @@
         <v>266</v>
       </c>
       <c r="B267" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="D267" s="1" t="s">
         <v>900</v>
-      </c>
-      <c r="C267" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="D267" s="1" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="268" spans="1:4" ht="15.95" customHeight="1">
@@ -22843,10 +22972,10 @@
         <v>267</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="269" spans="1:4" ht="15.95" customHeight="1">
@@ -22854,10 +22983,10 @@
         <v>268</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="270" spans="1:4" ht="15.95" customHeight="1">
@@ -22865,10 +22994,10 @@
         <v>269</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="271" spans="1:4" ht="15.95" customHeight="1">
@@ -22876,10 +23005,10 @@
         <v>271</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="272" spans="1:4" ht="15.95" customHeight="1">
@@ -22887,10 +23016,10 @@
         <v>272</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="15.95" customHeight="1">
@@ -22898,10 +23027,10 @@
         <v>273</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="15.95" customHeight="1">
@@ -22909,10 +23038,10 @@
         <v>274</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="15.95" customHeight="1">
@@ -22920,10 +23049,10 @@
         <v>275</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="15.95" customHeight="1">
@@ -22931,10 +23060,10 @@
         <v>276</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="15.95" customHeight="1">
@@ -22942,10 +23071,10 @@
         <v>277</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="15.95" customHeight="1">
@@ -22953,7 +23082,7 @@
         <v>278</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="15.95" customHeight="1">
@@ -22961,10 +23090,10 @@
         <v>279</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="15.95" customHeight="1">
@@ -22972,10 +23101,10 @@
         <v>280</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="15.95" customHeight="1">
@@ -22983,10 +23112,10 @@
         <v>281</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="15.95" customHeight="1">
@@ -22994,10 +23123,10 @@
         <v>282</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="15.95" customHeight="1">
@@ -23005,7 +23134,7 @@
         <v>283</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="15.95" customHeight="1">
@@ -23013,7 +23142,7 @@
         <v>284</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="15.95" customHeight="1">
@@ -23021,7 +23150,7 @@
         <v>285</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="15.95" customHeight="1">
@@ -23029,10 +23158,10 @@
         <v>286</v>
       </c>
       <c r="B286" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="C286" s="1" t="s">
         <v>920</v>
-      </c>
-      <c r="C286" s="1" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="15.95" customHeight="1">
@@ -23040,7 +23169,7 @@
         <v>287</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="15.95" customHeight="1">
@@ -23048,7 +23177,7 @@
         <v>288</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="289" spans="1:4" ht="15.95" customHeight="1">
@@ -23056,7 +23185,7 @@
         <v>289</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="290" spans="1:4" ht="15.95" customHeight="1">
@@ -23064,7 +23193,7 @@
         <v>290</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="291" spans="1:4" ht="15.95" customHeight="1">
@@ -23072,7 +23201,7 @@
         <v>291</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="292" spans="1:4" ht="15.95" customHeight="1">
@@ -23080,13 +23209,13 @@
         <v>292</v>
       </c>
       <c r="B292" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="D292" s="1" t="s">
         <v>927</v>
-      </c>
-      <c r="C292" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="D292" s="1" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="293" spans="1:4" ht="15.95" customHeight="1">
@@ -23094,7 +23223,7 @@
         <v>293</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="294" spans="1:4" ht="15.95" customHeight="1">
@@ -23102,7 +23231,7 @@
         <v>294</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="295" spans="1:4" ht="15.95" customHeight="1">
@@ -23110,7 +23239,7 @@
         <v>295</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="296" spans="1:4" ht="15.95" customHeight="1">
@@ -23118,10 +23247,10 @@
         <v>296</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="297" spans="1:4" ht="15.95" customHeight="1"/>
@@ -23856,10 +23985,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>1040</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>1041</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -23867,7 +23996,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -23875,7 +24004,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -23883,10 +24012,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>946</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -23894,10 +24023,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -23905,10 +24034,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -23916,10 +24045,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -23927,10 +24056,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -23938,10 +24067,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -23949,10 +24078,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -23960,10 +24089,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -23971,10 +24100,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -23982,10 +24111,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -23993,10 +24122,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -24004,10 +24133,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -24015,10 +24144,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>959</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -24026,10 +24155,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -24037,10 +24166,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -24048,10 +24177,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -24059,10 +24188,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.95" customHeight="1">
@@ -24070,10 +24199,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.95" customHeight="1">
@@ -24081,10 +24210,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.95" customHeight="1">
@@ -24092,10 +24221,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.95" customHeight="1">
@@ -24103,10 +24232,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.95" customHeight="1">
@@ -24114,10 +24243,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.95" customHeight="1">
@@ -24125,10 +24254,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.95" customHeight="1">
@@ -24136,10 +24265,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.95" customHeight="1">
@@ -24147,10 +24276,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.95" customHeight="1">
@@ -24158,10 +24287,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.95" customHeight="1">
@@ -24169,10 +24298,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.95" customHeight="1">
@@ -24180,10 +24309,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>975</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>976</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.95" customHeight="1"/>
@@ -25182,7 +25311,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -25190,7 +25319,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -25198,7 +25327,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -25206,7 +25335,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -25214,7 +25343,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -25222,7 +25351,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -25230,7 +25359,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -25238,7 +25367,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -25246,7 +25375,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -25254,7 +25383,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -25262,42 +25391,42 @@
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" customHeight="1">
       <c r="B13" s="7" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15" customHeight="1">
       <c r="B14" s="6" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" customHeight="1">
       <c r="B15" s="6" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15" customHeight="1">
       <c r="B16" s="6" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="15" customHeight="1">
       <c r="B17" s="6" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="15" customHeight="1">
       <c r="B18" s="6" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="15" customHeight="1">
       <c r="B19" s="6" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="15" customHeight="1">
@@ -25305,17 +25434,17 @@
     </row>
     <row r="21" spans="2:2" ht="15" customHeight="1">
       <c r="B21" s="6" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="15" customHeight="1">
       <c r="B22" s="6" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="23" spans="2:2" ht="15.95" customHeight="1">
       <c r="B23" s="6" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="15.95" customHeight="1"/>
